--- a/DOWNLOADS/EDITAIS/U_989859_E_900262025_29-09-2025_09h00m/U_989859_E_900262025_29-09-2025_09h00m_master.xlsx
+++ b/DOWNLOADS/EDITAIS/U_989859_E_900262025_29-09-2025_09h00m/U_989859_E_900262025_29-09-2025_09h00m_master.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1503" uniqueCount="868">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1111" uniqueCount="509">
   <si>
     <t>Nº</t>
   </si>
@@ -1177,7 +1177,7 @@
     <t>Afinador digital, guitarra, caixa de plástico, cromático, alimentação em bateria, pinça, com tela, display colorido, frequência mínima 430 Hz, desligamento automático, calibração de frequência.</t>
   </si>
   <si>
-    <t>Afoxé, madeira pinho, alumínio ondulado, arame de metal, miçangas ABS, cabo ABS, tampa e fundo em ABS, Parafuso central para fixação da tampa, fundo e cabo; afoxé com no mínimo. 500 Miçangas (bolinhas) diâmetro de cada Miçanga (bolinhas): 5,7mm. Comprimento total mínimo 20 em, com diâmetro mínimo do corpo 13 cm, tamanho mínimo do cabo l1lem, com diâmetro mínimo de 2,2 cm, diâmetro mínimo do corpo 13 em. Peso.: 470g.</t>
+    <t>Afoxé, madeira pinho, alumínio ondulado, arame de metal, miçangas ABS, cabo ABS, tampa e fundo em ABS, Parafuso central para fixação da tampa, fundo e cabo; afoxé com no mínimo. 500 Miçangas (bolinhas) diâmetro de cada Miçanga (bolinhas): 5,7mm. Comprimento total mínimo 20 em, com diâmetro mínimo do corpo 13 cm, tamanho mínimo do cabo 11lem, com diâmetro mínimo de 2,2 cm, diâmetro mínimo do corpo 13 em. Peso.: 470g.</t>
   </si>
   <si>
     <t>Agogô duplo médio, incluso baqueta, baqueta de madeira, duplo aço cromado. Tamanho mínimo das bocas: 6cm e 5 cm, Peso aproximado: 280g. Dimensões mínimas: 28 cm comprimento x 10 cm largura x 28 cm altura.</t>
@@ -1186,19 +1186,19 @@
     <t>Baqueta, silicone, flexível, tamanho mínimo 40 cm, diâmetro mínimo 6mm.</t>
   </si>
   <si>
-    <t>Baquetas para surdo, madeira marfim, resistente, ponta arredondada, cabeça da baqueta é em formato oval, macia e almofadada, com revestimento em tecido feltro.º Medida —mínima: 29ncm  de comprimento, diâmetro do cabo 2 em, cabeça da baqueta com no mínimo 5 cm.</t>
+    <t>Baquetas para surdo, madeira marfim, resistente, ponta arredondada, cabeça da baqueta é em formato oval, macia e almofadada, com revestimento em tecido feltro.º Medida mínima: 29ncm de comprimento, diâmetro do cabo 2 em, cabeça da baqueta com no mínimo 5 cm.</t>
   </si>
   <si>
     <t>Baquetas, madeira marfim, resistente, empunhadura macia, antideslizante, ponta pequena oval, 7º, cabo revestido com uma fita especial emborrachada. Comprimento mínimo 38cm, 1l4mm de diâmetro em média de 15 a 17,5”, peso mínimo 100 gramas.</t>
   </si>
   <si>
-    <t>Bateria — acústica, cascos  construídos embasswood; tom com sistema de suspensão 10"x 8" coml12 afinações; tom com sistema de suspensão 12"x 9" com 12 afinações; surdo de chão de 14" x 14" com 16 afinações; bumbo de 20" x 16" com 16 afinações com pés telescópicos com regulagem de altura; caixa de madeira 14" x 5,5" com 16 afinações; ferragens com pedal de bumbo, uma estante de prato reta com pés triplo, uma estante de prato girafa com pés triplo, estante de caixa com pés triplo, máquina de chimbal com pés triplo, banco acolchoado redondo com pés triplo, com regulagem de altura: Máx: 57em e Mín: 45cm, regulagem: por furação e aperto por rosca, espessura mínima dos tubos: 2,4 cm e 2,9cm, largura mínima do assento: 28 cem, material de assento couro sintético preto, espessura mínima do assento 6 ecm, densidade D33, com  pés emborrachados, tripé com ferragens dupla, acabamento cromado, suporta até 98 kg. kit de pratos: hi hat 14"; crash 16"; ride 20" - em bronze liga b8</t>
-  </si>
-  <si>
-    <t>Cabos P 10 para instrumento, P1IO e PIO capa de PVC emborrachado altamente resistente, dupla blindagem com semicondutora e trança metálica, conectores P10 x P1O usinados em latão (CLA) e capa injetada em ZAMAC (liga de alumínio) niquelados, “comprimento — mínimo: 3,5 metros, bitola em mm: 0,50 mmº? , bitola em AWG 20 AWG.</t>
-  </si>
-  <si>
-    <t>Cajon, eletroacústico, confortável, acabamento do corpo em madeira cerejeira, sofisticado, captador interno e externo, baixas frequências, assento em MDF, placa de aço escovado, pele em acetinado em gel, captação dupla dinâmica, com 2 saídas balanceadas, pintura em  nitrocelulose. Descrições mínimas: 22 fios, caixa de ressonância maior e pele de 2mm.</t>
+    <t>Bateria acústica, cascos construídos embasswood; tom com sistema de suspensão 10"x 8" com 12 afinações; tom com sistema de suspensão 12"x 9" com 12 afinações; surdo de chão de 14" x 14" com 16 afinações; bumbo de 20" x 16" com 16 afinações com pés telescópicos com regulagem de altura; caixa de madeira 14" x 5,5" com 16 afinações; ferragens com pedal de bumbo, uma estante de prato reta com pés triplo, uma estante de prato girafa com pés triplo, estante de caixa com pés triplo, máquina de chimbal com pés triplo, banco acolchoado redondo com pés triplo, com regulagem de altura: Máx: 57em e Mín: 45cm, regulagem: por furação e aperto por rosca, espessura mínima dos tubos: 2,4 cm e 2,9cm, largura mínima do assento: 28 cem, material de assento couro sintético preto, espessura mínima do assento 6 ecm, densidade D33, com pés emborrachados, tripé com ferragens dupla, acabamento cromado, suporta até 98 kg. kit de pratos: hi hat 14"; crash 16"; ride 20" - em bronze liga b8</t>
+  </si>
+  <si>
+    <t>Cabos P 10 para instrumento, P1IO e PIO capa de PVC emborrachado altamente resistente, dupla blindagem com semicondutora e trança metálica, conectores P10 x P1O usinados em latão (CLA) e capa injetada em ZAMAC (liga de alumínio) niquelados, comprimento mínimo: 3,5 metros, bitola em mm: 0,50 mmº?, bitola em AWG 20 AWG.</t>
+  </si>
+  <si>
+    <t>Cajon, eletroacústico, confortável, acabamento do corpo em madeira cerejeira, sofisticado, captador interno e externo, baixas frequências, assento em MDF, placa de aço escovado, pele em acetinado em gel, captação dupla dinâmica, com 2 saídas balanceadas, pintura em nitrocelulose. Descrições mínimas: 22 fios, caixa de ressonância maior e pele de 2mm.</t>
   </si>
   <si>
     <t>Contrabaixo 4 cordas mais Kkit incluso, braço madeira de maple, chave de afinação, madeira do corpo cedro, orientação de mão destro, acabamento envernizado, quantidade de cordas 4, tipo de madeira de cedro, tipo de material do diapasão osso, tipo de corda: leve, configuração dos captadores HH, tipo de equalização do captador passivo, Tipo de ponte Standard cromada, quantidade mínima de trastes 21, tarraxas cromadas, Captadores com no mínimo 2, Profundidade mínima do corpo 109 cm, largura mínima do corpo 40 em, Comprimento mínimo do corpo 109 em, Comprimento mínimo da escala 340 mm, itens inclusos: lx Capa Contra Baixo, 1x Afinador Digital, lx Correia Basso e lx Cabo P10 P10 Emborrachado 5m</t>
@@ -1219,7 +1219,7 @@
     <t>Flauta doce, resina ABS, afinação em Dó (C), soprano, barroca, leve, sopro reto, passagem de ar: plana montagem: 3 peças (cabeça, corpo e pé) tamanho total: 30cm, acompanha: vareta para limpeza, com estojos das Flautas feitos de algodão natural.</t>
   </si>
   <si>
-    <t>Guitarra, elétrica, 6 cordas, 22 trastes, cordas em aço, destro, corpo em madeira técnica, acabamento em verniz, captadores de ponte, meio e braço single, ponte tremolo, madeira do braço marfim, corpo em madeira cedro, stratocaster, controles em chave seletora de captadores, tone, volume, forma de braço C, no mínimo | chaves seletoras.</t>
+    <t>Guitarra, elétrica, 6 cordas, 22 trastes, cordas em aço, destro, corpo em madeira técnica, acabamento em verniz, captadores de ponte, meio e braço single, ponte tremolo, madeira do braço marfim, corpo em madeira cedro, stratocaster, controles em chave seletora de captadores, tone, volume, forma de braço C, no mínimo 1 chaves seletoras.</t>
   </si>
   <si>
     <t>Mesa de som, 16 canais, phantom power, equalizador, entrada usb pendrive, console analógica, corrente elétrica, alimentação fantasma 48 volts, bivolt, com efeitos, conector XLR , chave ON, conteúdo da embalagem mesa de som, cabo de força e manual, dimensões mínimas do produto 54 (Largura) x 53 (Profundidade) x 18 (Altura) em</t>
@@ -1231,16 +1231,16 @@
     <t>Microfone profissional, com fio, formato de mão, 2 (dois) microfone, entrada XLR e saída P10, cardioide, frequência mínima e máxima em 60 Hz a 12 kHz</t>
   </si>
   <si>
-    <t>Microfone profissional, sem fio, formato de mão, 2 (dois) microfone, 01 (um) receptor sem fio, cardioide, com  bluetooth, alimentação em bateria AA, transmissor e receptor com distância mínima em 6 m, frequência mínima e máxima em 60 Hz a 12 kHz</t>
-  </si>
-  <si>
-    <t>Microfones profissional shotgun Uni- Directional!" condensador “para  coral, Polaridade: Ultra-cardióde, conectores de saída P10, resposta mínima de frequência: 100-1600Hz, sensibilidade: -44dB, +2dB (Curta distância), -23dB, +2dB (Longa distância), chave seletora: off, normal e tele, medidas do microfone: comprimento 25,4 em, largura Microfone: 2 em, comprimento espuma: 13,6 cm e comprimento mínimo do fio: 7m</t>
-  </si>
-  <si>
-    <t>Pandeiro, instrumento percussão, multicolorido, pele leitosa, plástico em policarbonato, profissional, 15 platinelas, 11 polegadas, — ergonômico, leve. Medidas mínimo: comprimento 30 cm, altura 4 cm, largura 30 cm, diâmetro 10 cm, peso 350 gramas.</t>
-  </si>
-  <si>
-    <t>Pandeirola, instrumento percussão, multicolorido, meia lua, manopla de plástico em policarbonato, profissional, 16 pares de platinelas em inox, ergonômico, leve, material do corpo plástico, material do remendo:  sintético, tamanho  mínimo: Comprimento 21cm, alta:20cm.</t>
+    <t>Microfone profissional, sem fio, formato de mão, 2 (dois) microfone, 01 (um) receptor sem fio, cardioide, com bluetooth, alimentação em bateria AA, transmissor e receptor com distância mínima em 6 m, frequência mínima e máxima em 60 Hz a 12 kHz</t>
+  </si>
+  <si>
+    <t>Microfones profissional shotgun Uni-Directional! condensador para coral, Polaridade: Ultra-cardióide, conectores de saída P10, resposta mínima de frequência: 100-1600Hz, sensibilidade: -44dB, +2dB (Curta distância), -23dB, +2dB (Longa distância), chave seletora: off, normal e tele, medidas do microfone: comprimento 25,4 em, largura Microfone: 2 em, comprimento espuma: 13,6 cm e comprimento mínimo do fio: 7m</t>
+  </si>
+  <si>
+    <t>Pandeiro, instrumento percussão, multicolorido, pele leitosa, plástico em policarbonato, profissional, 15 platinelas, 11 polegadas, ergonômico, leve. Medidas mínimo: comprimento 30 cm, altura 4 cm, largura 30 cm, diâmetro 10 cm, peso 350 gramas.</t>
+  </si>
+  <si>
+    <t>Pandeirola, instrumento percussão, multicolorido, meia lua, manopla de plástico em policarbonato, profissional, 16 pares de platinelas em inox, ergonômico, leve, material do corpo plástico, material do remendo: sintético, tamanho mínimo: Comprimento 21cm, alta:20cm.</t>
   </si>
   <si>
     <t>Pedestais para caixa de bateria, caixa de bateria, rosca em alta qualidade, aço cromado, ajuste giratório, pés triplos, ponta de borracha, ferragens duplas, duplo ajuste altura mínima de 35cm a 55cm, com estrutura reforçada, pés antiderrapantes.</t>
@@ -1249,22 +1249,22 @@
     <t>Pedestal para piano, preto, teclado, alumínio, ajustável, portátil, formato em X, abertura em 5 níveis, compatível a teclados de 61 teclas, dobrável e regulável em altura, pés antiderrapantes, altura máxima 96cm, largura mínima 30cm e largura máxima 90 cem, reforçado até 25kg.</t>
   </si>
   <si>
-    <t>Pedestal, para microfone, aço carbono, braço girafa, tripé, preto, com regulagem, pé antiderrapantes, — dobrável, com  altura mínima: 80 cm e máxima 150 cm</t>
+    <t>Pedestal, para microfone, aço carbono, braço girafa, tripé, preto, com regulagem, pé antiderrapantes, dobrável, com altura mínima: 80 cm e máxima 150 cm</t>
   </si>
   <si>
     <t>Repique de mão, material alumínio, aro cromado, pele leitosa,y com chave de afinação, tamanho 30 cm X 8”, com no mínimo 5 afinadores</t>
   </si>
   <si>
-    <t>Suporte estante rack, chão, com rodas de silicone, giro 360º, com função de freio, aço, proteção em E.V.A, ajustável, dobrável, apoio para braços do instrumento, proteções emborrachas. — Descrições — mínimas: 5 instrumentos, 40 cm de comprimento x 74 em de largura x 75 cm de altura.</t>
-  </si>
-  <si>
-    <t>Suporte para timbal, desmontável, aço carbonado, pés triplos, com adaptação para o timbal de tamanho mínimo  14X90, regulagem de altura, altura mínima 60 cm, altura máxima 100 cm, pintura eletrostática, cor: Preto</t>
-  </si>
-  <si>
-    <t>Teclado musical acompanha 01l Capa; Ol Suporte em “X”; 01 Fonte Bivolt; teclado com 61 teclas tamanho padrão; polifonia máxima 48 timbres; tons integrados: 400; Porta USB; Conectores do PEDAL: Entrada padrão (6,3mm) (Estabilização do pedal, sustenido, soft, início/parada) 16 Multitimbres recebidos, GM nível 1 padrão; Garantia mínima de 01 ano</t>
-  </si>
-  <si>
-    <t>Timbal, madeira verniz, ferragem em acrílico, cor natural, pele leitosa, percussão, diâmetro — mínimo 254 cm, tamanho mínimol14”X 90 cm de altura, com no mínimo 5 afinadores.</t>
+    <t>Suporte estante rack, chão, com rodas de silicone, giro 360º, com função de freio, aço, proteção em E.V.A, ajustável, dobrável, apoio para braços do instrumento, proteções emborrachas. Descrições mínimas: 5 instrumentos, 40 cm de comprimento x 74 em de largura x 75 cm de altura.</t>
+  </si>
+  <si>
+    <t>Suporte para timbal, desmontável, aço carbonado, pés triplos, com adaptação para o timbal de tamanho mínimo 14X90, regulagem de altura, altura mínima 60 cm, altura máxima 100 cm, pintura eletrostática, cor: Preto</t>
+  </si>
+  <si>
+    <t>Teclado musical acompanha 01 Capa; 01 Suporte em X; 01 Fonte Bivolt; teclado com 61 teclas tamanho padrão; polifonia máxima 48 timbres; tons integrados: 400; Porta USB; Conectores do PEDAL: Entrada padrão (6,3mm) (Estabilização do pedal, sustenido, soft, início/parada) 16 Multitimbres recebidos, GM nível 1 padrão; Garantia mínima de 01 ano</t>
+  </si>
+  <si>
+    <t>Timbal, madeira verniz, ferragem em acrílico, cor natural, pele leitosa, percussão, diâmetro mínimo 254 cm, tamanho mínimo 14”X 90 cm de altura, com no mínimo 5 afinadores.</t>
   </si>
   <si>
     <t>Triângulo, aço cromado, incluso batedor. Dimensões mínimas: tamanho de 30 cm em todos os lados, espessura de 10mm, baqueta aço cromado: batedor, peso: 410 gramas.</t>
@@ -1276,7 +1276,7 @@
     <t>Apito, confeccionado em plástico, tamanho oficial, com esfera de plástico impermeável em sua parte interior, contendo em sua parte anterior um orifício onde será inserida uma argola de metal para fixação do cordão.</t>
   </si>
   <si>
-    <t>Bola de futsal oficial, com 68cm a 69cm de circunferência, pesando entre 420 e 450 gramas, contendo em seu interior câmara em butil,  confeccionada em PU, miolo removível.</t>
+    <t>Bola de futsal oficial, com 68cm a 69cm de circunferência, pesando entre 420 e 450 gramas, contendo em seu interior câmara em butil, confeccionada em PU, miolo removível.</t>
   </si>
   <si>
     <t>Bola de basquete oficial, com 72cm a 74cm de circunferência, pesando entre 450 a 500 gramas, câmara butil, matrizada, borracha, miolo removível.</t>
@@ -1300,7 +1300,7 @@
     <t>Cronômetro, digital, plástico, multifuncional, visor em LCD, resistente à água, analógico, com alarme, relógio em tempo real, ritmos selecionáveis, incluso cordão de segurança, leve, memória interna, capacidade mínima em 6 horas: 59 minutos: 59 segundos: 99 centésimos de segundo, precisão centésimos 1/100 segundos.</t>
   </si>
   <si>
-    <t>Colchonete “para  atividades  física, composição do material interno espuma de poliuretano com densidade 23, capa parte externa: napa, impermeável, antiácaro e antialérgico, com acabamento selado, sem zíper; medida mínima: 180cm comprimento x 60 em de largura x 4cm de espessura.</t>
+    <t>Colchonete para atividades física, composição do material interno espuma de poliuretano com densidade 23, capa parte externa: napa, impermeável, antiácaro e antialérgico, com acabamento selado, sem zíper; medida mínima: 180cm comprimento x 60 em de largura x 4cm de espessura.</t>
   </si>
   <si>
     <t>Rede para voleibol, confeccionada em polietileno (nylon) de filamento contínuo na cor preta de 0O2mm, medida oficial, com 04 (quatro) faixas de tecido em sarja, com malha de 10 x 10 cm, comprimento mínimo de 9,50m, com largura entre 1,00m a 1,20m, acompanhada por corda de nylon ou seda branca, medindo 12m de comprimento e O05mm de espessura.</t>
@@ -1309,13 +1309,13 @@
     <t>Rede para Aro de Basquete, medida oficial, com diâmetro entre 450 mm e 457mm e comprimento entre 400mm e 450mm, confeccionada em fios de polipropileno (seda) de 0O4mm, com malha de 07cm x 07em</t>
   </si>
   <si>
-    <t>Computador Completo E, com Windows 10 Pro G64bits licenciado  vitalício; configurações mínimas ou superior: gabinete (predominância preto piano, torre, placas mãe ATX; fonte mínimo  fonte mínimo 500watts real automática; processador (mínimo de 12º geração, frequência base mínima 2.5Ghz, seis núcleos, cache 18mb, com vídeo integrado); memória (l6gb, DDR4 3200 MHz); hd (01 SSD SATA 3 ou M.2 240gb); mouse (predominância preto, óptico, usb, 03 botões com scroll, 1000dpi); teclado (predominância preto, ABNT2); placa mãe (on-board som, vídeo, rede - 01x PCI express x16 3.0, 03x usb 3.1, 04x portas Sata, 01x porta RJ45 Gigabit LAN, 01x saída VGA; 03x tomadas de áudio; suporte a memórias DDR4 2400Mhz mínimo até 32gb); caixa de som (USB com saída fone de ouvido (5watts rms); monitor (LED 21,5" widescreen preto resolução 1920x1080 ou superior, entrada VGA tempo resposta máximo 5ms, taxa de atualização 60Hz, sem auto-falante embutido); garantia mínima de 12 (doze) meses.</t>
+    <t>Computador Completo E, com Windows 10 Pro G64bits licenciado vitalício; configurações mínimas ou superior: gabinete (predominância preto piano, torre, placas mãe ATX; fonte mínimo 500watts real automática; processador (mínimo de 12º geração, frequência base mínima 2.5Ghz, seis núcleos, cache 18mb, com vídeo integrado); memória (16gb, DDR4 3200 MHz); hd (01 SSD SATA 3 ou M.2 240gb); mouse (predominância preto, óptico, usb, 03 botões com scroll, 1000dpi); teclado (predominância preto, ABNT2); placa mãe (on-board som, vídeo, rede - 01x PCI express x16 3.0, 03x usb 3.1, 04x portas Sata, 01x porta RJ45 Gigabit LAN, 01x saída VGA; 03x tomadas de áudio; suporte a memórias DDR4 2400Mhz mínimo até 32gb); caixa de som (USB com saída fone de ouvido (5watts rms); monitor (LED 21,5" widescreen preto resolução 1920x1080 ou superior, entrada VGA tempo resposta máximo 5ms, taxa de atualização 60Hz, sem auto-falante embutido); garantia mínima de 12 (doze) meses.</t>
   </si>
   <si>
     <t>Notebook, com Windows 11 Pro 64bits licenciado vitalício; configurações mínimas ou superior: processador (mínimo de 13º Geração, 18mb cache, com vídeo integrado), 10-Cores 16-Threads, (Memória 8GB RAM DDR4 3200 MHz) (SSD 256 GB de armazenamento NVMe M.2), frequência base mínima 2.5ghz (4.6GHz Turbo) tela de 15,6" com Full HD, porta HDMI, portas USB-A, portas USB-C, porta RJ45 para conexões LAN</t>
   </si>
   <si>
-    <t>Adaptador de Jlápis, silicone, duplo, ecológico, ergonômico, ambidestro, leve, macio, sem látex, não tóxico, no mínimo 2 cores diferentes.</t>
+    <t>Adaptador de Lápis, silicone, duplo, ecológico, ergonômico, ambidestro, leve, macio, sem látex, não tóxico, no mínimo 2 cores diferentes.</t>
   </si>
   <si>
     <t>Balão de latex, de borracha natural com 50 unidades tamanho 24x17cm - Nº 7</t>
@@ -1336,7 +1336,7 @@
     <t>Caderno, pequeno, folha listrada, espiral de metal colorido, caderneta, sortido, capa flexível, pautada, mínimo de 96 folhas.</t>
   </si>
   <si>
-    <t>Calculadora, digital, portátil, capacidade 12 (doze) dígitos, com as 04 (quatro) operações básicas, raiz quadrada,  porcentagem, correção parcial e total, inversão de sinais, memoória, bateria a luz solar, garantia mínima de 6 meses. Cor branca.</t>
+    <t>Calculadora, digital, portátil, capacidade 12 (doze) dígitos, com as 04 (quatro) operações básicas, raiz quadrada, porcentagem, correção parcial e total, inversão de sinais, memoória, bateria a luz solar, garantia mínima de 6 meses. Cor branca.</t>
   </si>
   <si>
     <t>Caneta esferográfica, cor azul, escrita fina, corpo em plástico transparente, sextavado, ponta de tungstênio, corpo com orifício para respiro, carga removível, não rosqueada, tampa cônica ventilada e tampão superior de pressão, protetor plástico entre a carga e o corpo da caneta, tamanho de aproximadamente 15 cm coma tampa, fabricação nacional, cx com 50 und.</t>
@@ -1354,10 +1354,10 @@
     <t>Cola de Isopor, embalagem: 90 gramas. Não tóxica. Cola Liquida transparente.</t>
   </si>
   <si>
-    <t>Cola Quente, em bastão 11,00 mm x 300 mm pacote com lkg. não tóxica a base de resina termoplástica</t>
-  </si>
-  <si>
-    <t>Cola Quente, em bastão 7,50 mm x 300 mm pacote com lkg. não tóxica a base de resina termoplástica</t>
+    <t>Cola Quente, em bastão 11,00 mm x 300 mm pacote com 1kg. não tóxica a base de resina termoplástica</t>
+  </si>
+  <si>
+    <t>Cola Quente, em bastão 7,50 mm x 300 mm pacote com 1kg. não tóxica a base de resina termoplástica</t>
   </si>
   <si>
     <t>Cola, liquida, a base de P.V.A., branca, para uso em papel, cerâmica, tecido, artesanato. Embalagem: frasco plástico com 500 g.</t>
@@ -1366,16 +1366,16 @@
     <t>Cola, liquida, a base de P.V.A., branca, para uso em papel, cerâmica, tecido, artesanato. Embalagem: frasco plástico com 90 g.</t>
   </si>
   <si>
-    <t>Compasso, —“metal,  resistente,  leve, embalagem individual, sistema de abertura por manual, ponta agulha e grafite, com adaptador para lápis, comprimento mínimo 12 em, material metal, plástico e grafite.</t>
-  </si>
-  <si>
-    <t>Conjunto de tesoura para artesanato, escalope, cores sortidas, aço inoxidável, cabo em plástico, no mínimo de 20 cm de comprimento, tesouras para artesanato com borda decorativa, tesouras para artesanato, tesouras de dente de serra, tesouras decorativas, tesouras para  scrapbook, tesouras elegantes, tesouras para padrões, tesouras para design tesouras de artesanato em aço inoxidável com bordas decorativas, cabo de resina ABS, corte seguro e suave para Scrapbooking e Projetos DIY</t>
+    <t>Compasso, metal, resistente, leve, embalagem individual, sistema de abertura por manual, ponta agulha e grafite, com adaptador para lápis, comprimento mínimo 12 em, material metal, plástico e grafite.</t>
+  </si>
+  <si>
+    <t>Conjunto de tesoura para artesanato, escalope, cores sortidas, aço inoxidável, cabo em plástico, no mínimo de 20 cm de comprimento, tesouras para artesanato com borda decorativa, tesouras para artesanato, tesouras de dente de serra, tesouras decorativas, tesouras para scrapbook, tesouras elegantes, tesouras para padrões, tesouras para design tesouras de artesanato em aço inoxidável com bordas decorativas, cabo de resina ABS, corte seguro e suave para Scrapbooking e Projetos DIY</t>
   </si>
   <si>
     <t>Fita adesiva, dupla face papel 18x30.</t>
   </si>
   <si>
-    <t>Fita adesiva transparente, em Filme de polipropileno  bi-orientado Coberto com adesivo acrílico, pacote com 4 unidades.</t>
+    <t>Fita adesiva transparente, em Filme de polipropileno bi-orientado Coberto com adesivo acrílico, pacote com 4 unidades.</t>
   </si>
   <si>
     <t>Gizão de cera, cores variadas e vivas, resistente, formato anatômico e cilíndrico, livre de manchas. Descrições e dimensões mínimas: 06 cores, com selo de certificação do INMETRO.</t>
@@ -1399,10 +1399,10 @@
     <t>Lápis, cera, dimensões 1,0 em (diametro) x 9,0 em (comprimento), com variação de +/- 0,5 cm. Embalagem: caixa com 12 cores diversas.</t>
   </si>
   <si>
-    <t>Lápis, de cor, revestido em madeira, comprimento de 17,5 ecm, com variação de +/- 0,5 cm, pigmentos com alta concentração, cores vivas e intensa com exelente deposição, exclusiva formula macia e resistente produzido com materia-prima de alta qualidade, desliza facilmente, madeira plantada de alta qualidade, facil de aponta, fidelidade entre a cor do verniz e a cor da mina que atende as necessidades, mina centralizada — que — proporciona — maior resistência a quebras e melhor perfomace, atóxico e seguro para uso - caixa com 12 unid.</t>
-  </si>
-  <si>
-    <t>Lápis, mina grafite, numero 02 (dois), revestido — em  madeira  reflorestada, comprimento 175 mm podendo variar em + ou - 5%, com ponta feita, gravado no seu corpo a marca do fabricante, caixa com 144 um.</t>
+    <t>Lápis, de cor, revestido em madeira, comprimento de 17,5 ecm, com variação de +/- 0,5 cm, pigmentos com alta concentração, cores vivas e intensa com exelente deposição, exclusiva formula macia e resistente produzido com materia-prima de alta qualidade, desliza facilmente, madeira plantada de alta qualidade, facil de aponta, fidelidade entre a cor do verniz e a cor da mina que atende as necessidades, mina centralizada que proporciona maior resistência a quebras e melhor perfomace, atóxico e seguro para uso - caixa com 12 unid.</t>
+  </si>
+  <si>
+    <t>Lápis, mina grafite, numero 02 (dois), revestido em madeira reflorestada, comprimento 175 mm podendo variar em + ou - 5%, com ponta feita, gravado no seu corpo a marca do fabricante, caixa com 144 um.</t>
   </si>
   <si>
     <t>Livro, jogo dos dilemas, confeccionado em capa mole, trazendo 40 cartas para trabalhar valores éticos, gênero filosofia e psicologia. Dimensões mínimas: 6cm largura x 8cm altura.</t>
@@ -1441,7 +1441,7 @@
     <t>Pasta catalogo, com 50 envelopes plástico resistente incolor, dimensões de 240 x 340 mm podendo variar em ate + 10%, em papelão liso revestido em pvc na cor azul, com 04 parafusos metálicos para fixação dos envelopes, visor para identificação em pvc cristal.</t>
   </si>
   <si>
-    <t>Pasta sanfona 31 divisórias, Material atóxico, 100% reciclável, fechamento com elásticos, 31l mini  etiquetas  para identificação de divisórias, tamanho mínimo L: 380 X A: 250 mm. Nas cores azul e cinza, sedo 250 de cada cor.</t>
+    <t>Pasta sanfona 31 divisórias, Material atóxico, 100% reciclável, fechamento com elásticos, 31 mini etiquetas para identificação de divisórias, tamanho mínimo L: 380 X A: 250 mm. Nas cores azul e cinza, sendo 250 de cada cor.</t>
   </si>
   <si>
     <t>Pincel atômico, recarregável. Tinta a base de álcool, caixa com 12 unidades. Nas cores azul, vermelho e preto.</t>
@@ -1456,7 +1456,7 @@
     <t>Pincel, para pintura, com cerdas de nylon, base achatada, número 16.</t>
   </si>
   <si>
-    <t>Pincel, para pintura, com cerdas de nylon, base achatada, número 18&amp;.</t>
+    <t>Pincel, para pintura, com cerdas de nylon, base achatada, número 18.</t>
   </si>
   <si>
     <t>Pincel, para pintura, com cerdas de nylon, base achatada, número 2.</t>
@@ -1477,10 +1477,10 @@
     <t>Pincel, para pintura, com cerdas de nylon, base achatada, número 6.</t>
   </si>
   <si>
-    <t>Pincel, para pintura, com cerdas de nylon, base achatada, número &amp;.</t>
-  </si>
-  <si>
-    <t>Pincel, para pintura, com cerdas de nylon, base achatada, número. 10.</t>
+    <t>Pincel, para pintura, com cerdas de nylon, base achatada, número 8.</t>
+  </si>
+  <si>
+    <t>Pincel, para pintura, com cerdas de nylon, base achatada, número 10.</t>
   </si>
   <si>
     <t>Pistola para cola quente 40w, Bivolt (110x220 volts).</t>
@@ -1489,7 +1489,7 @@
     <t>Placa, em borracha e.v.a., dimensões 50 x 40 cem, espessura 2 mm, com gliter material de pve cloreto de polivinila. Cores variadas.</t>
   </si>
   <si>
-    <t>Placa, em borracha e.v.a., dimensões 50 x 40 cem, espessura 2 mm, nas cores verde bandeira e cítrico, amarela, — vermelho, laranja, rosa escuro e claro, lilas claro e escuro, azul claro e escuro, branco, preto, marfim, marrom.</t>
+    <t>Placa, em borracha e.v.a., dimensões 50 x 40 cem, espessura 2 mm, nas cores verde bandeira e cítrico, amarela, vermelho, laranja, rosa escuro e claro, lilas claro e escuro, azul claro e escuro, branco, preto, marfim, marrom.</t>
   </si>
   <si>
     <t>Prancheta, ofício, material acrílico, lisa, prendedor de metal, multicor, cantos arredondados. Dimensões mínimas: 40 cm de comprimento x 26 cm de largura</t>
@@ -1510,7 +1510,7 @@
     <t>Tesoura com mola plástica, universal, haste em plástico, resistente, lâminas em aço inoxidável, ponta arredondada, cor variada, design ergonômico, mola com recolhimento. Dimensões e descrições mínimas: 4 cm de largura x 10 cm de altura, com selo ou número de certificação.</t>
   </si>
   <si>
-    <t>Tesoura tipo mola, universal, haste em plástico, —resistente, lâminas em aço inoxidável, ponta arredondada, cor variada, design ergonômico. Dimensões e descrições mínimas: lâmina com 3 cm e abertura maior que 4,0 cm, com selo ou número de certificação.</t>
+    <t>Tesoura tipo mola, universal, haste em plástico, resistente, lâminas em aço inoxidável, ponta arredondada, cor variada, design ergonômico. Dimensões e descrições mínimas: lâmina com 3 cm e abertura maior que 4,0 cm, com selo ou número de certificação.</t>
   </si>
   <si>
     <t>Tesoura, escolar, corte reto, cores sortidas, aço inoxidável, ponta arredondada, cabo em plástico, comprimento de no mínimo 11 cem.</t>
@@ -1519,1093 +1519,16 @@
     <t>Tinta guache 250 ml, a base de água, não toxica, nas cores variadas</t>
   </si>
   <si>
-    <t>Tinta para tecido, 37ml, a base de resina acrilica, não toxicas, solúveis em agua caixa com 12 und.,., nas cores variadas.</t>
-  </si>
-  <si>
-    <t>Transferidor, poliestireno com 1,ó mm de espessura, —360º  graus,  transparente, resistente e durável, bordas chanfradas para facilitar a leitura e o manuseio. com certificação do INMETRO.</t>
+    <t>Tinta para tecido, 37ml, a base de resina acrilica, não toxicas, solúveis em agua caixa com 12 und., nas cores variadas.</t>
+  </si>
+  <si>
+    <t>Transferidor, poliestireno com 1,ó mm de espessura, 360º graus, transparente, resistente e durável, bordas chanfradas para facilitar a leitura e o manuseio. com certificação do INMETRO.</t>
   </si>
   <si>
     <t>Kit Funcional Agilidade inclusos cones e chapéus chinês + uma escada agilidade, com no mínimo 10 chapéus, 10 cones e 1 escada agilidade com no mínimo 6 degraus; cone demarcatório: cor: aleatória/diversificada, material: polipropileno, medidas mínimas: 10 cm de largura x 17cm de altura; Prato demarcatório: cor aleatória/diversificada, material: polipropileno, medidas mínimas: 4 cm de altura x 18 cm de diâmetro Base x 4cm de diâmetro topo; Escada De Agilidade: cor: fita: preto, degrau: amarelo, material: tiras: polipropileno costuradas reforçadas; medidas mínimas: 48 cm de largura total, 2,4 em de largura fita externa, largura tiras interna 3 em, comprimento aproximado: 3 metros.</t>
   </si>
   <si>
-    <t>Kit cones com Dbarreiras agilidade funcional, contendo no mínimo 10 cones demarcatórios furados com no mínimo 5 níveis coloridos,</t>
-  </si>
-  <si>
-    <t>70,85</t>
-  </si>
-  <si>
-    <t>76,55</t>
-  </si>
-  <si>
-    <t>270,75</t>
-  </si>
-  <si>
-    <t>314,07</t>
-  </si>
-  <si>
-    <t>101,10</t>
-  </si>
-  <si>
-    <t>152,16</t>
-  </si>
-  <si>
-    <t>3549,70</t>
-  </si>
-  <si>
-    <t>760,47</t>
-  </si>
-  <si>
-    <t>102,91</t>
-  </si>
-  <si>
-    <t>29,83</t>
-  </si>
-  <si>
-    <t>112,60</t>
-  </si>
-  <si>
-    <t>110,10</t>
-  </si>
-  <si>
-    <t>139,98</t>
-  </si>
-  <si>
-    <t>42,13</t>
-  </si>
-  <si>
-    <t>397,16</t>
-  </si>
-  <si>
-    <t>165,35</t>
-  </si>
-  <si>
-    <t>1709,72</t>
-  </si>
-  <si>
-    <t>633,33</t>
-  </si>
-  <si>
-    <t>425,50</t>
-  </si>
-  <si>
-    <t>169,78</t>
-  </si>
-  <si>
-    <t>205,97</t>
-  </si>
-  <si>
-    <t>84,00</t>
-  </si>
-  <si>
-    <t>88,91</t>
-  </si>
-  <si>
-    <t>50,33</t>
-  </si>
-  <si>
-    <t>121,33</t>
-  </si>
-  <si>
-    <t>106,16</t>
-  </si>
-  <si>
-    <t>137,66</t>
-  </si>
-  <si>
-    <t>39,57</t>
-  </si>
-  <si>
-    <t>26,50</t>
-  </si>
-  <si>
-    <t>62,16</t>
-  </si>
-  <si>
-    <t>274,33</t>
-  </si>
-  <si>
-    <t>48,91</t>
-  </si>
-  <si>
-    <t>43,58</t>
-  </si>
-  <si>
-    <t>75,50</t>
-  </si>
-  <si>
-    <t>131,33</t>
-  </si>
-  <si>
-    <t>46,91</t>
-  </si>
-  <si>
-    <t>117,16</t>
-  </si>
-  <si>
-    <t>65,50</t>
-  </si>
-  <si>
-    <t>55,75</t>
-  </si>
-  <si>
-    <t>84,66</t>
-  </si>
-  <si>
-    <t>129,34</t>
-  </si>
-  <si>
-    <t>206,00</t>
-  </si>
-  <si>
-    <t>109,97</t>
-  </si>
-  <si>
-    <t>177,97</t>
-  </si>
-  <si>
-    <t>102,66</t>
-  </si>
-  <si>
-    <t>67,96</t>
-  </si>
-  <si>
-    <t>220,00</t>
-  </si>
-  <si>
-    <t>188,33</t>
-  </si>
-  <si>
-    <t>36,91</t>
-  </si>
-  <si>
-    <t>3588,33</t>
-  </si>
-  <si>
-    <t>2033,00</t>
-  </si>
-  <si>
-    <t>51,00</t>
-  </si>
-  <si>
-    <t>98,66</t>
-  </si>
-  <si>
-    <t>35,66</t>
-  </si>
-  <si>
-    <t>114,83</t>
-  </si>
-  <si>
-    <t>42,58</t>
-  </si>
-  <si>
-    <t>81,16</t>
-  </si>
-  <si>
-    <t>82,16</t>
-  </si>
-  <si>
-    <t>64,66</t>
-  </si>
-  <si>
-    <t>57,66</t>
-  </si>
-  <si>
-    <t>120,16</t>
-  </si>
-  <si>
-    <t>283,00</t>
-  </si>
-  <si>
-    <t>446,33</t>
-  </si>
-  <si>
-    <t>105,16</t>
-  </si>
-  <si>
-    <t>168,00</t>
-  </si>
-  <si>
-    <t>241,00</t>
-  </si>
-  <si>
-    <t>204,66</t>
-  </si>
-  <si>
-    <t>210,60</t>
-  </si>
-  <si>
-    <t>73,41</t>
-  </si>
-  <si>
-    <t>75,58</t>
-  </si>
-  <si>
-    <t>6900,00</t>
-  </si>
-  <si>
-    <t>84,50</t>
-  </si>
-  <si>
-    <t>857,66</t>
-  </si>
-  <si>
-    <t>2416,00</t>
-  </si>
-  <si>
-    <t>131,00</t>
-  </si>
-  <si>
-    <t>1816,66</t>
-  </si>
-  <si>
-    <t>187,16</t>
-  </si>
-  <si>
-    <t>78,58</t>
-  </si>
-  <si>
-    <t>1655,00</t>
-  </si>
-  <si>
-    <t>2824,66</t>
-  </si>
-  <si>
-    <t>744,66</t>
-  </si>
-  <si>
-    <t>311,33</t>
-  </si>
-  <si>
-    <t>946,66</t>
-  </si>
-  <si>
-    <t>654,66</t>
-  </si>
-  <si>
-    <t>185,50</t>
-  </si>
-  <si>
-    <t>120,00</t>
-  </si>
-  <si>
-    <t>483,00</t>
-  </si>
-  <si>
-    <t>201,66</t>
-  </si>
-  <si>
-    <t>754,66</t>
-  </si>
-  <si>
-    <t>513,00</t>
-  </si>
-  <si>
-    <t>945,00</t>
-  </si>
-  <si>
-    <t>3921,66</t>
-  </si>
-  <si>
-    <t>682,66</t>
-  </si>
-  <si>
-    <t>1378,33</t>
-  </si>
-  <si>
-    <t>34,58</t>
-  </si>
-  <si>
-    <t>188,83</t>
-  </si>
-  <si>
-    <t>165,83</t>
-  </si>
-  <si>
-    <t>399,16</t>
-  </si>
-  <si>
-    <t>321,33</t>
-  </si>
-  <si>
-    <t>49,66</t>
-  </si>
-  <si>
-    <t>110,50</t>
-  </si>
-  <si>
-    <t>361,83</t>
-  </si>
-  <si>
-    <t>51,33</t>
-  </si>
-  <si>
-    <t>153,00</t>
-  </si>
-  <si>
-    <t>338,33</t>
-  </si>
-  <si>
-    <t>161,83</t>
-  </si>
-  <si>
-    <t>3535,00</t>
-  </si>
-  <si>
-    <t>5783,33</t>
-  </si>
-  <si>
-    <t>13,12</t>
-  </si>
-  <si>
-    <t>17,13</t>
-  </si>
-  <si>
-    <t>1,84</t>
-  </si>
-  <si>
-    <t>0,87</t>
-  </si>
-  <si>
-    <t>28,87</t>
-  </si>
-  <si>
-    <t>19,73</t>
-  </si>
-  <si>
-    <t>12,76</t>
-  </si>
-  <si>
-    <t>48,47</t>
-  </si>
-  <si>
-    <t>69,56</t>
-  </si>
-  <si>
-    <t>178,22</t>
-  </si>
-  <si>
-    <t>206,72</t>
-  </si>
-  <si>
-    <t>12,50</t>
-  </si>
-  <si>
-    <t>12,00</t>
-  </si>
-  <si>
-    <t>91,37</t>
-  </si>
-  <si>
-    <t>21,68</t>
-  </si>
-  <si>
-    <t>6,91</t>
-  </si>
-  <si>
-    <t>17,66</t>
-  </si>
-  <si>
-    <t>201,33</t>
-  </si>
-  <si>
-    <t>19,14</t>
-  </si>
-  <si>
-    <t>44,97</t>
-  </si>
-  <si>
-    <t>13,87</t>
-  </si>
-  <si>
-    <t>42,47</t>
-  </si>
-  <si>
-    <t>13,06</t>
-  </si>
-  <si>
-    <t>17,47</t>
-  </si>
-  <si>
-    <t>23,07</t>
-  </si>
-  <si>
-    <t>126,33</t>
-  </si>
-  <si>
-    <t>11,67</t>
-  </si>
-  <si>
-    <t>9,85</t>
-  </si>
-  <si>
-    <t>74,06</t>
-  </si>
-  <si>
-    <t>89,66</t>
-  </si>
-  <si>
-    <t>51,53</t>
-  </si>
-  <si>
-    <t>14,48</t>
-  </si>
-  <si>
-    <t>46,73</t>
-  </si>
-  <si>
-    <t>396,63</t>
-  </si>
-  <si>
-    <t>53,67</t>
-  </si>
-  <si>
-    <t>119,50</t>
-  </si>
-  <si>
-    <t>95,25</t>
-  </si>
-  <si>
-    <t>4,87</t>
-  </si>
-  <si>
-    <t>5,22</t>
-  </si>
-  <si>
-    <t>6,52</t>
-  </si>
-  <si>
-    <t>7,77</t>
-  </si>
-  <si>
-    <t>3,71</t>
-  </si>
-  <si>
-    <t>7,95</t>
-  </si>
-  <si>
-    <t>9,16</t>
-  </si>
-  <si>
-    <t>11,77</t>
-  </si>
-  <si>
-    <t>3,81</t>
-  </si>
-  <si>
-    <t>3,86</t>
-  </si>
-  <si>
-    <t>4,76</t>
-  </si>
-  <si>
-    <t>4,95</t>
-  </si>
-  <si>
-    <t>56,28</t>
-  </si>
-  <si>
-    <t>29,57</t>
-  </si>
-  <si>
-    <t>28,97</t>
-  </si>
-  <si>
-    <t>30,14</t>
-  </si>
-  <si>
-    <t>43,41</t>
-  </si>
-  <si>
-    <t>149,00</t>
-  </si>
-  <si>
-    <t>36,25</t>
-  </si>
-  <si>
-    <t>20,73</t>
-  </si>
-  <si>
-    <t>7,34</t>
-  </si>
-  <si>
-    <t>11,53</t>
-  </si>
-  <si>
-    <t>86,10</t>
-  </si>
-  <si>
-    <t>13,26</t>
-  </si>
-  <si>
-    <t>309,16</t>
-  </si>
-  <si>
-    <t>38,91</t>
-  </si>
-  <si>
-    <t>2433,33</t>
-  </si>
-  <si>
-    <t>169,33</t>
-  </si>
-  <si>
-    <t>10578,33</t>
-  </si>
-  <si>
-    <t>2076,66</t>
-  </si>
-  <si>
-    <t>2646,33</t>
-  </si>
-  <si>
-    <t>6883,00</t>
-  </si>
-  <si>
-    <t>1417,00</t>
-  </si>
-  <si>
-    <t>1531,00</t>
-  </si>
-  <si>
-    <t>2707,50</t>
-  </si>
-  <si>
-    <t>2512,56</t>
-  </si>
-  <si>
-    <t>808,80</t>
-  </si>
-  <si>
-    <t>1217,28</t>
-  </si>
-  <si>
-    <t>14198,80</t>
-  </si>
-  <si>
-    <t>6083,76</t>
-  </si>
-  <si>
-    <t>1234,92</t>
-  </si>
-  <si>
-    <t>178,98</t>
-  </si>
-  <si>
-    <t>1126,00</t>
-  </si>
-  <si>
-    <t>660,60</t>
-  </si>
-  <si>
-    <t>1259,82</t>
-  </si>
-  <si>
-    <t>421,30</t>
-  </si>
-  <si>
-    <t>3177,28</t>
-  </si>
-  <si>
-    <t>1322,80</t>
-  </si>
-  <si>
-    <t>13677,76</t>
-  </si>
-  <si>
-    <t>3166,65</t>
-  </si>
-  <si>
-    <t>2553,00</t>
-  </si>
-  <si>
-    <t>1358,24</t>
-  </si>
-  <si>
-    <t>1235,82</t>
-  </si>
-  <si>
-    <t>672,00</t>
-  </si>
-  <si>
-    <t>533,46</t>
-  </si>
-  <si>
-    <t>301,98</t>
-  </si>
-  <si>
-    <t>2426,60</t>
-  </si>
-  <si>
-    <t>1910,88</t>
-  </si>
-  <si>
-    <t>1376,60</t>
-  </si>
-  <si>
-    <t>395,70</t>
-  </si>
-  <si>
-    <t>265,00</t>
-  </si>
-  <si>
-    <t>1554,00</t>
-  </si>
-  <si>
-    <t>2194,64</t>
-  </si>
-  <si>
-    <t>293,46</t>
-  </si>
-  <si>
-    <t>348,64</t>
-  </si>
-  <si>
-    <t>453,00</t>
-  </si>
-  <si>
-    <t>787,98</t>
-  </si>
-  <si>
-    <t>281,46</t>
-  </si>
-  <si>
-    <t>702,96</t>
-  </si>
-  <si>
-    <t>393,00</t>
-  </si>
-  <si>
-    <t>334,50</t>
-  </si>
-  <si>
-    <t>677,28</t>
-  </si>
-  <si>
-    <t>5820,30</t>
-  </si>
-  <si>
-    <t>1236,00</t>
-  </si>
-  <si>
-    <t>2199,40</t>
-  </si>
-  <si>
-    <t>1067,82</t>
-  </si>
-  <si>
-    <t>615,96</t>
-  </si>
-  <si>
-    <t>611,64</t>
-  </si>
-  <si>
-    <t>1320,00</t>
-  </si>
-  <si>
-    <t>1883,30</t>
-  </si>
-  <si>
-    <t>295,28</t>
-  </si>
-  <si>
-    <t>14353,32</t>
-  </si>
-  <si>
-    <t>12198,00</t>
-  </si>
-  <si>
-    <t>408,00</t>
-  </si>
-  <si>
-    <t>789,28</t>
-  </si>
-  <si>
-    <t>1426,40</t>
-  </si>
-  <si>
-    <t>688,98</t>
-  </si>
-  <si>
-    <t>255,48</t>
-  </si>
-  <si>
-    <t>486,96</t>
-  </si>
-  <si>
-    <t>492,96</t>
-  </si>
-  <si>
-    <t>387,96</t>
-  </si>
-  <si>
-    <t>345,96</t>
-  </si>
-  <si>
-    <t>961,28</t>
-  </si>
-  <si>
-    <t>2264,00</t>
-  </si>
-  <si>
-    <t>2677,98</t>
-  </si>
-  <si>
-    <t>2944,48</t>
-  </si>
-  <si>
-    <t>840,00</t>
-  </si>
-  <si>
-    <t>3615,00</t>
-  </si>
-  <si>
-    <t>410,64</t>
-  </si>
-  <si>
-    <t>1227,96</t>
-  </si>
-  <si>
-    <t>1263,60</t>
-  </si>
-  <si>
-    <t>734,10</t>
-  </si>
-  <si>
-    <t>906,96</t>
-  </si>
-  <si>
-    <t>1575,96</t>
-  </si>
-  <si>
-    <t>13800,00</t>
-  </si>
-  <si>
-    <t>507,00</t>
-  </si>
-  <si>
-    <t>2572,98</t>
-  </si>
-  <si>
-    <t>7248,00</t>
-  </si>
-  <si>
-    <t>5449,98</t>
-  </si>
-  <si>
-    <t>3743,20</t>
-  </si>
-  <si>
-    <t>5972,08</t>
-  </si>
-  <si>
-    <t>3310,00</t>
-  </si>
-  <si>
-    <t>5649,32</t>
-  </si>
-  <si>
-    <t>3723,30</t>
-  </si>
-  <si>
-    <t>1556,65</t>
-  </si>
-  <si>
-    <t>4733,30</t>
-  </si>
-  <si>
-    <t>3273,30</t>
-  </si>
-  <si>
-    <t>1113,00</t>
-  </si>
-  <si>
-    <t>720,00</t>
-  </si>
-  <si>
-    <t>1932,00</t>
-  </si>
-  <si>
-    <t>1008,30</t>
-  </si>
-  <si>
-    <t>941,65</t>
-  </si>
-  <si>
-    <t>4527,96</t>
-  </si>
-  <si>
-    <t>3591,00</t>
-  </si>
-  <si>
-    <t>3780,00</t>
-  </si>
-  <si>
-    <t>15686,64</t>
-  </si>
-  <si>
-    <t>2730,64</t>
-  </si>
-  <si>
-    <t>600,80</t>
-  </si>
-  <si>
-    <t>2756,66</t>
-  </si>
-  <si>
-    <t>276,64</t>
-  </si>
-  <si>
-    <t>2265,96</t>
-  </si>
-  <si>
-    <t>1326,64</t>
-  </si>
-  <si>
-    <t>3193,28</t>
-  </si>
-  <si>
-    <t>2570,64</t>
-  </si>
-  <si>
-    <t>297,96</t>
-  </si>
-  <si>
-    <t>8398,00</t>
-  </si>
-  <si>
-    <t>1085,49</t>
-  </si>
-  <si>
-    <t>307,98</t>
-  </si>
-  <si>
-    <t>6732,00</t>
-  </si>
-  <si>
-    <t>1353,32</t>
-  </si>
-  <si>
-    <t>647,32</t>
-  </si>
-  <si>
-    <t>7070,00</t>
-  </si>
-  <si>
-    <t>11566,66</t>
-  </si>
-  <si>
-    <t>104,96</t>
-  </si>
-  <si>
-    <t>616,68</t>
-  </si>
-  <si>
-    <t>66,24</t>
-  </si>
-  <si>
-    <t>226,20</t>
-  </si>
-  <si>
-    <t>3464,40</t>
-  </si>
-  <si>
-    <t>1578,40</t>
-  </si>
-  <si>
-    <t>1020,80</t>
-  </si>
-  <si>
-    <t>1211,75</t>
-  </si>
-  <si>
-    <t>695,60</t>
-  </si>
-  <si>
-    <t>1069,32</t>
-  </si>
-  <si>
-    <t>1240,32</t>
-  </si>
-  <si>
-    <t>325,00</t>
-  </si>
-  <si>
-    <t>1370,55</t>
-  </si>
-  <si>
-    <t>548,22</t>
-  </si>
-  <si>
-    <t>303,52</t>
-  </si>
-  <si>
-    <t>760,10</t>
-  </si>
-  <si>
-    <t>706,40</t>
-  </si>
-  <si>
-    <t>1610,64</t>
-  </si>
-  <si>
-    <t>306,24</t>
-  </si>
-  <si>
-    <t>2518,32</t>
-  </si>
-  <si>
-    <t>138,70</t>
-  </si>
-  <si>
-    <t>424,70</t>
-  </si>
-  <si>
-    <t>326,50</t>
-  </si>
-  <si>
-    <t>436,75</t>
-  </si>
-  <si>
-    <t>576,75</t>
-  </si>
-  <si>
-    <t>757,98</t>
-  </si>
-  <si>
-    <t>175,05</t>
-  </si>
-  <si>
-    <t>541,75</t>
-  </si>
-  <si>
-    <t>592,48</t>
-  </si>
-  <si>
-    <t>537,96</t>
-  </si>
-  <si>
-    <t>309,18</t>
-  </si>
-  <si>
-    <t>217,20</t>
-  </si>
-  <si>
-    <t>373,84</t>
-  </si>
-  <si>
-    <t>5949,45</t>
-  </si>
-  <si>
-    <t>5903,70</t>
-  </si>
-  <si>
-    <t>478,00</t>
-  </si>
-  <si>
-    <t>952,50</t>
-  </si>
-  <si>
-    <t>68,18</t>
-  </si>
-  <si>
-    <t>73,08</t>
-  </si>
-  <si>
-    <t>91,28</t>
-  </si>
-  <si>
-    <t>108,78</t>
-  </si>
-  <si>
-    <t>51,94</t>
-  </si>
-  <si>
-    <t>111,30</t>
-  </si>
-  <si>
-    <t>128,24</t>
-  </si>
-  <si>
-    <t>164,78</t>
-  </si>
-  <si>
-    <t>53,34</t>
-  </si>
-  <si>
-    <t>54,04</t>
-  </si>
-  <si>
-    <t>66,64</t>
-  </si>
-  <si>
-    <t>69,30</t>
-  </si>
-  <si>
-    <t>450,24</t>
-  </si>
-  <si>
-    <t>443,55</t>
-  </si>
-  <si>
-    <t>231,76</t>
-  </si>
-  <si>
-    <t>241,12</t>
-  </si>
-  <si>
-    <t>347,28</t>
-  </si>
-  <si>
-    <t>97,80</t>
-  </si>
-  <si>
-    <t>1192,00</t>
-  </si>
-  <si>
-    <t>4168,75</t>
-  </si>
-  <si>
-    <t>165,84</t>
-  </si>
-  <si>
-    <t>550,50</t>
-  </si>
-  <si>
-    <t>403,55</t>
-  </si>
-  <si>
-    <t>1291,50</t>
-  </si>
-  <si>
-    <t>464,10</t>
-  </si>
-  <si>
-    <t>550,64</t>
-  </si>
-  <si>
-    <t>1236,64</t>
-  </si>
-  <si>
-    <t>4280,10</t>
-  </si>
-  <si>
-    <t>4866,66</t>
-  </si>
-  <si>
-    <t>846,65</t>
-  </si>
-  <si>
-    <t>21156,66</t>
-  </si>
-  <si>
-    <t>16613,28</t>
-  </si>
-  <si>
-    <t>15877,98</t>
-  </si>
-  <si>
-    <t>13766,00</t>
+    <t>Kit cones com Dbarreiras agilidade funcional, contendo no mínimo 10 cones demarcatórios furados com no mínimo 5 níveis coloridos, 5 barreiras desmontáveis com no mínimo 87 em e 5 minis bandeiras de sinalização. Medidas mínimas: Largura: 11,5 cm; Altura: 22 cm Cor: sortida, material: PP, barreiras desmontável, leves e port</t>
   </si>
   <si>
     <t>Unidade</t>
@@ -3020,20 +1943,20 @@
       <c r="D2">
         <v>20</v>
       </c>
-      <c r="E2" t="s">
-        <v>505</v>
-      </c>
-      <c r="F2" t="s">
-        <v>682</v>
+      <c r="E2">
+        <v>70.84999999999999</v>
+      </c>
+      <c r="F2">
+        <v>1417</v>
       </c>
       <c r="G2" t="s">
-        <v>864</v>
+        <v>505</v>
       </c>
       <c r="H2" t="s">
-        <v>866</v>
+        <v>507</v>
       </c>
       <c r="I2" t="s">
-        <v>867</v>
+        <v>508</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -3046,20 +1969,20 @@
       <c r="D3">
         <v>20</v>
       </c>
-      <c r="E3" t="s">
-        <v>506</v>
-      </c>
-      <c r="F3" t="s">
-        <v>683</v>
+      <c r="E3">
+        <v>76.55</v>
+      </c>
+      <c r="F3">
+        <v>1531</v>
       </c>
       <c r="G3" t="s">
-        <v>864</v>
+        <v>505</v>
       </c>
       <c r="H3" t="s">
-        <v>866</v>
+        <v>507</v>
       </c>
       <c r="I3" t="s">
-        <v>867</v>
+        <v>508</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -3072,20 +1995,20 @@
       <c r="D4">
         <v>10</v>
       </c>
-      <c r="E4" t="s">
-        <v>507</v>
-      </c>
-      <c r="F4" t="s">
-        <v>684</v>
+      <c r="E4">
+        <v>270.75</v>
+      </c>
+      <c r="F4">
+        <v>2707.5</v>
       </c>
       <c r="G4" t="s">
-        <v>864</v>
+        <v>505</v>
       </c>
       <c r="H4" t="s">
-        <v>866</v>
+        <v>507</v>
       </c>
       <c r="I4" t="s">
-        <v>867</v>
+        <v>508</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -3098,20 +2021,20 @@
       <c r="D5">
         <v>8</v>
       </c>
-      <c r="E5" t="s">
-        <v>508</v>
-      </c>
-      <c r="F5" t="s">
-        <v>685</v>
+      <c r="E5">
+        <v>314.07</v>
+      </c>
+      <c r="F5">
+        <v>2512.56</v>
       </c>
       <c r="G5" t="s">
-        <v>864</v>
+        <v>505</v>
       </c>
       <c r="H5" t="s">
-        <v>866</v>
+        <v>507</v>
       </c>
       <c r="I5" t="s">
-        <v>867</v>
+        <v>508</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -3124,20 +2047,20 @@
       <c r="D6">
         <v>8</v>
       </c>
-      <c r="E6" t="s">
-        <v>509</v>
-      </c>
-      <c r="F6" t="s">
-        <v>686</v>
+      <c r="E6">
+        <v>101.1</v>
+      </c>
+      <c r="F6">
+        <v>808.8</v>
       </c>
       <c r="G6" t="s">
-        <v>864</v>
+        <v>505</v>
       </c>
       <c r="H6" t="s">
-        <v>866</v>
+        <v>507</v>
       </c>
       <c r="I6" t="s">
-        <v>867</v>
+        <v>508</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -3150,20 +2073,20 @@
       <c r="D7">
         <v>8</v>
       </c>
-      <c r="E7" t="s">
-        <v>510</v>
-      </c>
-      <c r="F7" t="s">
-        <v>687</v>
+      <c r="E7">
+        <v>152.16</v>
+      </c>
+      <c r="F7">
+        <v>1217.28</v>
       </c>
       <c r="G7" t="s">
-        <v>864</v>
+        <v>505</v>
       </c>
       <c r="H7" t="s">
-        <v>866</v>
+        <v>507</v>
       </c>
       <c r="I7" t="s">
-        <v>867</v>
+        <v>508</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -3176,20 +2099,20 @@
       <c r="D8">
         <v>4</v>
       </c>
-      <c r="E8" t="s">
-        <v>511</v>
-      </c>
-      <c r="F8" t="s">
-        <v>688</v>
+      <c r="E8">
+        <v>3549.7</v>
+      </c>
+      <c r="F8">
+        <v>14198.8</v>
       </c>
       <c r="G8" t="s">
-        <v>864</v>
+        <v>505</v>
       </c>
       <c r="H8" t="s">
-        <v>866</v>
+        <v>507</v>
       </c>
       <c r="I8" t="s">
-        <v>867</v>
+        <v>508</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -3202,20 +2125,20 @@
       <c r="D9">
         <v>8</v>
       </c>
-      <c r="E9" t="s">
-        <v>512</v>
-      </c>
-      <c r="F9" t="s">
-        <v>689</v>
+      <c r="E9">
+        <v>760.47</v>
+      </c>
+      <c r="F9">
+        <v>6083.76</v>
       </c>
       <c r="G9" t="s">
-        <v>864</v>
+        <v>505</v>
       </c>
       <c r="H9" t="s">
-        <v>866</v>
+        <v>507</v>
       </c>
       <c r="I9" t="s">
-        <v>867</v>
+        <v>508</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -3228,20 +2151,20 @@
       <c r="D10">
         <v>12</v>
       </c>
-      <c r="E10" t="s">
-        <v>513</v>
-      </c>
-      <c r="F10" t="s">
-        <v>690</v>
+      <c r="E10">
+        <v>102.91</v>
+      </c>
+      <c r="F10">
+        <v>1234.92</v>
       </c>
       <c r="G10" t="s">
-        <v>864</v>
+        <v>505</v>
       </c>
       <c r="H10" t="s">
-        <v>866</v>
+        <v>507</v>
       </c>
       <c r="I10" t="s">
-        <v>867</v>
+        <v>508</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -3254,20 +2177,20 @@
       <c r="D11">
         <v>6</v>
       </c>
-      <c r="E11" t="s">
-        <v>514</v>
-      </c>
-      <c r="F11" t="s">
-        <v>691</v>
+      <c r="E11">
+        <v>29.83</v>
+      </c>
+      <c r="F11">
+        <v>178.98</v>
       </c>
       <c r="G11" t="s">
-        <v>864</v>
+        <v>505</v>
       </c>
       <c r="H11" t="s">
-        <v>866</v>
+        <v>507</v>
       </c>
       <c r="I11" t="s">
-        <v>867</v>
+        <v>508</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -3280,20 +2203,20 @@
       <c r="D12">
         <v>10</v>
       </c>
-      <c r="E12" t="s">
-        <v>515</v>
-      </c>
-      <c r="F12" t="s">
-        <v>692</v>
+      <c r="E12">
+        <v>112.6</v>
+      </c>
+      <c r="F12">
+        <v>1126</v>
       </c>
       <c r="G12" t="s">
-        <v>864</v>
+        <v>505</v>
       </c>
       <c r="H12" t="s">
-        <v>866</v>
+        <v>507</v>
       </c>
       <c r="I12" t="s">
-        <v>867</v>
+        <v>508</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -3306,20 +2229,20 @@
       <c r="D13">
         <v>6</v>
       </c>
-      <c r="E13" t="s">
-        <v>516</v>
-      </c>
-      <c r="F13" t="s">
-        <v>693</v>
+      <c r="E13">
+        <v>110.1</v>
+      </c>
+      <c r="F13">
+        <v>660.5999999999999</v>
       </c>
       <c r="G13" t="s">
-        <v>864</v>
+        <v>505</v>
       </c>
       <c r="H13" t="s">
-        <v>866</v>
+        <v>507</v>
       </c>
       <c r="I13" t="s">
-        <v>867</v>
+        <v>508</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -3332,20 +2255,20 @@
       <c r="D14">
         <v>9</v>
       </c>
-      <c r="E14" t="s">
-        <v>517</v>
-      </c>
-      <c r="F14" t="s">
-        <v>694</v>
+      <c r="E14">
+        <v>139.98</v>
+      </c>
+      <c r="F14">
+        <v>1259.82</v>
       </c>
       <c r="G14" t="s">
-        <v>864</v>
+        <v>505</v>
       </c>
       <c r="H14" t="s">
-        <v>866</v>
+        <v>507</v>
       </c>
       <c r="I14" t="s">
-        <v>867</v>
+        <v>508</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -3358,20 +2281,20 @@
       <c r="D15">
         <v>10</v>
       </c>
-      <c r="E15" t="s">
-        <v>518</v>
-      </c>
-      <c r="F15" t="s">
-        <v>695</v>
+      <c r="E15">
+        <v>42.13</v>
+      </c>
+      <c r="F15">
+        <v>421.3</v>
       </c>
       <c r="G15" t="s">
-        <v>864</v>
+        <v>505</v>
       </c>
       <c r="H15" t="s">
-        <v>866</v>
+        <v>507</v>
       </c>
       <c r="I15" t="s">
-        <v>867</v>
+        <v>508</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -3384,20 +2307,20 @@
       <c r="D16">
         <v>8</v>
       </c>
-      <c r="E16" t="s">
-        <v>519</v>
-      </c>
-      <c r="F16" t="s">
-        <v>696</v>
+      <c r="E16">
+        <v>397.16</v>
+      </c>
+      <c r="F16">
+        <v>3177.28</v>
       </c>
       <c r="G16" t="s">
-        <v>864</v>
+        <v>505</v>
       </c>
       <c r="H16" t="s">
-        <v>866</v>
+        <v>507</v>
       </c>
       <c r="I16" t="s">
-        <v>867</v>
+        <v>508</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -3410,20 +2333,20 @@
       <c r="D17">
         <v>8</v>
       </c>
-      <c r="E17" t="s">
-        <v>520</v>
-      </c>
-      <c r="F17" t="s">
-        <v>697</v>
+      <c r="E17">
+        <v>165.35</v>
+      </c>
+      <c r="F17">
+        <v>1322.8</v>
       </c>
       <c r="G17" t="s">
-        <v>864</v>
+        <v>505</v>
       </c>
       <c r="H17" t="s">
-        <v>866</v>
+        <v>507</v>
       </c>
       <c r="I17" t="s">
-        <v>867</v>
+        <v>508</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -3436,20 +2359,20 @@
       <c r="D18">
         <v>8</v>
       </c>
-      <c r="E18" t="s">
-        <v>521</v>
-      </c>
-      <c r="F18" t="s">
-        <v>698</v>
+      <c r="E18">
+        <v>1709.72</v>
+      </c>
+      <c r="F18">
+        <v>13677.76</v>
       </c>
       <c r="G18" t="s">
-        <v>864</v>
+        <v>505</v>
       </c>
       <c r="H18" t="s">
-        <v>866</v>
+        <v>507</v>
       </c>
       <c r="I18" t="s">
-        <v>867</v>
+        <v>508</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -3462,20 +2385,20 @@
       <c r="D19">
         <v>5</v>
       </c>
-      <c r="E19" t="s">
-        <v>522</v>
-      </c>
-      <c r="F19" t="s">
-        <v>699</v>
+      <c r="E19">
+        <v>633.33</v>
+      </c>
+      <c r="F19">
+        <v>3166.65</v>
       </c>
       <c r="G19" t="s">
-        <v>864</v>
+        <v>505</v>
       </c>
       <c r="H19" t="s">
-        <v>866</v>
+        <v>507</v>
       </c>
       <c r="I19" t="s">
-        <v>867</v>
+        <v>508</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -3488,20 +2411,20 @@
       <c r="D20">
         <v>6</v>
       </c>
-      <c r="E20" t="s">
-        <v>523</v>
-      </c>
-      <c r="F20" t="s">
-        <v>700</v>
+      <c r="E20">
+        <v>425.5</v>
+      </c>
+      <c r="F20">
+        <v>2553</v>
       </c>
       <c r="G20" t="s">
-        <v>864</v>
+        <v>505</v>
       </c>
       <c r="H20" t="s">
-        <v>866</v>
+        <v>507</v>
       </c>
       <c r="I20" t="s">
-        <v>867</v>
+        <v>508</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -3514,20 +2437,20 @@
       <c r="D21">
         <v>8</v>
       </c>
-      <c r="E21" t="s">
-        <v>524</v>
-      </c>
-      <c r="F21" t="s">
-        <v>701</v>
+      <c r="E21">
+        <v>169.78</v>
+      </c>
+      <c r="F21">
+        <v>1358.24</v>
       </c>
       <c r="G21" t="s">
-        <v>864</v>
+        <v>505</v>
       </c>
       <c r="H21" t="s">
-        <v>866</v>
+        <v>507</v>
       </c>
       <c r="I21" t="s">
-        <v>867</v>
+        <v>508</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -3540,20 +2463,20 @@
       <c r="D22">
         <v>6</v>
       </c>
-      <c r="E22" t="s">
-        <v>525</v>
-      </c>
-      <c r="F22" t="s">
-        <v>702</v>
+      <c r="E22">
+        <v>205.97</v>
+      </c>
+      <c r="F22">
+        <v>1235.82</v>
       </c>
       <c r="G22" t="s">
-        <v>864</v>
+        <v>505</v>
       </c>
       <c r="H22" t="s">
-        <v>866</v>
+        <v>507</v>
       </c>
       <c r="I22" t="s">
-        <v>867</v>
+        <v>508</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -3566,20 +2489,20 @@
       <c r="D23">
         <v>8</v>
       </c>
-      <c r="E23" t="s">
-        <v>526</v>
-      </c>
-      <c r="F23" t="s">
-        <v>703</v>
+      <c r="E23">
+        <v>84</v>
+      </c>
+      <c r="F23">
+        <v>672</v>
       </c>
       <c r="G23" t="s">
-        <v>864</v>
+        <v>505</v>
       </c>
       <c r="H23" t="s">
-        <v>866</v>
+        <v>507</v>
       </c>
       <c r="I23" t="s">
-        <v>867</v>
+        <v>508</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -3592,20 +2515,20 @@
       <c r="D24">
         <v>6</v>
       </c>
-      <c r="E24" t="s">
-        <v>527</v>
-      </c>
-      <c r="F24" t="s">
-        <v>704</v>
+      <c r="E24">
+        <v>88.91</v>
+      </c>
+      <c r="F24">
+        <v>533.46</v>
       </c>
       <c r="G24" t="s">
-        <v>864</v>
+        <v>505</v>
       </c>
       <c r="H24" t="s">
-        <v>866</v>
+        <v>507</v>
       </c>
       <c r="I24" t="s">
-        <v>867</v>
+        <v>508</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -3618,20 +2541,20 @@
       <c r="D25">
         <v>6</v>
       </c>
-      <c r="E25" t="s">
-        <v>528</v>
-      </c>
-      <c r="F25" t="s">
-        <v>705</v>
+      <c r="E25">
+        <v>50.33</v>
+      </c>
+      <c r="F25">
+        <v>301.98</v>
       </c>
       <c r="G25" t="s">
-        <v>864</v>
+        <v>505</v>
       </c>
       <c r="H25" t="s">
-        <v>866</v>
+        <v>507</v>
       </c>
       <c r="I25" t="s">
-        <v>867</v>
+        <v>508</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -3644,20 +2567,20 @@
       <c r="D26">
         <v>20</v>
       </c>
-      <c r="E26" t="s">
-        <v>529</v>
-      </c>
-      <c r="F26" t="s">
-        <v>706</v>
+      <c r="E26">
+        <v>121.33</v>
+      </c>
+      <c r="F26">
+        <v>2426.6</v>
       </c>
       <c r="G26" t="s">
-        <v>864</v>
+        <v>505</v>
       </c>
       <c r="H26" t="s">
-        <v>866</v>
+        <v>507</v>
       </c>
       <c r="I26" t="s">
-        <v>867</v>
+        <v>508</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -3670,20 +2593,20 @@
       <c r="D27">
         <v>18</v>
       </c>
-      <c r="E27" t="s">
-        <v>530</v>
-      </c>
-      <c r="F27" t="s">
-        <v>707</v>
+      <c r="E27">
+        <v>106.16</v>
+      </c>
+      <c r="F27">
+        <v>1910.88</v>
       </c>
       <c r="G27" t="s">
-        <v>864</v>
+        <v>505</v>
       </c>
       <c r="H27" t="s">
-        <v>866</v>
+        <v>507</v>
       </c>
       <c r="I27" t="s">
-        <v>867</v>
+        <v>508</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -3696,20 +2619,20 @@
       <c r="D28">
         <v>10</v>
       </c>
-      <c r="E28" t="s">
-        <v>531</v>
-      </c>
-      <c r="F28" t="s">
-        <v>708</v>
+      <c r="E28">
+        <v>137.66</v>
+      </c>
+      <c r="F28">
+        <v>1376.6</v>
       </c>
       <c r="G28" t="s">
-        <v>864</v>
+        <v>505</v>
       </c>
       <c r="H28" t="s">
-        <v>866</v>
+        <v>507</v>
       </c>
       <c r="I28" t="s">
-        <v>867</v>
+        <v>508</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -3722,20 +2645,20 @@
       <c r="D29">
         <v>10</v>
       </c>
-      <c r="E29" t="s">
-        <v>532</v>
-      </c>
-      <c r="F29" t="s">
-        <v>709</v>
+      <c r="E29">
+        <v>39.57</v>
+      </c>
+      <c r="F29">
+        <v>395.7</v>
       </c>
       <c r="G29" t="s">
-        <v>864</v>
+        <v>505</v>
       </c>
       <c r="H29" t="s">
-        <v>866</v>
+        <v>507</v>
       </c>
       <c r="I29" t="s">
-        <v>867</v>
+        <v>508</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -3748,20 +2671,20 @@
       <c r="D30">
         <v>10</v>
       </c>
-      <c r="E30" t="s">
-        <v>533</v>
-      </c>
-      <c r="F30" t="s">
-        <v>710</v>
+      <c r="E30">
+        <v>26.5</v>
+      </c>
+      <c r="F30">
+        <v>265</v>
       </c>
       <c r="G30" t="s">
-        <v>864</v>
+        <v>505</v>
       </c>
       <c r="H30" t="s">
-        <v>866</v>
+        <v>507</v>
       </c>
       <c r="I30" t="s">
-        <v>867</v>
+        <v>508</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -3774,20 +2697,20 @@
       <c r="D31">
         <v>25</v>
       </c>
-      <c r="E31" t="s">
-        <v>534</v>
-      </c>
-      <c r="F31" t="s">
-        <v>711</v>
+      <c r="E31">
+        <v>62.16</v>
+      </c>
+      <c r="F31">
+        <v>1554</v>
       </c>
       <c r="G31" t="s">
-        <v>864</v>
+        <v>505</v>
       </c>
       <c r="H31" t="s">
-        <v>866</v>
+        <v>507</v>
       </c>
       <c r="I31" t="s">
-        <v>867</v>
+        <v>508</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -3800,20 +2723,20 @@
       <c r="D32">
         <v>8</v>
       </c>
-      <c r="E32" t="s">
-        <v>535</v>
-      </c>
-      <c r="F32" t="s">
-        <v>712</v>
+      <c r="E32">
+        <v>274.33</v>
+      </c>
+      <c r="F32">
+        <v>2194.64</v>
       </c>
       <c r="G32" t="s">
-        <v>864</v>
+        <v>505</v>
       </c>
       <c r="H32" t="s">
-        <v>866</v>
+        <v>507</v>
       </c>
       <c r="I32" t="s">
-        <v>867</v>
+        <v>508</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -3826,20 +2749,20 @@
       <c r="D33">
         <v>6</v>
       </c>
-      <c r="E33" t="s">
-        <v>536</v>
-      </c>
-      <c r="F33" t="s">
-        <v>713</v>
+      <c r="E33">
+        <v>48.91</v>
+      </c>
+      <c r="F33">
+        <v>293.46</v>
       </c>
       <c r="G33" t="s">
-        <v>864</v>
+        <v>505</v>
       </c>
       <c r="H33" t="s">
-        <v>866</v>
+        <v>507</v>
       </c>
       <c r="I33" t="s">
-        <v>867</v>
+        <v>508</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -3852,20 +2775,20 @@
       <c r="D34">
         <v>8</v>
       </c>
-      <c r="E34" t="s">
-        <v>537</v>
-      </c>
-      <c r="F34" t="s">
-        <v>714</v>
+      <c r="E34">
+        <v>43.58</v>
+      </c>
+      <c r="F34">
+        <v>348.64</v>
       </c>
       <c r="G34" t="s">
-        <v>864</v>
+        <v>505</v>
       </c>
       <c r="H34" t="s">
-        <v>866</v>
+        <v>507</v>
       </c>
       <c r="I34" t="s">
-        <v>867</v>
+        <v>508</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -3878,20 +2801,20 @@
       <c r="D35">
         <v>6</v>
       </c>
-      <c r="E35" t="s">
-        <v>538</v>
-      </c>
-      <c r="F35" t="s">
-        <v>715</v>
+      <c r="E35">
+        <v>75.5</v>
+      </c>
+      <c r="F35">
+        <v>453</v>
       </c>
       <c r="G35" t="s">
-        <v>864</v>
+        <v>505</v>
       </c>
       <c r="H35" t="s">
-        <v>866</v>
+        <v>507</v>
       </c>
       <c r="I35" t="s">
-        <v>867</v>
+        <v>508</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -3904,20 +2827,20 @@
       <c r="D36">
         <v>6</v>
       </c>
-      <c r="E36" t="s">
-        <v>539</v>
-      </c>
-      <c r="F36" t="s">
-        <v>716</v>
+      <c r="E36">
+        <v>131.33</v>
+      </c>
+      <c r="F36">
+        <v>787.98</v>
       </c>
       <c r="G36" t="s">
-        <v>864</v>
+        <v>505</v>
       </c>
       <c r="H36" t="s">
-        <v>866</v>
+        <v>507</v>
       </c>
       <c r="I36" t="s">
-        <v>867</v>
+        <v>508</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -3930,20 +2853,20 @@
       <c r="D37">
         <v>6</v>
       </c>
-      <c r="E37" t="s">
-        <v>540</v>
-      </c>
-      <c r="F37" t="s">
-        <v>717</v>
+      <c r="E37">
+        <v>46.91</v>
+      </c>
+      <c r="F37">
+        <v>281.46</v>
       </c>
       <c r="G37" t="s">
-        <v>864</v>
+        <v>505</v>
       </c>
       <c r="H37" t="s">
-        <v>866</v>
+        <v>507</v>
       </c>
       <c r="I37" t="s">
-        <v>867</v>
+        <v>508</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -3956,20 +2879,20 @@
       <c r="D38">
         <v>6</v>
       </c>
-      <c r="E38" t="s">
-        <v>541</v>
-      </c>
-      <c r="F38" t="s">
-        <v>718</v>
+      <c r="E38">
+        <v>117.16</v>
+      </c>
+      <c r="F38">
+        <v>702.96</v>
       </c>
       <c r="G38" t="s">
-        <v>864</v>
+        <v>505</v>
       </c>
       <c r="H38" t="s">
-        <v>866</v>
+        <v>507</v>
       </c>
       <c r="I38" t="s">
-        <v>867</v>
+        <v>508</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -3982,20 +2905,20 @@
       <c r="D39">
         <v>6</v>
       </c>
-      <c r="E39" t="s">
-        <v>542</v>
-      </c>
-      <c r="F39" t="s">
-        <v>719</v>
+      <c r="E39">
+        <v>65.5</v>
+      </c>
+      <c r="F39">
+        <v>393</v>
       </c>
       <c r="G39" t="s">
-        <v>864</v>
+        <v>505</v>
       </c>
       <c r="H39" t="s">
-        <v>866</v>
+        <v>507</v>
       </c>
       <c r="I39" t="s">
-        <v>867</v>
+        <v>508</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -4008,20 +2931,20 @@
       <c r="D40">
         <v>6</v>
       </c>
-      <c r="E40" t="s">
-        <v>543</v>
-      </c>
-      <c r="F40" t="s">
-        <v>720</v>
+      <c r="E40">
+        <v>55.75</v>
+      </c>
+      <c r="F40">
+        <v>334.5</v>
       </c>
       <c r="G40" t="s">
-        <v>864</v>
+        <v>505</v>
       </c>
       <c r="H40" t="s">
-        <v>866</v>
+        <v>507</v>
       </c>
       <c r="I40" t="s">
-        <v>867</v>
+        <v>508</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -4034,20 +2957,20 @@
       <c r="D41">
         <v>8</v>
       </c>
-      <c r="E41" t="s">
-        <v>544</v>
-      </c>
-      <c r="F41" t="s">
-        <v>721</v>
+      <c r="E41">
+        <v>84.66</v>
+      </c>
+      <c r="F41">
+        <v>677.28</v>
       </c>
       <c r="G41" t="s">
-        <v>864</v>
+        <v>505</v>
       </c>
       <c r="H41" t="s">
-        <v>866</v>
+        <v>507</v>
       </c>
       <c r="I41" t="s">
-        <v>867</v>
+        <v>508</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -4060,20 +2983,20 @@
       <c r="D42">
         <v>6</v>
       </c>
-      <c r="E42" t="s">
-        <v>541</v>
-      </c>
-      <c r="F42" t="s">
-        <v>718</v>
+      <c r="E42">
+        <v>117.16</v>
+      </c>
+      <c r="F42">
+        <v>702.96</v>
       </c>
       <c r="G42" t="s">
-        <v>864</v>
+        <v>505</v>
       </c>
       <c r="H42" t="s">
-        <v>866</v>
+        <v>507</v>
       </c>
       <c r="I42" t="s">
-        <v>867</v>
+        <v>508</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -4086,20 +3009,20 @@
       <c r="D43">
         <v>45</v>
       </c>
-      <c r="E43" t="s">
-        <v>545</v>
-      </c>
-      <c r="F43" t="s">
-        <v>722</v>
+      <c r="E43">
+        <v>129.34</v>
+      </c>
+      <c r="F43">
+        <v>5820.3</v>
       </c>
       <c r="G43" t="s">
-        <v>864</v>
+        <v>505</v>
       </c>
       <c r="H43" t="s">
-        <v>866</v>
+        <v>507</v>
       </c>
       <c r="I43" t="s">
-        <v>867</v>
+        <v>508</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -4112,20 +3035,20 @@
       <c r="D44">
         <v>6</v>
       </c>
-      <c r="E44" t="s">
-        <v>546</v>
-      </c>
-      <c r="F44" t="s">
-        <v>723</v>
+      <c r="E44">
+        <v>206</v>
+      </c>
+      <c r="F44">
+        <v>1236</v>
       </c>
       <c r="G44" t="s">
-        <v>864</v>
+        <v>505</v>
       </c>
       <c r="H44" t="s">
-        <v>866</v>
+        <v>507</v>
       </c>
       <c r="I44" t="s">
-        <v>867</v>
+        <v>508</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -4138,20 +3061,20 @@
       <c r="D45">
         <v>6</v>
       </c>
-      <c r="E45" t="s">
-        <v>543</v>
-      </c>
-      <c r="F45" t="s">
-        <v>720</v>
+      <c r="E45">
+        <v>55.75</v>
+      </c>
+      <c r="F45">
+        <v>334.5</v>
       </c>
       <c r="G45" t="s">
-        <v>864</v>
+        <v>505</v>
       </c>
       <c r="H45" t="s">
-        <v>866</v>
+        <v>507</v>
       </c>
       <c r="I45" t="s">
-        <v>867</v>
+        <v>508</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -4164,20 +3087,20 @@
       <c r="D46">
         <v>20</v>
       </c>
-      <c r="E46" t="s">
-        <v>547</v>
-      </c>
-      <c r="F46" t="s">
-        <v>724</v>
+      <c r="E46">
+        <v>109.97</v>
+      </c>
+      <c r="F46">
+        <v>2199.4</v>
       </c>
       <c r="G46" t="s">
-        <v>864</v>
+        <v>505</v>
       </c>
       <c r="H46" t="s">
-        <v>866</v>
+        <v>507</v>
       </c>
       <c r="I46" t="s">
-        <v>867</v>
+        <v>508</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -4190,20 +3113,20 @@
       <c r="D47">
         <v>6</v>
       </c>
-      <c r="E47" t="s">
-        <v>548</v>
-      </c>
-      <c r="F47" t="s">
-        <v>725</v>
+      <c r="E47">
+        <v>177.97</v>
+      </c>
+      <c r="F47">
+        <v>1067.82</v>
       </c>
       <c r="G47" t="s">
-        <v>864</v>
+        <v>505</v>
       </c>
       <c r="H47" t="s">
-        <v>866</v>
+        <v>507</v>
       </c>
       <c r="I47" t="s">
-        <v>867</v>
+        <v>508</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -4216,20 +3139,20 @@
       <c r="D48">
         <v>6</v>
       </c>
-      <c r="E48" t="s">
-        <v>549</v>
-      </c>
-      <c r="F48" t="s">
-        <v>726</v>
+      <c r="E48">
+        <v>102.66</v>
+      </c>
+      <c r="F48">
+        <v>615.96</v>
       </c>
       <c r="G48" t="s">
-        <v>864</v>
+        <v>505</v>
       </c>
       <c r="H48" t="s">
-        <v>866</v>
+        <v>507</v>
       </c>
       <c r="I48" t="s">
-        <v>867</v>
+        <v>508</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -4242,20 +3165,20 @@
       <c r="D49">
         <v>9</v>
       </c>
-      <c r="E49" t="s">
-        <v>550</v>
-      </c>
-      <c r="F49" t="s">
-        <v>727</v>
+      <c r="E49">
+        <v>67.95999999999999</v>
+      </c>
+      <c r="F49">
+        <v>611.64</v>
       </c>
       <c r="G49" t="s">
-        <v>864</v>
+        <v>505</v>
       </c>
       <c r="H49" t="s">
-        <v>866</v>
+        <v>507</v>
       </c>
       <c r="I49" t="s">
-        <v>867</v>
+        <v>508</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -4268,20 +3191,20 @@
       <c r="D50">
         <v>6</v>
       </c>
-      <c r="E50" t="s">
-        <v>551</v>
-      </c>
-      <c r="F50" t="s">
-        <v>728</v>
+      <c r="E50">
+        <v>220</v>
+      </c>
+      <c r="F50">
+        <v>1320</v>
       </c>
       <c r="G50" t="s">
-        <v>864</v>
+        <v>505</v>
       </c>
       <c r="H50" t="s">
-        <v>866</v>
+        <v>507</v>
       </c>
       <c r="I50" t="s">
-        <v>867</v>
+        <v>508</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -4294,20 +3217,20 @@
       <c r="D51">
         <v>10</v>
       </c>
-      <c r="E51" t="s">
-        <v>552</v>
-      </c>
-      <c r="F51" t="s">
-        <v>729</v>
+      <c r="E51">
+        <v>188.33</v>
+      </c>
+      <c r="F51">
+        <v>1883.3</v>
       </c>
       <c r="G51" t="s">
-        <v>864</v>
+        <v>505</v>
       </c>
       <c r="H51" t="s">
-        <v>866</v>
+        <v>507</v>
       </c>
       <c r="I51" t="s">
-        <v>867</v>
+        <v>508</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -4320,20 +3243,20 @@
       <c r="D52">
         <v>8</v>
       </c>
-      <c r="E52" t="s">
-        <v>553</v>
-      </c>
-      <c r="F52" t="s">
-        <v>730</v>
+      <c r="E52">
+        <v>36.91</v>
+      </c>
+      <c r="F52">
+        <v>295.28</v>
       </c>
       <c r="G52" t="s">
-        <v>864</v>
+        <v>505</v>
       </c>
       <c r="H52" t="s">
-        <v>866</v>
+        <v>507</v>
       </c>
       <c r="I52" t="s">
-        <v>867</v>
+        <v>508</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -4346,20 +3269,20 @@
       <c r="D53">
         <v>4</v>
       </c>
-      <c r="E53" t="s">
-        <v>554</v>
-      </c>
-      <c r="F53" t="s">
-        <v>731</v>
+      <c r="E53">
+        <v>3588.33</v>
+      </c>
+      <c r="F53">
+        <v>14353.32</v>
       </c>
       <c r="G53" t="s">
-        <v>864</v>
+        <v>505</v>
       </c>
       <c r="H53" t="s">
-        <v>866</v>
+        <v>507</v>
       </c>
       <c r="I53" t="s">
-        <v>867</v>
+        <v>508</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -4372,20 +3295,20 @@
       <c r="D54">
         <v>6</v>
       </c>
-      <c r="E54" t="s">
-        <v>555</v>
-      </c>
-      <c r="F54" t="s">
-        <v>732</v>
+      <c r="E54">
+        <v>2033</v>
+      </c>
+      <c r="F54">
+        <v>12198</v>
       </c>
       <c r="G54" t="s">
-        <v>864</v>
+        <v>505</v>
       </c>
       <c r="H54" t="s">
-        <v>866</v>
+        <v>507</v>
       </c>
       <c r="I54" t="s">
-        <v>867</v>
+        <v>508</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -4398,20 +3321,20 @@
       <c r="D55">
         <v>8</v>
       </c>
-      <c r="E55" t="s">
-        <v>556</v>
-      </c>
-      <c r="F55" t="s">
-        <v>733</v>
+      <c r="E55">
+        <v>51</v>
+      </c>
+      <c r="F55">
+        <v>408</v>
       </c>
       <c r="G55" t="s">
-        <v>864</v>
+        <v>505</v>
       </c>
       <c r="H55" t="s">
-        <v>866</v>
+        <v>507</v>
       </c>
       <c r="I55" t="s">
-        <v>867</v>
+        <v>508</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -4424,20 +3347,20 @@
       <c r="D56">
         <v>8</v>
       </c>
-      <c r="E56" t="s">
-        <v>557</v>
-      </c>
-      <c r="F56" t="s">
-        <v>734</v>
+      <c r="E56">
+        <v>98.66</v>
+      </c>
+      <c r="F56">
+        <v>789.28</v>
       </c>
       <c r="G56" t="s">
-        <v>864</v>
+        <v>505</v>
       </c>
       <c r="H56" t="s">
-        <v>866</v>
+        <v>507</v>
       </c>
       <c r="I56" t="s">
-        <v>867</v>
+        <v>508</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -4450,20 +3373,20 @@
       <c r="D57">
         <v>40</v>
       </c>
-      <c r="E57" t="s">
-        <v>558</v>
-      </c>
-      <c r="F57" t="s">
-        <v>735</v>
+      <c r="E57">
+        <v>35.66</v>
+      </c>
+      <c r="F57">
+        <v>1426.4</v>
       </c>
       <c r="G57" t="s">
-        <v>864</v>
+        <v>505</v>
       </c>
       <c r="H57" t="s">
-        <v>866</v>
+        <v>507</v>
       </c>
       <c r="I57" t="s">
-        <v>867</v>
+        <v>508</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -4476,20 +3399,20 @@
       <c r="D58">
         <v>6</v>
       </c>
-      <c r="E58" t="s">
-        <v>559</v>
-      </c>
-      <c r="F58" t="s">
-        <v>736</v>
+      <c r="E58">
+        <v>114.83</v>
+      </c>
+      <c r="F58">
+        <v>688.98</v>
       </c>
       <c r="G58" t="s">
-        <v>864</v>
+        <v>505</v>
       </c>
       <c r="H58" t="s">
-        <v>866</v>
+        <v>507</v>
       </c>
       <c r="I58" t="s">
-        <v>867</v>
+        <v>508</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -4502,20 +3425,20 @@
       <c r="D59">
         <v>6</v>
       </c>
-      <c r="E59" t="s">
-        <v>560</v>
-      </c>
-      <c r="F59" t="s">
-        <v>737</v>
+      <c r="E59">
+        <v>42.58</v>
+      </c>
+      <c r="F59">
+        <v>255.48</v>
       </c>
       <c r="G59" t="s">
-        <v>864</v>
+        <v>505</v>
       </c>
       <c r="H59" t="s">
-        <v>866</v>
+        <v>507</v>
       </c>
       <c r="I59" t="s">
-        <v>867</v>
+        <v>508</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -4528,20 +3451,20 @@
       <c r="D60">
         <v>6</v>
       </c>
-      <c r="E60" t="s">
-        <v>560</v>
-      </c>
-      <c r="F60" t="s">
-        <v>737</v>
+      <c r="E60">
+        <v>42.58</v>
+      </c>
+      <c r="F60">
+        <v>255.48</v>
       </c>
       <c r="G60" t="s">
-        <v>864</v>
+        <v>505</v>
       </c>
       <c r="H60" t="s">
-        <v>866</v>
+        <v>507</v>
       </c>
       <c r="I60" t="s">
-        <v>867</v>
+        <v>508</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -4554,20 +3477,20 @@
       <c r="D61">
         <v>6</v>
       </c>
-      <c r="E61" t="s">
-        <v>561</v>
-      </c>
-      <c r="F61" t="s">
-        <v>738</v>
+      <c r="E61">
+        <v>81.16</v>
+      </c>
+      <c r="F61">
+        <v>486.96</v>
       </c>
       <c r="G61" t="s">
-        <v>864</v>
+        <v>505</v>
       </c>
       <c r="H61" t="s">
-        <v>866</v>
+        <v>507</v>
       </c>
       <c r="I61" t="s">
-        <v>867</v>
+        <v>508</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -4580,20 +3503,20 @@
       <c r="D62">
         <v>6</v>
       </c>
-      <c r="E62" t="s">
-        <v>562</v>
-      </c>
-      <c r="F62" t="s">
-        <v>739</v>
+      <c r="E62">
+        <v>82.16</v>
+      </c>
+      <c r="F62">
+        <v>492.96</v>
       </c>
       <c r="G62" t="s">
-        <v>864</v>
+        <v>505</v>
       </c>
       <c r="H62" t="s">
-        <v>866</v>
+        <v>507</v>
       </c>
       <c r="I62" t="s">
-        <v>867</v>
+        <v>508</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -4606,20 +3529,20 @@
       <c r="D63">
         <v>6</v>
       </c>
-      <c r="E63" t="s">
-        <v>563</v>
-      </c>
-      <c r="F63" t="s">
-        <v>740</v>
+      <c r="E63">
+        <v>64.66</v>
+      </c>
+      <c r="F63">
+        <v>387.96</v>
       </c>
       <c r="G63" t="s">
-        <v>864</v>
+        <v>505</v>
       </c>
       <c r="H63" t="s">
-        <v>866</v>
+        <v>507</v>
       </c>
       <c r="I63" t="s">
-        <v>867</v>
+        <v>508</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -4632,20 +3555,20 @@
       <c r="D64">
         <v>6</v>
       </c>
-      <c r="E64" t="s">
-        <v>564</v>
-      </c>
-      <c r="F64" t="s">
-        <v>741</v>
+      <c r="E64">
+        <v>57.66</v>
+      </c>
+      <c r="F64">
+        <v>345.96</v>
       </c>
       <c r="G64" t="s">
-        <v>864</v>
+        <v>505</v>
       </c>
       <c r="H64" t="s">
-        <v>866</v>
+        <v>507</v>
       </c>
       <c r="I64" t="s">
-        <v>867</v>
+        <v>508</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -4658,20 +3581,20 @@
       <c r="D65">
         <v>8</v>
       </c>
-      <c r="E65" t="s">
-        <v>565</v>
-      </c>
-      <c r="F65" t="s">
-        <v>742</v>
+      <c r="E65">
+        <v>120.16</v>
+      </c>
+      <c r="F65">
+        <v>961.28</v>
       </c>
       <c r="G65" t="s">
-        <v>864</v>
+        <v>505</v>
       </c>
       <c r="H65" t="s">
-        <v>866</v>
+        <v>507</v>
       </c>
       <c r="I65" t="s">
-        <v>867</v>
+        <v>508</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -4684,20 +3607,20 @@
       <c r="D66">
         <v>8</v>
       </c>
-      <c r="E66" t="s">
-        <v>566</v>
-      </c>
-      <c r="F66" t="s">
-        <v>743</v>
+      <c r="E66">
+        <v>283</v>
+      </c>
+      <c r="F66">
+        <v>2264</v>
       </c>
       <c r="G66" t="s">
-        <v>864</v>
+        <v>505</v>
       </c>
       <c r="H66" t="s">
-        <v>866</v>
+        <v>507</v>
       </c>
       <c r="I66" t="s">
-        <v>867</v>
+        <v>508</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -4710,20 +3633,20 @@
       <c r="D67">
         <v>6</v>
       </c>
-      <c r="E67" t="s">
-        <v>567</v>
-      </c>
-      <c r="F67" t="s">
-        <v>744</v>
+      <c r="E67">
+        <v>446.33</v>
+      </c>
+      <c r="F67">
+        <v>2677.98</v>
       </c>
       <c r="G67" t="s">
-        <v>864</v>
+        <v>505</v>
       </c>
       <c r="H67" t="s">
-        <v>866</v>
+        <v>507</v>
       </c>
       <c r="I67" t="s">
-        <v>867</v>
+        <v>508</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -4736,20 +3659,20 @@
       <c r="D68">
         <v>6</v>
       </c>
-      <c r="E68" t="s">
-        <v>567</v>
-      </c>
-      <c r="F68" t="s">
-        <v>744</v>
+      <c r="E68">
+        <v>446.33</v>
+      </c>
+      <c r="F68">
+        <v>2677.98</v>
       </c>
       <c r="G68" t="s">
-        <v>864</v>
+        <v>505</v>
       </c>
       <c r="H68" t="s">
-        <v>866</v>
+        <v>507</v>
       </c>
       <c r="I68" t="s">
-        <v>867</v>
+        <v>508</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -4765,20 +3688,20 @@
       <c r="D69">
         <v>28</v>
       </c>
-      <c r="E69" t="s">
-        <v>568</v>
-      </c>
-      <c r="F69" t="s">
-        <v>745</v>
+      <c r="E69">
+        <v>105.16</v>
+      </c>
+      <c r="F69">
+        <v>2944.48</v>
       </c>
       <c r="G69" t="s">
-        <v>864</v>
+        <v>505</v>
       </c>
       <c r="H69" t="s">
-        <v>866</v>
+        <v>507</v>
       </c>
       <c r="I69" t="s">
-        <v>867</v>
+        <v>508</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -4794,20 +3717,20 @@
       <c r="D70">
         <v>5</v>
       </c>
-      <c r="E70" t="s">
-        <v>569</v>
-      </c>
-      <c r="F70" t="s">
-        <v>746</v>
+      <c r="E70">
+        <v>168</v>
+      </c>
+      <c r="F70">
+        <v>840</v>
       </c>
       <c r="G70" t="s">
-        <v>864</v>
+        <v>505</v>
       </c>
       <c r="H70" t="s">
-        <v>866</v>
+        <v>507</v>
       </c>
       <c r="I70" t="s">
-        <v>867</v>
+        <v>508</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -4823,20 +3746,20 @@
       <c r="D71">
         <v>15</v>
       </c>
-      <c r="E71" t="s">
-        <v>570</v>
-      </c>
-      <c r="F71" t="s">
-        <v>747</v>
+      <c r="E71">
+        <v>241</v>
+      </c>
+      <c r="F71">
+        <v>3615</v>
       </c>
       <c r="G71" t="s">
-        <v>864</v>
+        <v>505</v>
       </c>
       <c r="H71" t="s">
-        <v>866</v>
+        <v>507</v>
       </c>
       <c r="I71" t="s">
-        <v>867</v>
+        <v>508</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -4852,20 +3775,20 @@
       <c r="D72">
         <v>4</v>
       </c>
-      <c r="E72" t="s">
-        <v>549</v>
-      </c>
-      <c r="F72" t="s">
-        <v>748</v>
+      <c r="E72">
+        <v>102.66</v>
+      </c>
+      <c r="F72">
+        <v>410.64</v>
       </c>
       <c r="G72" t="s">
-        <v>864</v>
+        <v>505</v>
       </c>
       <c r="H72" t="s">
-        <v>866</v>
+        <v>507</v>
       </c>
       <c r="I72" t="s">
-        <v>867</v>
+        <v>508</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -4881,20 +3804,20 @@
       <c r="D73">
         <v>6</v>
       </c>
-      <c r="E73" t="s">
-        <v>571</v>
-      </c>
-      <c r="F73" t="s">
-        <v>749</v>
+      <c r="E73">
+        <v>204.66</v>
+      </c>
+      <c r="F73">
+        <v>1227.96</v>
       </c>
       <c r="G73" t="s">
-        <v>864</v>
+        <v>505</v>
       </c>
       <c r="H73" t="s">
-        <v>866</v>
+        <v>507</v>
       </c>
       <c r="I73" t="s">
-        <v>867</v>
+        <v>508</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -4910,20 +3833,20 @@
       <c r="D74">
         <v>6</v>
       </c>
-      <c r="E74" t="s">
-        <v>572</v>
-      </c>
-      <c r="F74" t="s">
-        <v>750</v>
+      <c r="E74">
+        <v>210.6</v>
+      </c>
+      <c r="F74">
+        <v>1263.6</v>
       </c>
       <c r="G74" t="s">
-        <v>864</v>
+        <v>505</v>
       </c>
       <c r="H74" t="s">
-        <v>866</v>
+        <v>507</v>
       </c>
       <c r="I74" t="s">
-        <v>867</v>
+        <v>508</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -4939,20 +3862,20 @@
       <c r="D75">
         <v>10</v>
       </c>
-      <c r="E75" t="s">
-        <v>573</v>
-      </c>
-      <c r="F75" t="s">
-        <v>751</v>
+      <c r="E75">
+        <v>73.41</v>
+      </c>
+      <c r="F75">
+        <v>734.0999999999999</v>
       </c>
       <c r="G75" t="s">
-        <v>864</v>
+        <v>505</v>
       </c>
       <c r="H75" t="s">
-        <v>866</v>
+        <v>507</v>
       </c>
       <c r="I75" t="s">
-        <v>867</v>
+        <v>508</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -4968,20 +3891,20 @@
       <c r="D76">
         <v>12</v>
       </c>
-      <c r="E76" t="s">
-        <v>574</v>
-      </c>
-      <c r="F76" t="s">
-        <v>752</v>
+      <c r="E76">
+        <v>75.58</v>
+      </c>
+      <c r="F76">
+        <v>906.96</v>
       </c>
       <c r="G76" t="s">
-        <v>864</v>
+        <v>505</v>
       </c>
       <c r="H76" t="s">
-        <v>866</v>
+        <v>507</v>
       </c>
       <c r="I76" t="s">
-        <v>867</v>
+        <v>508</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -4997,20 +3920,20 @@
       <c r="D77">
         <v>12</v>
       </c>
-      <c r="E77" t="s">
-        <v>539</v>
-      </c>
-      <c r="F77" t="s">
-        <v>753</v>
+      <c r="E77">
+        <v>131.33</v>
+      </c>
+      <c r="F77">
+        <v>1575.96</v>
       </c>
       <c r="G77" t="s">
-        <v>864</v>
+        <v>505</v>
       </c>
       <c r="H77" t="s">
-        <v>866</v>
+        <v>507</v>
       </c>
       <c r="I77" t="s">
-        <v>867</v>
+        <v>508</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -5026,20 +3949,20 @@
       <c r="D78">
         <v>2</v>
       </c>
-      <c r="E78" t="s">
-        <v>575</v>
-      </c>
-      <c r="F78" t="s">
-        <v>754</v>
+      <c r="E78">
+        <v>6900</v>
+      </c>
+      <c r="F78">
+        <v>13800</v>
       </c>
       <c r="G78" t="s">
-        <v>864</v>
+        <v>505</v>
       </c>
       <c r="H78" t="s">
-        <v>866</v>
+        <v>507</v>
       </c>
       <c r="I78" t="s">
-        <v>867</v>
+        <v>508</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -5055,20 +3978,20 @@
       <c r="D79">
         <v>6</v>
       </c>
-      <c r="E79" t="s">
-        <v>576</v>
-      </c>
-      <c r="F79" t="s">
-        <v>755</v>
+      <c r="E79">
+        <v>84.5</v>
+      </c>
+      <c r="F79">
+        <v>507</v>
       </c>
       <c r="G79" t="s">
-        <v>864</v>
+        <v>505</v>
       </c>
       <c r="H79" t="s">
-        <v>866</v>
+        <v>507</v>
       </c>
       <c r="I79" t="s">
-        <v>867</v>
+        <v>508</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -5084,20 +4007,20 @@
       <c r="D80">
         <v>3</v>
       </c>
-      <c r="E80" t="s">
-        <v>577</v>
-      </c>
-      <c r="F80" t="s">
-        <v>756</v>
+      <c r="E80">
+        <v>857.66</v>
+      </c>
+      <c r="F80">
+        <v>2572.98</v>
       </c>
       <c r="G80" t="s">
-        <v>864</v>
+        <v>505</v>
       </c>
       <c r="H80" t="s">
-        <v>866</v>
+        <v>507</v>
       </c>
       <c r="I80" t="s">
-        <v>867</v>
+        <v>508</v>
       </c>
     </row>
     <row r="81" spans="1:9">
@@ -5113,20 +4036,20 @@
       <c r="D81">
         <v>3</v>
       </c>
-      <c r="E81" t="s">
-        <v>578</v>
-      </c>
-      <c r="F81" t="s">
-        <v>757</v>
+      <c r="E81">
+        <v>2416</v>
+      </c>
+      <c r="F81">
+        <v>7248</v>
       </c>
       <c r="G81" t="s">
-        <v>864</v>
+        <v>505</v>
       </c>
       <c r="H81" t="s">
-        <v>866</v>
+        <v>507</v>
       </c>
       <c r="I81" t="s">
-        <v>867</v>
+        <v>508</v>
       </c>
     </row>
     <row r="82" spans="1:9">
@@ -5142,20 +4065,20 @@
       <c r="D82">
         <v>3</v>
       </c>
-      <c r="E82" t="s">
-        <v>579</v>
-      </c>
-      <c r="F82" t="s">
-        <v>719</v>
+      <c r="E82">
+        <v>131</v>
+      </c>
+      <c r="F82">
+        <v>393</v>
       </c>
       <c r="G82" t="s">
-        <v>864</v>
+        <v>505</v>
       </c>
       <c r="H82" t="s">
-        <v>866</v>
+        <v>507</v>
       </c>
       <c r="I82" t="s">
-        <v>867</v>
+        <v>508</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -5171,20 +4094,20 @@
       <c r="D83">
         <v>3</v>
       </c>
-      <c r="E83" t="s">
-        <v>580</v>
-      </c>
-      <c r="F83" t="s">
-        <v>758</v>
+      <c r="E83">
+        <v>1816.66</v>
+      </c>
+      <c r="F83">
+        <v>5449.98</v>
       </c>
       <c r="G83" t="s">
-        <v>864</v>
+        <v>505</v>
       </c>
       <c r="H83" t="s">
-        <v>866</v>
+        <v>507</v>
       </c>
       <c r="I83" t="s">
-        <v>867</v>
+        <v>508</v>
       </c>
     </row>
     <row r="84" spans="1:9">
@@ -5200,20 +4123,20 @@
       <c r="D84">
         <v>3</v>
       </c>
-      <c r="E84" t="s">
-        <v>580</v>
-      </c>
-      <c r="F84" t="s">
-        <v>758</v>
+      <c r="E84">
+        <v>1816.66</v>
+      </c>
+      <c r="F84">
+        <v>5449.98</v>
       </c>
       <c r="G84" t="s">
-        <v>864</v>
+        <v>505</v>
       </c>
       <c r="H84" t="s">
-        <v>866</v>
+        <v>507</v>
       </c>
       <c r="I84" t="s">
-        <v>867</v>
+        <v>508</v>
       </c>
     </row>
     <row r="85" spans="1:9">
@@ -5229,20 +4152,20 @@
       <c r="D85">
         <v>20</v>
       </c>
-      <c r="E85" t="s">
-        <v>581</v>
-      </c>
-      <c r="F85" t="s">
-        <v>759</v>
+      <c r="E85">
+        <v>187.16</v>
+      </c>
+      <c r="F85">
+        <v>3743.2</v>
       </c>
       <c r="G85" t="s">
-        <v>864</v>
+        <v>505</v>
       </c>
       <c r="H85" t="s">
-        <v>866</v>
+        <v>507</v>
       </c>
       <c r="I85" t="s">
-        <v>867</v>
+        <v>508</v>
       </c>
     </row>
     <row r="86" spans="1:9">
@@ -5258,20 +4181,20 @@
       <c r="D86">
         <v>76</v>
       </c>
-      <c r="E86" t="s">
-        <v>582</v>
-      </c>
-      <c r="F86" t="s">
-        <v>760</v>
+      <c r="E86">
+        <v>78.58</v>
+      </c>
+      <c r="F86">
+        <v>5972.08</v>
       </c>
       <c r="G86" t="s">
-        <v>864</v>
+        <v>505</v>
       </c>
       <c r="H86" t="s">
-        <v>866</v>
+        <v>507</v>
       </c>
       <c r="I86" t="s">
-        <v>867</v>
+        <v>508</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -5287,20 +4210,20 @@
       <c r="D87">
         <v>2</v>
       </c>
-      <c r="E87" t="s">
-        <v>583</v>
-      </c>
-      <c r="F87" t="s">
-        <v>761</v>
+      <c r="E87">
+        <v>1655</v>
+      </c>
+      <c r="F87">
+        <v>3310</v>
       </c>
       <c r="G87" t="s">
-        <v>864</v>
+        <v>505</v>
       </c>
       <c r="H87" t="s">
-        <v>866</v>
+        <v>507</v>
       </c>
       <c r="I87" t="s">
-        <v>867</v>
+        <v>508</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -5316,20 +4239,20 @@
       <c r="D88">
         <v>2</v>
       </c>
-      <c r="E88" t="s">
-        <v>584</v>
-      </c>
-      <c r="F88" t="s">
-        <v>762</v>
+      <c r="E88">
+        <v>2824.66</v>
+      </c>
+      <c r="F88">
+        <v>5649.32</v>
       </c>
       <c r="G88" t="s">
-        <v>864</v>
+        <v>505</v>
       </c>
       <c r="H88" t="s">
-        <v>866</v>
+        <v>507</v>
       </c>
       <c r="I88" t="s">
-        <v>867</v>
+        <v>508</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -5345,20 +4268,20 @@
       <c r="D89">
         <v>5</v>
       </c>
-      <c r="E89" t="s">
-        <v>585</v>
-      </c>
-      <c r="F89" t="s">
-        <v>763</v>
+      <c r="E89">
+        <v>744.66</v>
+      </c>
+      <c r="F89">
+        <v>3723.3</v>
       </c>
       <c r="G89" t="s">
-        <v>864</v>
+        <v>505</v>
       </c>
       <c r="H89" t="s">
-        <v>866</v>
+        <v>507</v>
       </c>
       <c r="I89" t="s">
-        <v>867</v>
+        <v>508</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -5374,20 +4297,20 @@
       <c r="D90">
         <v>5</v>
       </c>
-      <c r="E90" t="s">
-        <v>586</v>
-      </c>
-      <c r="F90" t="s">
-        <v>764</v>
+      <c r="E90">
+        <v>311.33</v>
+      </c>
+      <c r="F90">
+        <v>1556.65</v>
       </c>
       <c r="G90" t="s">
-        <v>864</v>
+        <v>505</v>
       </c>
       <c r="H90" t="s">
-        <v>866</v>
+        <v>507</v>
       </c>
       <c r="I90" t="s">
-        <v>867</v>
+        <v>508</v>
       </c>
     </row>
     <row r="91" spans="1:9">
@@ -5403,20 +4326,20 @@
       <c r="D91">
         <v>5</v>
       </c>
-      <c r="E91" t="s">
-        <v>587</v>
-      </c>
-      <c r="F91" t="s">
-        <v>765</v>
+      <c r="E91">
+        <v>946.66</v>
+      </c>
+      <c r="F91">
+        <v>4733.3</v>
       </c>
       <c r="G91" t="s">
-        <v>864</v>
+        <v>505</v>
       </c>
       <c r="H91" t="s">
-        <v>866</v>
+        <v>507</v>
       </c>
       <c r="I91" t="s">
-        <v>867</v>
+        <v>508</v>
       </c>
     </row>
     <row r="92" spans="1:9">
@@ -5432,20 +4355,20 @@
       <c r="D92">
         <v>5</v>
       </c>
-      <c r="E92" t="s">
-        <v>588</v>
-      </c>
-      <c r="F92" t="s">
-        <v>766</v>
+      <c r="E92">
+        <v>654.66</v>
+      </c>
+      <c r="F92">
+        <v>3273.3</v>
       </c>
       <c r="G92" t="s">
-        <v>864</v>
+        <v>505</v>
       </c>
       <c r="H92" t="s">
-        <v>866</v>
+        <v>507</v>
       </c>
       <c r="I92" t="s">
-        <v>867</v>
+        <v>508</v>
       </c>
     </row>
     <row r="93" spans="1:9">
@@ -5461,20 +4384,20 @@
       <c r="D93">
         <v>6</v>
       </c>
-      <c r="E93" t="s">
-        <v>589</v>
-      </c>
-      <c r="F93" t="s">
-        <v>767</v>
+      <c r="E93">
+        <v>185.5</v>
+      </c>
+      <c r="F93">
+        <v>1113</v>
       </c>
       <c r="G93" t="s">
-        <v>864</v>
+        <v>505</v>
       </c>
       <c r="H93" t="s">
-        <v>866</v>
+        <v>507</v>
       </c>
       <c r="I93" t="s">
-        <v>867</v>
+        <v>508</v>
       </c>
     </row>
     <row r="94" spans="1:9">
@@ -5490,20 +4413,20 @@
       <c r="D94">
         <v>6</v>
       </c>
-      <c r="E94" t="s">
-        <v>590</v>
-      </c>
-      <c r="F94" t="s">
-        <v>768</v>
+      <c r="E94">
+        <v>120</v>
+      </c>
+      <c r="F94">
+        <v>720</v>
       </c>
       <c r="G94" t="s">
-        <v>864</v>
+        <v>505</v>
       </c>
       <c r="H94" t="s">
-        <v>866</v>
+        <v>507</v>
       </c>
       <c r="I94" t="s">
-        <v>867</v>
+        <v>508</v>
       </c>
     </row>
     <row r="95" spans="1:9">
@@ -5519,20 +4442,20 @@
       <c r="D95">
         <v>4</v>
       </c>
-      <c r="E95" t="s">
-        <v>591</v>
-      </c>
-      <c r="F95" t="s">
-        <v>769</v>
+      <c r="E95">
+        <v>483</v>
+      </c>
+      <c r="F95">
+        <v>1932</v>
       </c>
       <c r="G95" t="s">
-        <v>864</v>
+        <v>505</v>
       </c>
       <c r="H95" t="s">
-        <v>866</v>
+        <v>507</v>
       </c>
       <c r="I95" t="s">
-        <v>867</v>
+        <v>508</v>
       </c>
     </row>
     <row r="96" spans="1:9">
@@ -5548,20 +4471,20 @@
       <c r="D96">
         <v>5</v>
       </c>
-      <c r="E96" t="s">
-        <v>592</v>
-      </c>
-      <c r="F96" t="s">
-        <v>770</v>
+      <c r="E96">
+        <v>201.66</v>
+      </c>
+      <c r="F96">
+        <v>1008.3</v>
       </c>
       <c r="G96" t="s">
-        <v>864</v>
+        <v>505</v>
       </c>
       <c r="H96" t="s">
-        <v>866</v>
+        <v>507</v>
       </c>
       <c r="I96" t="s">
-        <v>867</v>
+        <v>508</v>
       </c>
     </row>
     <row r="97" spans="1:9">
@@ -5577,20 +4500,20 @@
       <c r="D97">
         <v>5</v>
       </c>
-      <c r="E97" t="s">
-        <v>552</v>
-      </c>
-      <c r="F97" t="s">
-        <v>771</v>
+      <c r="E97">
+        <v>188.33</v>
+      </c>
+      <c r="F97">
+        <v>941.6500000000001</v>
       </c>
       <c r="G97" t="s">
-        <v>864</v>
+        <v>505</v>
       </c>
       <c r="H97" t="s">
-        <v>866</v>
+        <v>507</v>
       </c>
       <c r="I97" t="s">
-        <v>867</v>
+        <v>508</v>
       </c>
     </row>
     <row r="98" spans="1:9">
@@ -5606,20 +4529,20 @@
       <c r="D98">
         <v>6</v>
       </c>
-      <c r="E98" t="s">
-        <v>593</v>
-      </c>
-      <c r="F98" t="s">
-        <v>772</v>
+      <c r="E98">
+        <v>754.66</v>
+      </c>
+      <c r="F98">
+        <v>4527.96</v>
       </c>
       <c r="G98" t="s">
-        <v>864</v>
+        <v>505</v>
       </c>
       <c r="H98" t="s">
-        <v>866</v>
+        <v>507</v>
       </c>
       <c r="I98" t="s">
-        <v>867</v>
+        <v>508</v>
       </c>
     </row>
     <row r="99" spans="1:9">
@@ -5635,20 +4558,20 @@
       <c r="D99">
         <v>7</v>
       </c>
-      <c r="E99" t="s">
-        <v>594</v>
-      </c>
-      <c r="F99" t="s">
-        <v>773</v>
+      <c r="E99">
+        <v>513</v>
+      </c>
+      <c r="F99">
+        <v>3591</v>
       </c>
       <c r="G99" t="s">
-        <v>864</v>
+        <v>505</v>
       </c>
       <c r="H99" t="s">
-        <v>866</v>
+        <v>507</v>
       </c>
       <c r="I99" t="s">
-        <v>867</v>
+        <v>508</v>
       </c>
     </row>
     <row r="100" spans="1:9">
@@ -5664,20 +4587,20 @@
       <c r="D100">
         <v>4</v>
       </c>
-      <c r="E100" t="s">
-        <v>595</v>
-      </c>
-      <c r="F100" t="s">
-        <v>774</v>
+      <c r="E100">
+        <v>945</v>
+      </c>
+      <c r="F100">
+        <v>3780</v>
       </c>
       <c r="G100" t="s">
-        <v>864</v>
+        <v>505</v>
       </c>
       <c r="H100" t="s">
-        <v>866</v>
+        <v>507</v>
       </c>
       <c r="I100" t="s">
-        <v>867</v>
+        <v>508</v>
       </c>
     </row>
     <row r="101" spans="1:9">
@@ -5693,20 +4616,20 @@
       <c r="D101">
         <v>4</v>
       </c>
-      <c r="E101" t="s">
-        <v>596</v>
-      </c>
-      <c r="F101" t="s">
-        <v>775</v>
+      <c r="E101">
+        <v>3921.66</v>
+      </c>
+      <c r="F101">
+        <v>15686.64</v>
       </c>
       <c r="G101" t="s">
-        <v>864</v>
+        <v>505</v>
       </c>
       <c r="H101" t="s">
-        <v>866</v>
+        <v>507</v>
       </c>
       <c r="I101" t="s">
-        <v>867</v>
+        <v>508</v>
       </c>
     </row>
     <row r="102" spans="1:9">
@@ -5722,20 +4645,20 @@
       <c r="D102">
         <v>4</v>
       </c>
-      <c r="E102" t="s">
-        <v>597</v>
-      </c>
-      <c r="F102" t="s">
-        <v>776</v>
+      <c r="E102">
+        <v>682.66</v>
+      </c>
+      <c r="F102">
+        <v>2730.64</v>
       </c>
       <c r="G102" t="s">
-        <v>864</v>
+        <v>505</v>
       </c>
       <c r="H102" t="s">
-        <v>866</v>
+        <v>507</v>
       </c>
       <c r="I102" t="s">
-        <v>867</v>
+        <v>508</v>
       </c>
     </row>
     <row r="103" spans="1:9">
@@ -5751,20 +4674,20 @@
       <c r="D103">
         <v>5</v>
       </c>
-      <c r="E103" t="s">
-        <v>565</v>
-      </c>
-      <c r="F103" t="s">
-        <v>777</v>
+      <c r="E103">
+        <v>120.16</v>
+      </c>
+      <c r="F103">
+        <v>600.8</v>
       </c>
       <c r="G103" t="s">
-        <v>864</v>
+        <v>505</v>
       </c>
       <c r="H103" t="s">
-        <v>866</v>
+        <v>507</v>
       </c>
       <c r="I103" t="s">
-        <v>867</v>
+        <v>508</v>
       </c>
     </row>
     <row r="104" spans="1:9">
@@ -5780,20 +4703,20 @@
       <c r="D104">
         <v>2</v>
       </c>
-      <c r="E104" t="s">
-        <v>598</v>
-      </c>
-      <c r="F104" t="s">
-        <v>778</v>
+      <c r="E104">
+        <v>1378.33</v>
+      </c>
+      <c r="F104">
+        <v>2756.66</v>
       </c>
       <c r="G104" t="s">
-        <v>864</v>
+        <v>505</v>
       </c>
       <c r="H104" t="s">
-        <v>866</v>
+        <v>507</v>
       </c>
       <c r="I104" t="s">
-        <v>867</v>
+        <v>508</v>
       </c>
     </row>
     <row r="105" spans="1:9">
@@ -5809,20 +4732,20 @@
       <c r="D105">
         <v>8</v>
       </c>
-      <c r="E105" t="s">
-        <v>599</v>
-      </c>
-      <c r="F105" t="s">
-        <v>779</v>
+      <c r="E105">
+        <v>34.58</v>
+      </c>
+      <c r="F105">
+        <v>276.64</v>
       </c>
       <c r="G105" t="s">
-        <v>864</v>
+        <v>505</v>
       </c>
       <c r="H105" t="s">
-        <v>866</v>
+        <v>507</v>
       </c>
       <c r="I105" t="s">
-        <v>867</v>
+        <v>508</v>
       </c>
     </row>
     <row r="106" spans="1:9">
@@ -5838,20 +4761,20 @@
       <c r="D106">
         <v>12</v>
       </c>
-      <c r="E106" t="s">
-        <v>600</v>
-      </c>
-      <c r="F106" t="s">
-        <v>780</v>
+      <c r="E106">
+        <v>188.83</v>
+      </c>
+      <c r="F106">
+        <v>2265.96</v>
       </c>
       <c r="G106" t="s">
-        <v>864</v>
+        <v>505</v>
       </c>
       <c r="H106" t="s">
-        <v>866</v>
+        <v>507</v>
       </c>
       <c r="I106" t="s">
-        <v>867</v>
+        <v>508</v>
       </c>
     </row>
     <row r="107" spans="1:9">
@@ -5867,20 +4790,20 @@
       <c r="D107">
         <v>8</v>
       </c>
-      <c r="E107" t="s">
-        <v>601</v>
-      </c>
-      <c r="F107" t="s">
-        <v>781</v>
+      <c r="E107">
+        <v>165.83</v>
+      </c>
+      <c r="F107">
+        <v>1326.64</v>
       </c>
       <c r="G107" t="s">
-        <v>864</v>
+        <v>505</v>
       </c>
       <c r="H107" t="s">
-        <v>866</v>
+        <v>507</v>
       </c>
       <c r="I107" t="s">
-        <v>867</v>
+        <v>508</v>
       </c>
     </row>
     <row r="108" spans="1:9">
@@ -5896,20 +4819,20 @@
       <c r="D108">
         <v>8</v>
       </c>
-      <c r="E108" t="s">
-        <v>602</v>
-      </c>
-      <c r="F108" t="s">
-        <v>782</v>
+      <c r="E108">
+        <v>399.16</v>
+      </c>
+      <c r="F108">
+        <v>3193.28</v>
       </c>
       <c r="G108" t="s">
-        <v>864</v>
+        <v>505</v>
       </c>
       <c r="H108" t="s">
-        <v>866</v>
+        <v>507</v>
       </c>
       <c r="I108" t="s">
-        <v>867</v>
+        <v>508</v>
       </c>
     </row>
     <row r="109" spans="1:9">
@@ -5925,20 +4848,20 @@
       <c r="D109">
         <v>8</v>
       </c>
-      <c r="E109" t="s">
-        <v>603</v>
-      </c>
-      <c r="F109" t="s">
-        <v>783</v>
+      <c r="E109">
+        <v>321.33</v>
+      </c>
+      <c r="F109">
+        <v>2570.64</v>
       </c>
       <c r="G109" t="s">
-        <v>864</v>
+        <v>505</v>
       </c>
       <c r="H109" t="s">
-        <v>866</v>
+        <v>507</v>
       </c>
       <c r="I109" t="s">
-        <v>867</v>
+        <v>508</v>
       </c>
     </row>
     <row r="110" spans="1:9">
@@ -5954,20 +4877,20 @@
       <c r="D110">
         <v>6</v>
       </c>
-      <c r="E110" t="s">
-        <v>604</v>
-      </c>
-      <c r="F110" t="s">
-        <v>784</v>
+      <c r="E110">
+        <v>49.66</v>
+      </c>
+      <c r="F110">
+        <v>297.96</v>
       </c>
       <c r="G110" t="s">
-        <v>864</v>
+        <v>505</v>
       </c>
       <c r="H110" t="s">
-        <v>866</v>
+        <v>507</v>
       </c>
       <c r="I110" t="s">
-        <v>867</v>
+        <v>508</v>
       </c>
     </row>
     <row r="111" spans="1:9">
@@ -5983,20 +4906,20 @@
       <c r="D111">
         <v>76</v>
       </c>
-      <c r="E111" t="s">
-        <v>605</v>
-      </c>
-      <c r="F111" t="s">
-        <v>785</v>
+      <c r="E111">
+        <v>110.5</v>
+      </c>
+      <c r="F111">
+        <v>8398</v>
       </c>
       <c r="G111" t="s">
-        <v>864</v>
+        <v>505</v>
       </c>
       <c r="H111" t="s">
-        <v>866</v>
+        <v>507</v>
       </c>
       <c r="I111" t="s">
-        <v>867</v>
+        <v>508</v>
       </c>
     </row>
     <row r="112" spans="1:9">
@@ -6012,20 +4935,20 @@
       <c r="D112">
         <v>3</v>
       </c>
-      <c r="E112" t="s">
-        <v>606</v>
-      </c>
-      <c r="F112" t="s">
-        <v>786</v>
+      <c r="E112">
+        <v>361.83</v>
+      </c>
+      <c r="F112">
+        <v>1085.49</v>
       </c>
       <c r="G112" t="s">
-        <v>865</v>
+        <v>506</v>
       </c>
       <c r="H112" t="s">
-        <v>866</v>
+        <v>507</v>
       </c>
       <c r="I112" t="s">
-        <v>867</v>
+        <v>508</v>
       </c>
     </row>
     <row r="113" spans="1:9">
@@ -6041,20 +4964,20 @@
       <c r="D113">
         <v>6</v>
       </c>
-      <c r="E113" t="s">
-        <v>607</v>
-      </c>
-      <c r="F113" t="s">
-        <v>787</v>
+      <c r="E113">
+        <v>51.33</v>
+      </c>
+      <c r="F113">
+        <v>307.98</v>
       </c>
       <c r="G113" t="s">
-        <v>864</v>
+        <v>505</v>
       </c>
       <c r="H113" t="s">
-        <v>866</v>
+        <v>507</v>
       </c>
       <c r="I113" t="s">
-        <v>867</v>
+        <v>508</v>
       </c>
     </row>
     <row r="114" spans="1:9">
@@ -6070,20 +4993,20 @@
       <c r="D114">
         <v>44</v>
       </c>
-      <c r="E114" t="s">
-        <v>608</v>
-      </c>
-      <c r="F114" t="s">
-        <v>788</v>
+      <c r="E114">
+        <v>153</v>
+      </c>
+      <c r="F114">
+        <v>6732</v>
       </c>
       <c r="G114" t="s">
-        <v>864</v>
+        <v>505</v>
       </c>
       <c r="H114" t="s">
-        <v>866</v>
+        <v>507</v>
       </c>
       <c r="I114" t="s">
-        <v>867</v>
+        <v>508</v>
       </c>
     </row>
     <row r="115" spans="1:9">
@@ -6099,20 +5022,20 @@
       <c r="D115">
         <v>4</v>
       </c>
-      <c r="E115" t="s">
-        <v>609</v>
-      </c>
-      <c r="F115" t="s">
-        <v>789</v>
+      <c r="E115">
+        <v>338.33</v>
+      </c>
+      <c r="F115">
+        <v>1353.32</v>
       </c>
       <c r="G115" t="s">
-        <v>864</v>
+        <v>505</v>
       </c>
       <c r="H115" t="s">
-        <v>866</v>
+        <v>507</v>
       </c>
       <c r="I115" t="s">
-        <v>867</v>
+        <v>508</v>
       </c>
     </row>
     <row r="116" spans="1:9">
@@ -6128,20 +5051,20 @@
       <c r="D116">
         <v>4</v>
       </c>
-      <c r="E116" t="s">
-        <v>610</v>
-      </c>
-      <c r="F116" t="s">
-        <v>790</v>
+      <c r="E116">
+        <v>161.83</v>
+      </c>
+      <c r="F116">
+        <v>647.3200000000001</v>
       </c>
       <c r="G116" t="s">
-        <v>864</v>
+        <v>505</v>
       </c>
       <c r="H116" t="s">
-        <v>866</v>
+        <v>507</v>
       </c>
       <c r="I116" t="s">
-        <v>867</v>
+        <v>508</v>
       </c>
     </row>
     <row r="117" spans="1:9">
@@ -6157,20 +5080,20 @@
       <c r="D117">
         <v>2</v>
       </c>
-      <c r="E117" t="s">
-        <v>611</v>
-      </c>
-      <c r="F117" t="s">
-        <v>791</v>
+      <c r="E117">
+        <v>3535</v>
+      </c>
+      <c r="F117">
+        <v>7070</v>
       </c>
       <c r="G117" t="s">
-        <v>864</v>
+        <v>505</v>
       </c>
       <c r="H117" t="s">
-        <v>866</v>
+        <v>507</v>
       </c>
       <c r="I117" t="s">
-        <v>867</v>
+        <v>508</v>
       </c>
     </row>
     <row r="118" spans="1:9">
@@ -6186,20 +5109,20 @@
       <c r="D118">
         <v>2</v>
       </c>
-      <c r="E118" t="s">
-        <v>612</v>
-      </c>
-      <c r="F118" t="s">
-        <v>792</v>
+      <c r="E118">
+        <v>5783.33</v>
+      </c>
+      <c r="F118">
+        <v>11566.66</v>
       </c>
       <c r="G118" t="s">
-        <v>864</v>
+        <v>505</v>
       </c>
       <c r="H118" t="s">
-        <v>866</v>
+        <v>507</v>
       </c>
       <c r="I118" t="s">
-        <v>867</v>
+        <v>508</v>
       </c>
     </row>
     <row r="119" spans="1:9">
@@ -6215,20 +5138,20 @@
       <c r="D119">
         <v>8</v>
       </c>
-      <c r="E119" t="s">
-        <v>613</v>
-      </c>
-      <c r="F119" t="s">
-        <v>793</v>
+      <c r="E119">
+        <v>13.12</v>
+      </c>
+      <c r="F119">
+        <v>104.96</v>
       </c>
       <c r="G119" t="s">
-        <v>864</v>
+        <v>505</v>
       </c>
       <c r="H119" t="s">
-        <v>866</v>
+        <v>507</v>
       </c>
       <c r="I119" t="s">
-        <v>867</v>
+        <v>508</v>
       </c>
     </row>
     <row r="120" spans="1:9">
@@ -6244,20 +5167,20 @@
       <c r="D120">
         <v>36</v>
       </c>
-      <c r="E120" t="s">
-        <v>614</v>
-      </c>
-      <c r="F120" t="s">
-        <v>794</v>
+      <c r="E120">
+        <v>17.13</v>
+      </c>
+      <c r="F120">
+        <v>616.6799999999999</v>
       </c>
       <c r="G120" t="s">
-        <v>864</v>
+        <v>505</v>
       </c>
       <c r="H120" t="s">
-        <v>866</v>
+        <v>507</v>
       </c>
       <c r="I120" t="s">
-        <v>867</v>
+        <v>508</v>
       </c>
     </row>
     <row r="121" spans="1:9">
@@ -6273,20 +5196,20 @@
       <c r="D121">
         <v>36</v>
       </c>
-      <c r="E121" t="s">
-        <v>615</v>
-      </c>
-      <c r="F121" t="s">
-        <v>795</v>
+      <c r="E121">
+        <v>1.84</v>
+      </c>
+      <c r="F121">
+        <v>66.24000000000001</v>
       </c>
       <c r="G121" t="s">
-        <v>864</v>
+        <v>505</v>
       </c>
       <c r="H121" t="s">
-        <v>866</v>
+        <v>507</v>
       </c>
       <c r="I121" t="s">
-        <v>867</v>
+        <v>508</v>
       </c>
     </row>
     <row r="122" spans="1:9">
@@ -6302,20 +5225,20 @@
       <c r="D122">
         <v>260</v>
       </c>
-      <c r="E122" t="s">
-        <v>616</v>
-      </c>
-      <c r="F122" t="s">
-        <v>796</v>
+      <c r="E122">
+        <v>0.87</v>
+      </c>
+      <c r="F122">
+        <v>226.2</v>
       </c>
       <c r="G122" t="s">
-        <v>864</v>
+        <v>505</v>
       </c>
       <c r="H122" t="s">
-        <v>866</v>
+        <v>507</v>
       </c>
       <c r="I122" t="s">
-        <v>867</v>
+        <v>508</v>
       </c>
     </row>
     <row r="123" spans="1:9">
@@ -6331,20 +5254,20 @@
       <c r="D123">
         <v>120</v>
       </c>
-      <c r="E123" t="s">
-        <v>617</v>
-      </c>
-      <c r="F123" t="s">
-        <v>797</v>
+      <c r="E123">
+        <v>28.87</v>
+      </c>
+      <c r="F123">
+        <v>3464.4</v>
       </c>
       <c r="G123" t="s">
-        <v>864</v>
+        <v>505</v>
       </c>
       <c r="H123" t="s">
-        <v>866</v>
+        <v>507</v>
       </c>
       <c r="I123" t="s">
-        <v>867</v>
+        <v>508</v>
       </c>
     </row>
     <row r="124" spans="1:9">
@@ -6360,20 +5283,20 @@
       <c r="D124">
         <v>80</v>
       </c>
-      <c r="E124" t="s">
-        <v>618</v>
-      </c>
-      <c r="F124" t="s">
-        <v>798</v>
+      <c r="E124">
+        <v>19.73</v>
+      </c>
+      <c r="F124">
+        <v>1578.4</v>
       </c>
       <c r="G124" t="s">
-        <v>864</v>
+        <v>505</v>
       </c>
       <c r="H124" t="s">
-        <v>866</v>
+        <v>507</v>
       </c>
       <c r="I124" t="s">
-        <v>867</v>
+        <v>508</v>
       </c>
     </row>
     <row r="125" spans="1:9">
@@ -6389,20 +5312,20 @@
       <c r="D125">
         <v>80</v>
       </c>
-      <c r="E125" t="s">
-        <v>619</v>
-      </c>
-      <c r="F125" t="s">
-        <v>799</v>
+      <c r="E125">
+        <v>12.76</v>
+      </c>
+      <c r="F125">
+        <v>1020.8</v>
       </c>
       <c r="G125" t="s">
-        <v>864</v>
+        <v>505</v>
       </c>
       <c r="H125" t="s">
-        <v>866</v>
+        <v>507</v>
       </c>
       <c r="I125" t="s">
-        <v>867</v>
+        <v>508</v>
       </c>
     </row>
     <row r="126" spans="1:9">
@@ -6418,20 +5341,20 @@
       <c r="D126">
         <v>25</v>
       </c>
-      <c r="E126" t="s">
-        <v>620</v>
-      </c>
-      <c r="F126" t="s">
-        <v>800</v>
+      <c r="E126">
+        <v>48.47</v>
+      </c>
+      <c r="F126">
+        <v>1211.75</v>
       </c>
       <c r="G126" t="s">
-        <v>864</v>
+        <v>505</v>
       </c>
       <c r="H126" t="s">
-        <v>866</v>
+        <v>507</v>
       </c>
       <c r="I126" t="s">
-        <v>867</v>
+        <v>508</v>
       </c>
     </row>
     <row r="127" spans="1:9">
@@ -6447,20 +5370,20 @@
       <c r="D127">
         <v>10</v>
       </c>
-      <c r="E127" t="s">
-        <v>621</v>
-      </c>
-      <c r="F127" t="s">
-        <v>801</v>
+      <c r="E127">
+        <v>69.56</v>
+      </c>
+      <c r="F127">
+        <v>695.6</v>
       </c>
       <c r="G127" t="s">
-        <v>864</v>
+        <v>505</v>
       </c>
       <c r="H127" t="s">
-        <v>866</v>
+        <v>507</v>
       </c>
       <c r="I127" t="s">
-        <v>867</v>
+        <v>508</v>
       </c>
     </row>
     <row r="128" spans="1:9">
@@ -6476,20 +5399,20 @@
       <c r="D128">
         <v>6</v>
       </c>
-      <c r="E128" t="s">
-        <v>622</v>
-      </c>
-      <c r="F128" t="s">
-        <v>802</v>
+      <c r="E128">
+        <v>178.22</v>
+      </c>
+      <c r="F128">
+        <v>1069.32</v>
       </c>
       <c r="G128" t="s">
-        <v>864</v>
+        <v>505</v>
       </c>
       <c r="H128" t="s">
-        <v>866</v>
+        <v>507</v>
       </c>
       <c r="I128" t="s">
-        <v>867</v>
+        <v>508</v>
       </c>
     </row>
     <row r="129" spans="1:9">
@@ -6505,20 +5428,20 @@
       <c r="D129">
         <v>6</v>
       </c>
-      <c r="E129" t="s">
-        <v>623</v>
-      </c>
-      <c r="F129" t="s">
-        <v>803</v>
+      <c r="E129">
+        <v>206.72</v>
+      </c>
+      <c r="F129">
+        <v>1240.32</v>
       </c>
       <c r="G129" t="s">
-        <v>864</v>
+        <v>505</v>
       </c>
       <c r="H129" t="s">
-        <v>866</v>
+        <v>507</v>
       </c>
       <c r="I129" t="s">
-        <v>867</v>
+        <v>508</v>
       </c>
     </row>
     <row r="130" spans="1:9">
@@ -6534,20 +5457,20 @@
       <c r="D130">
         <v>26</v>
       </c>
-      <c r="E130" t="s">
-        <v>624</v>
-      </c>
-      <c r="F130" t="s">
-        <v>804</v>
+      <c r="E130">
+        <v>12.5</v>
+      </c>
+      <c r="F130">
+        <v>325</v>
       </c>
       <c r="G130" t="s">
-        <v>864</v>
+        <v>505</v>
       </c>
       <c r="H130" t="s">
-        <v>866</v>
+        <v>507</v>
       </c>
       <c r="I130" t="s">
-        <v>867</v>
+        <v>508</v>
       </c>
     </row>
     <row r="131" spans="1:9">
@@ -6563,20 +5486,20 @@
       <c r="D131">
         <v>110</v>
       </c>
-      <c r="E131" t="s">
-        <v>625</v>
-      </c>
-      <c r="F131" t="s">
-        <v>728</v>
+      <c r="E131">
+        <v>12</v>
+      </c>
+      <c r="F131">
+        <v>1320</v>
       </c>
       <c r="G131" t="s">
-        <v>864</v>
+        <v>505</v>
       </c>
       <c r="H131" t="s">
-        <v>866</v>
+        <v>507</v>
       </c>
       <c r="I131" t="s">
-        <v>867</v>
+        <v>508</v>
       </c>
     </row>
     <row r="132" spans="1:9">
@@ -6592,20 +5515,20 @@
       <c r="D132">
         <v>15</v>
       </c>
-      <c r="E132" t="s">
-        <v>626</v>
-      </c>
-      <c r="F132" t="s">
-        <v>805</v>
+      <c r="E132">
+        <v>91.37</v>
+      </c>
+      <c r="F132">
+        <v>1370.55</v>
       </c>
       <c r="G132" t="s">
-        <v>864</v>
+        <v>505</v>
       </c>
       <c r="H132" t="s">
-        <v>866</v>
+        <v>507</v>
       </c>
       <c r="I132" t="s">
-        <v>867</v>
+        <v>508</v>
       </c>
     </row>
     <row r="133" spans="1:9">
@@ -6621,20 +5544,20 @@
       <c r="D133">
         <v>6</v>
       </c>
-      <c r="E133" t="s">
-        <v>626</v>
-      </c>
-      <c r="F133" t="s">
-        <v>806</v>
+      <c r="E133">
+        <v>91.37</v>
+      </c>
+      <c r="F133">
+        <v>548.22</v>
       </c>
       <c r="G133" t="s">
-        <v>864</v>
+        <v>505</v>
       </c>
       <c r="H133" t="s">
-        <v>866</v>
+        <v>507</v>
       </c>
       <c r="I133" t="s">
-        <v>867</v>
+        <v>508</v>
       </c>
     </row>
     <row r="134" spans="1:9">
@@ -6650,20 +5573,20 @@
       <c r="D134">
         <v>14</v>
       </c>
-      <c r="E134" t="s">
-        <v>627</v>
-      </c>
-      <c r="F134" t="s">
-        <v>807</v>
+      <c r="E134">
+        <v>21.68</v>
+      </c>
+      <c r="F134">
+        <v>303.52</v>
       </c>
       <c r="G134" t="s">
-        <v>864</v>
+        <v>505</v>
       </c>
       <c r="H134" t="s">
-        <v>866</v>
+        <v>507</v>
       </c>
       <c r="I134" t="s">
-        <v>867</v>
+        <v>508</v>
       </c>
     </row>
     <row r="135" spans="1:9">
@@ -6679,20 +5602,20 @@
       <c r="D135">
         <v>110</v>
       </c>
-      <c r="E135" t="s">
-        <v>628</v>
-      </c>
-      <c r="F135" t="s">
-        <v>808</v>
+      <c r="E135">
+        <v>6.91</v>
+      </c>
+      <c r="F135">
+        <v>760.1</v>
       </c>
       <c r="G135" t="s">
-        <v>864</v>
+        <v>505</v>
       </c>
       <c r="H135" t="s">
-        <v>866</v>
+        <v>507</v>
       </c>
       <c r="I135" t="s">
-        <v>867</v>
+        <v>508</v>
       </c>
     </row>
     <row r="136" spans="1:9">
@@ -6708,20 +5631,20 @@
       <c r="D136">
         <v>40</v>
       </c>
-      <c r="E136" t="s">
-        <v>629</v>
-      </c>
-      <c r="F136" t="s">
-        <v>809</v>
+      <c r="E136">
+        <v>17.66</v>
+      </c>
+      <c r="F136">
+        <v>706.4</v>
       </c>
       <c r="G136" t="s">
-        <v>864</v>
+        <v>505</v>
       </c>
       <c r="H136" t="s">
-        <v>866</v>
+        <v>507</v>
       </c>
       <c r="I136" t="s">
-        <v>867</v>
+        <v>508</v>
       </c>
     </row>
     <row r="137" spans="1:9">
@@ -6737,20 +5660,20 @@
       <c r="D137">
         <v>8</v>
       </c>
-      <c r="E137" t="s">
-        <v>630</v>
-      </c>
-      <c r="F137" t="s">
-        <v>810</v>
+      <c r="E137">
+        <v>201.33</v>
+      </c>
+      <c r="F137">
+        <v>1610.64</v>
       </c>
       <c r="G137" t="s">
-        <v>864</v>
+        <v>505</v>
       </c>
       <c r="H137" t="s">
-        <v>866</v>
+        <v>507</v>
       </c>
       <c r="I137" t="s">
-        <v>867</v>
+        <v>508</v>
       </c>
     </row>
     <row r="138" spans="1:9">
@@ -6766,20 +5689,20 @@
       <c r="D138">
         <v>16</v>
       </c>
-      <c r="E138" t="s">
-        <v>631</v>
-      </c>
-      <c r="F138" t="s">
-        <v>811</v>
+      <c r="E138">
+        <v>19.14</v>
+      </c>
+      <c r="F138">
+        <v>306.24</v>
       </c>
       <c r="G138" t="s">
-        <v>864</v>
+        <v>505</v>
       </c>
       <c r="H138" t="s">
-        <v>866</v>
+        <v>507</v>
       </c>
       <c r="I138" t="s">
-        <v>867</v>
+        <v>508</v>
       </c>
     </row>
     <row r="139" spans="1:9">
@@ -6795,20 +5718,20 @@
       <c r="D139">
         <v>56</v>
       </c>
-      <c r="E139" t="s">
-        <v>632</v>
-      </c>
-      <c r="F139" t="s">
-        <v>812</v>
+      <c r="E139">
+        <v>44.97</v>
+      </c>
+      <c r="F139">
+        <v>2518.32</v>
       </c>
       <c r="G139" t="s">
-        <v>864</v>
+        <v>505</v>
       </c>
       <c r="H139" t="s">
-        <v>866</v>
+        <v>507</v>
       </c>
       <c r="I139" t="s">
-        <v>867</v>
+        <v>508</v>
       </c>
     </row>
     <row r="140" spans="1:9">
@@ -6824,20 +5747,20 @@
       <c r="D140">
         <v>10</v>
       </c>
-      <c r="E140" t="s">
-        <v>633</v>
-      </c>
-      <c r="F140" t="s">
-        <v>813</v>
+      <c r="E140">
+        <v>13.87</v>
+      </c>
+      <c r="F140">
+        <v>138.7</v>
       </c>
       <c r="G140" t="s">
-        <v>864</v>
+        <v>505</v>
       </c>
       <c r="H140" t="s">
-        <v>866</v>
+        <v>507</v>
       </c>
       <c r="I140" t="s">
-        <v>867</v>
+        <v>508</v>
       </c>
     </row>
     <row r="141" spans="1:9">
@@ -6853,20 +5776,20 @@
       <c r="D141">
         <v>10</v>
       </c>
-      <c r="E141" t="s">
-        <v>634</v>
-      </c>
-      <c r="F141" t="s">
-        <v>814</v>
+      <c r="E141">
+        <v>42.47</v>
+      </c>
+      <c r="F141">
+        <v>424.7</v>
       </c>
       <c r="G141" t="s">
-        <v>864</v>
+        <v>505</v>
       </c>
       <c r="H141" t="s">
-        <v>866</v>
+        <v>507</v>
       </c>
       <c r="I141" t="s">
-        <v>867</v>
+        <v>508</v>
       </c>
     </row>
     <row r="142" spans="1:9">
@@ -6882,20 +5805,20 @@
       <c r="D142">
         <v>25</v>
       </c>
-      <c r="E142" t="s">
-        <v>635</v>
-      </c>
-      <c r="F142" t="s">
-        <v>815</v>
+      <c r="E142">
+        <v>13.06</v>
+      </c>
+      <c r="F142">
+        <v>326.5</v>
       </c>
       <c r="G142" t="s">
-        <v>864</v>
+        <v>505</v>
       </c>
       <c r="H142" t="s">
-        <v>866</v>
+        <v>507</v>
       </c>
       <c r="I142" t="s">
-        <v>867</v>
+        <v>508</v>
       </c>
     </row>
     <row r="143" spans="1:9">
@@ -6911,20 +5834,20 @@
       <c r="D143">
         <v>25</v>
       </c>
-      <c r="E143" t="s">
-        <v>636</v>
-      </c>
-      <c r="F143" t="s">
-        <v>816</v>
+      <c r="E143">
+        <v>17.47</v>
+      </c>
+      <c r="F143">
+        <v>436.75</v>
       </c>
       <c r="G143" t="s">
-        <v>864</v>
+        <v>505</v>
       </c>
       <c r="H143" t="s">
-        <v>866</v>
+        <v>507</v>
       </c>
       <c r="I143" t="s">
-        <v>867</v>
+        <v>508</v>
       </c>
     </row>
     <row r="144" spans="1:9">
@@ -6940,20 +5863,20 @@
       <c r="D144">
         <v>25</v>
       </c>
-      <c r="E144" t="s">
-        <v>637</v>
-      </c>
-      <c r="F144" t="s">
-        <v>817</v>
+      <c r="E144">
+        <v>23.07</v>
+      </c>
+      <c r="F144">
+        <v>576.75</v>
       </c>
       <c r="G144" t="s">
-        <v>864</v>
+        <v>505</v>
       </c>
       <c r="H144" t="s">
-        <v>866</v>
+        <v>507</v>
       </c>
       <c r="I144" t="s">
-        <v>867</v>
+        <v>508</v>
       </c>
     </row>
     <row r="145" spans="1:9">
@@ -6969,20 +5892,20 @@
       <c r="D145">
         <v>6</v>
       </c>
-      <c r="E145" t="s">
-        <v>638</v>
-      </c>
-      <c r="F145" t="s">
-        <v>818</v>
+      <c r="E145">
+        <v>126.33</v>
+      </c>
+      <c r="F145">
+        <v>757.98</v>
       </c>
       <c r="G145" t="s">
-        <v>864</v>
+        <v>505</v>
       </c>
       <c r="H145" t="s">
-        <v>866</v>
+        <v>507</v>
       </c>
       <c r="I145" t="s">
-        <v>867</v>
+        <v>508</v>
       </c>
     </row>
     <row r="146" spans="1:9">
@@ -6998,20 +5921,20 @@
       <c r="D146">
         <v>15</v>
       </c>
-      <c r="E146" t="s">
-        <v>639</v>
-      </c>
-      <c r="F146" t="s">
-        <v>819</v>
+      <c r="E146">
+        <v>11.67</v>
+      </c>
+      <c r="F146">
+        <v>175.05</v>
       </c>
       <c r="G146" t="s">
-        <v>864</v>
+        <v>505</v>
       </c>
       <c r="H146" t="s">
-        <v>866</v>
+        <v>507</v>
       </c>
       <c r="I146" t="s">
-        <v>867</v>
+        <v>508</v>
       </c>
     </row>
     <row r="147" spans="1:9">
@@ -7027,20 +5950,20 @@
       <c r="D147">
         <v>55</v>
       </c>
-      <c r="E147" t="s">
-        <v>640</v>
-      </c>
-      <c r="F147" t="s">
-        <v>820</v>
+      <c r="E147">
+        <v>9.85</v>
+      </c>
+      <c r="F147">
+        <v>541.75</v>
       </c>
       <c r="G147" t="s">
-        <v>864</v>
+        <v>505</v>
       </c>
       <c r="H147" t="s">
-        <v>866</v>
+        <v>507</v>
       </c>
       <c r="I147" t="s">
-        <v>867</v>
+        <v>508</v>
       </c>
     </row>
     <row r="148" spans="1:9">
@@ -7056,20 +5979,20 @@
       <c r="D148">
         <v>8</v>
       </c>
-      <c r="E148" t="s">
-        <v>641</v>
-      </c>
-      <c r="F148" t="s">
-        <v>821</v>
+      <c r="E148">
+        <v>74.06</v>
+      </c>
+      <c r="F148">
+        <v>592.48</v>
       </c>
       <c r="G148" t="s">
-        <v>864</v>
+        <v>505</v>
       </c>
       <c r="H148" t="s">
-        <v>866</v>
+        <v>507</v>
       </c>
       <c r="I148" t="s">
-        <v>867</v>
+        <v>508</v>
       </c>
     </row>
     <row r="149" spans="1:9">
@@ -7085,20 +6008,20 @@
       <c r="D149">
         <v>6</v>
       </c>
-      <c r="E149" t="s">
-        <v>642</v>
-      </c>
-      <c r="F149" t="s">
-        <v>822</v>
+      <c r="E149">
+        <v>89.66</v>
+      </c>
+      <c r="F149">
+        <v>537.96</v>
       </c>
       <c r="G149" t="s">
-        <v>864</v>
+        <v>505</v>
       </c>
       <c r="H149" t="s">
-        <v>866</v>
+        <v>507</v>
       </c>
       <c r="I149" t="s">
-        <v>867</v>
+        <v>508</v>
       </c>
     </row>
     <row r="150" spans="1:9">
@@ -7114,20 +6037,20 @@
       <c r="D150">
         <v>6</v>
       </c>
-      <c r="E150" t="s">
-        <v>643</v>
-      </c>
-      <c r="F150" t="s">
-        <v>823</v>
+      <c r="E150">
+        <v>51.53</v>
+      </c>
+      <c r="F150">
+        <v>309.18</v>
       </c>
       <c r="G150" t="s">
-        <v>864</v>
+        <v>505</v>
       </c>
       <c r="H150" t="s">
-        <v>866</v>
+        <v>507</v>
       </c>
       <c r="I150" t="s">
-        <v>867</v>
+        <v>508</v>
       </c>
     </row>
     <row r="151" spans="1:9">
@@ -7143,20 +6066,20 @@
       <c r="D151">
         <v>6</v>
       </c>
-      <c r="E151" t="s">
-        <v>643</v>
-      </c>
-      <c r="F151" t="s">
-        <v>823</v>
+      <c r="E151">
+        <v>51.53</v>
+      </c>
+      <c r="F151">
+        <v>309.18</v>
       </c>
       <c r="G151" t="s">
-        <v>864</v>
+        <v>505</v>
       </c>
       <c r="H151" t="s">
-        <v>866</v>
+        <v>507</v>
       </c>
       <c r="I151" t="s">
-        <v>867</v>
+        <v>508</v>
       </c>
     </row>
     <row r="152" spans="1:9">
@@ -7172,20 +6095,20 @@
       <c r="D152">
         <v>6</v>
       </c>
-      <c r="E152" t="s">
-        <v>643</v>
-      </c>
-      <c r="F152" t="s">
-        <v>823</v>
+      <c r="E152">
+        <v>51.53</v>
+      </c>
+      <c r="F152">
+        <v>309.18</v>
       </c>
       <c r="G152" t="s">
-        <v>864</v>
+        <v>505</v>
       </c>
       <c r="H152" t="s">
-        <v>866</v>
+        <v>507</v>
       </c>
       <c r="I152" t="s">
-        <v>867</v>
+        <v>508</v>
       </c>
     </row>
     <row r="153" spans="1:9">
@@ -7201,20 +6124,20 @@
       <c r="D153">
         <v>6</v>
       </c>
-      <c r="E153" t="s">
-        <v>643</v>
-      </c>
-      <c r="F153" t="s">
-        <v>823</v>
+      <c r="E153">
+        <v>51.53</v>
+      </c>
+      <c r="F153">
+        <v>309.18</v>
       </c>
       <c r="G153" t="s">
-        <v>864</v>
+        <v>505</v>
       </c>
       <c r="H153" t="s">
-        <v>866</v>
+        <v>507</v>
       </c>
       <c r="I153" t="s">
-        <v>867</v>
+        <v>508</v>
       </c>
     </row>
     <row r="154" spans="1:9">
@@ -7230,20 +6153,20 @@
       <c r="D154">
         <v>6</v>
       </c>
-      <c r="E154" t="s">
-        <v>643</v>
-      </c>
-      <c r="F154" t="s">
-        <v>823</v>
+      <c r="E154">
+        <v>51.53</v>
+      </c>
+      <c r="F154">
+        <v>309.18</v>
       </c>
       <c r="G154" t="s">
-        <v>864</v>
+        <v>505</v>
       </c>
       <c r="H154" t="s">
-        <v>866</v>
+        <v>507</v>
       </c>
       <c r="I154" t="s">
-        <v>867</v>
+        <v>508</v>
       </c>
     </row>
     <row r="155" spans="1:9">
@@ -7259,20 +6182,20 @@
       <c r="D155">
         <v>6</v>
       </c>
-      <c r="E155" t="s">
-        <v>643</v>
-      </c>
-      <c r="F155" t="s">
-        <v>823</v>
+      <c r="E155">
+        <v>51.53</v>
+      </c>
+      <c r="F155">
+        <v>309.18</v>
       </c>
       <c r="G155" t="s">
-        <v>864</v>
+        <v>505</v>
       </c>
       <c r="H155" t="s">
-        <v>866</v>
+        <v>507</v>
       </c>
       <c r="I155" t="s">
-        <v>867</v>
+        <v>508</v>
       </c>
     </row>
     <row r="156" spans="1:9">
@@ -7288,20 +6211,20 @@
       <c r="D156">
         <v>6</v>
       </c>
-      <c r="E156" t="s">
-        <v>643</v>
-      </c>
-      <c r="F156" t="s">
-        <v>823</v>
+      <c r="E156">
+        <v>51.53</v>
+      </c>
+      <c r="F156">
+        <v>309.18</v>
       </c>
       <c r="G156" t="s">
-        <v>864</v>
+        <v>505</v>
       </c>
       <c r="H156" t="s">
-        <v>866</v>
+        <v>507</v>
       </c>
       <c r="I156" t="s">
-        <v>867</v>
+        <v>508</v>
       </c>
     </row>
     <row r="157" spans="1:9">
@@ -7317,20 +6240,20 @@
       <c r="D157">
         <v>15</v>
       </c>
-      <c r="E157" t="s">
-        <v>644</v>
-      </c>
-      <c r="F157" t="s">
-        <v>824</v>
+      <c r="E157">
+        <v>14.48</v>
+      </c>
+      <c r="F157">
+        <v>217.2</v>
       </c>
       <c r="G157" t="s">
-        <v>864</v>
+        <v>505</v>
       </c>
       <c r="H157" t="s">
-        <v>866</v>
+        <v>507</v>
       </c>
       <c r="I157" t="s">
-        <v>867</v>
+        <v>508</v>
       </c>
     </row>
     <row r="158" spans="1:9">
@@ -7346,20 +6269,20 @@
       <c r="D158">
         <v>8</v>
       </c>
-      <c r="E158" t="s">
-        <v>645</v>
-      </c>
-      <c r="F158" t="s">
-        <v>825</v>
+      <c r="E158">
+        <v>46.73</v>
+      </c>
+      <c r="F158">
+        <v>373.84</v>
       </c>
       <c r="G158" t="s">
-        <v>864</v>
+        <v>505</v>
       </c>
       <c r="H158" t="s">
-        <v>866</v>
+        <v>507</v>
       </c>
       <c r="I158" t="s">
-        <v>867</v>
+        <v>508</v>
       </c>
     </row>
     <row r="159" spans="1:9">
@@ -7375,20 +6298,20 @@
       <c r="D159">
         <v>15</v>
       </c>
-      <c r="E159" t="s">
-        <v>646</v>
-      </c>
-      <c r="F159" t="s">
-        <v>826</v>
+      <c r="E159">
+        <v>396.63</v>
+      </c>
+      <c r="F159">
+        <v>5949.45</v>
       </c>
       <c r="G159" t="s">
-        <v>864</v>
+        <v>505</v>
       </c>
       <c r="H159" t="s">
-        <v>866</v>
+        <v>507</v>
       </c>
       <c r="I159" t="s">
-        <v>867</v>
+        <v>508</v>
       </c>
     </row>
     <row r="160" spans="1:9">
@@ -7404,20 +6327,20 @@
       <c r="D160">
         <v>110</v>
       </c>
-      <c r="E160" t="s">
-        <v>647</v>
-      </c>
-      <c r="F160" t="s">
-        <v>827</v>
+      <c r="E160">
+        <v>53.67</v>
+      </c>
+      <c r="F160">
+        <v>5903.7</v>
       </c>
       <c r="G160" t="s">
-        <v>864</v>
+        <v>505</v>
       </c>
       <c r="H160" t="s">
-        <v>866</v>
+        <v>507</v>
       </c>
       <c r="I160" t="s">
-        <v>867</v>
+        <v>508</v>
       </c>
     </row>
     <row r="161" spans="1:9">
@@ -7433,20 +6356,20 @@
       <c r="D161">
         <v>4</v>
       </c>
-      <c r="E161" t="s">
-        <v>648</v>
-      </c>
-      <c r="F161" t="s">
-        <v>828</v>
+      <c r="E161">
+        <v>119.5</v>
+      </c>
+      <c r="F161">
+        <v>478</v>
       </c>
       <c r="G161" t="s">
-        <v>864</v>
+        <v>505</v>
       </c>
       <c r="H161" t="s">
-        <v>866</v>
+        <v>507</v>
       </c>
       <c r="I161" t="s">
-        <v>867</v>
+        <v>508</v>
       </c>
     </row>
     <row r="162" spans="1:9">
@@ -7462,20 +6385,20 @@
       <c r="D162">
         <v>10</v>
       </c>
-      <c r="E162" t="s">
-        <v>649</v>
-      </c>
-      <c r="F162" t="s">
-        <v>829</v>
+      <c r="E162">
+        <v>95.25</v>
+      </c>
+      <c r="F162">
+        <v>952.5</v>
       </c>
       <c r="G162" t="s">
-        <v>864</v>
+        <v>505</v>
       </c>
       <c r="H162" t="s">
-        <v>866</v>
+        <v>507</v>
       </c>
       <c r="I162" t="s">
-        <v>867</v>
+        <v>508</v>
       </c>
     </row>
     <row r="163" spans="1:9">
@@ -7491,20 +6414,20 @@
       <c r="D163">
         <v>14</v>
       </c>
-      <c r="E163" t="s">
-        <v>650</v>
-      </c>
-      <c r="F163" t="s">
-        <v>830</v>
+      <c r="E163">
+        <v>4.87</v>
+      </c>
+      <c r="F163">
+        <v>68.18000000000001</v>
       </c>
       <c r="G163" t="s">
-        <v>864</v>
+        <v>505</v>
       </c>
       <c r="H163" t="s">
-        <v>866</v>
+        <v>507</v>
       </c>
       <c r="I163" t="s">
-        <v>867</v>
+        <v>508</v>
       </c>
     </row>
     <row r="164" spans="1:9">
@@ -7520,20 +6443,20 @@
       <c r="D164">
         <v>14</v>
       </c>
-      <c r="E164" t="s">
-        <v>651</v>
-      </c>
-      <c r="F164" t="s">
-        <v>831</v>
+      <c r="E164">
+        <v>5.22</v>
+      </c>
+      <c r="F164">
+        <v>73.08</v>
       </c>
       <c r="G164" t="s">
-        <v>864</v>
+        <v>505</v>
       </c>
       <c r="H164" t="s">
-        <v>866</v>
+        <v>507</v>
       </c>
       <c r="I164" t="s">
-        <v>867</v>
+        <v>508</v>
       </c>
     </row>
     <row r="165" spans="1:9">
@@ -7549,20 +6472,20 @@
       <c r="D165">
         <v>14</v>
       </c>
-      <c r="E165" t="s">
-        <v>652</v>
-      </c>
-      <c r="F165" t="s">
-        <v>832</v>
+      <c r="E165">
+        <v>6.52</v>
+      </c>
+      <c r="F165">
+        <v>91.28</v>
       </c>
       <c r="G165" t="s">
-        <v>864</v>
+        <v>505</v>
       </c>
       <c r="H165" t="s">
-        <v>866</v>
+        <v>507</v>
       </c>
       <c r="I165" t="s">
-        <v>867</v>
+        <v>508</v>
       </c>
     </row>
     <row r="166" spans="1:9">
@@ -7578,20 +6501,20 @@
       <c r="D166">
         <v>14</v>
       </c>
-      <c r="E166" t="s">
-        <v>653</v>
-      </c>
-      <c r="F166" t="s">
-        <v>833</v>
+      <c r="E166">
+        <v>7.77</v>
+      </c>
+      <c r="F166">
+        <v>108.78</v>
       </c>
       <c r="G166" t="s">
-        <v>864</v>
+        <v>505</v>
       </c>
       <c r="H166" t="s">
-        <v>866</v>
+        <v>507</v>
       </c>
       <c r="I166" t="s">
-        <v>867</v>
+        <v>508</v>
       </c>
     </row>
     <row r="167" spans="1:9">
@@ -7607,20 +6530,20 @@
       <c r="D167">
         <v>14</v>
       </c>
-      <c r="E167" t="s">
-        <v>654</v>
-      </c>
-      <c r="F167" t="s">
-        <v>834</v>
+      <c r="E167">
+        <v>3.71</v>
+      </c>
+      <c r="F167">
+        <v>51.94</v>
       </c>
       <c r="G167" t="s">
-        <v>864</v>
+        <v>505</v>
       </c>
       <c r="H167" t="s">
-        <v>866</v>
+        <v>507</v>
       </c>
       <c r="I167" t="s">
-        <v>867</v>
+        <v>508</v>
       </c>
     </row>
     <row r="168" spans="1:9">
@@ -7636,20 +6559,20 @@
       <c r="D168">
         <v>14</v>
       </c>
-      <c r="E168" t="s">
-        <v>655</v>
-      </c>
-      <c r="F168" t="s">
-        <v>835</v>
+      <c r="E168">
+        <v>7.95</v>
+      </c>
+      <c r="F168">
+        <v>111.3</v>
       </c>
       <c r="G168" t="s">
-        <v>864</v>
+        <v>505</v>
       </c>
       <c r="H168" t="s">
-        <v>866</v>
+        <v>507</v>
       </c>
       <c r="I168" t="s">
-        <v>867</v>
+        <v>508</v>
       </c>
     </row>
     <row r="169" spans="1:9">
@@ -7665,20 +6588,20 @@
       <c r="D169">
         <v>14</v>
       </c>
-      <c r="E169" t="s">
-        <v>656</v>
-      </c>
-      <c r="F169" t="s">
-        <v>836</v>
+      <c r="E169">
+        <v>9.16</v>
+      </c>
+      <c r="F169">
+        <v>128.24</v>
       </c>
       <c r="G169" t="s">
-        <v>864</v>
+        <v>505</v>
       </c>
       <c r="H169" t="s">
-        <v>866</v>
+        <v>507</v>
       </c>
       <c r="I169" t="s">
-        <v>867</v>
+        <v>508</v>
       </c>
     </row>
     <row r="170" spans="1:9">
@@ -7694,20 +6617,20 @@
       <c r="D170">
         <v>14</v>
       </c>
-      <c r="E170" t="s">
-        <v>657</v>
-      </c>
-      <c r="F170" t="s">
-        <v>837</v>
+      <c r="E170">
+        <v>11.77</v>
+      </c>
+      <c r="F170">
+        <v>164.78</v>
       </c>
       <c r="G170" t="s">
-        <v>864</v>
+        <v>505</v>
       </c>
       <c r="H170" t="s">
-        <v>866</v>
+        <v>507</v>
       </c>
       <c r="I170" t="s">
-        <v>867</v>
+        <v>508</v>
       </c>
     </row>
     <row r="171" spans="1:9">
@@ -7723,20 +6646,20 @@
       <c r="D171">
         <v>14</v>
       </c>
-      <c r="E171" t="s">
-        <v>658</v>
-      </c>
-      <c r="F171" t="s">
-        <v>838</v>
+      <c r="E171">
+        <v>3.81</v>
+      </c>
+      <c r="F171">
+        <v>53.34</v>
       </c>
       <c r="G171" t="s">
-        <v>864</v>
+        <v>505</v>
       </c>
       <c r="H171" t="s">
-        <v>866</v>
+        <v>507</v>
       </c>
       <c r="I171" t="s">
-        <v>867</v>
+        <v>508</v>
       </c>
     </row>
     <row r="172" spans="1:9">
@@ -7752,20 +6675,20 @@
       <c r="D172">
         <v>14</v>
       </c>
-      <c r="E172" t="s">
-        <v>659</v>
-      </c>
-      <c r="F172" t="s">
-        <v>839</v>
+      <c r="E172">
+        <v>3.86</v>
+      </c>
+      <c r="F172">
+        <v>54.04</v>
       </c>
       <c r="G172" t="s">
-        <v>864</v>
+        <v>505</v>
       </c>
       <c r="H172" t="s">
-        <v>866</v>
+        <v>507</v>
       </c>
       <c r="I172" t="s">
-        <v>867</v>
+        <v>508</v>
       </c>
     </row>
     <row r="173" spans="1:9">
@@ -7781,20 +6704,20 @@
       <c r="D173">
         <v>14</v>
       </c>
-      <c r="E173" t="s">
-        <v>660</v>
-      </c>
-      <c r="F173" t="s">
-        <v>840</v>
+      <c r="E173">
+        <v>4.76</v>
+      </c>
+      <c r="F173">
+        <v>66.64</v>
       </c>
       <c r="G173" t="s">
-        <v>864</v>
+        <v>505</v>
       </c>
       <c r="H173" t="s">
-        <v>866</v>
+        <v>507</v>
       </c>
       <c r="I173" t="s">
-        <v>867</v>
+        <v>508</v>
       </c>
     </row>
     <row r="174" spans="1:9">
@@ -7810,20 +6733,20 @@
       <c r="D174">
         <v>14</v>
       </c>
-      <c r="E174" t="s">
-        <v>661</v>
-      </c>
-      <c r="F174" t="s">
-        <v>841</v>
+      <c r="E174">
+        <v>4.95</v>
+      </c>
+      <c r="F174">
+        <v>69.3</v>
       </c>
       <c r="G174" t="s">
-        <v>864</v>
+        <v>505</v>
       </c>
       <c r="H174" t="s">
-        <v>866</v>
+        <v>507</v>
       </c>
       <c r="I174" t="s">
-        <v>867</v>
+        <v>508</v>
       </c>
     </row>
     <row r="175" spans="1:9">
@@ -7839,20 +6762,20 @@
       <c r="D175">
         <v>8</v>
       </c>
-      <c r="E175" t="s">
-        <v>662</v>
-      </c>
-      <c r="F175" t="s">
-        <v>842</v>
+      <c r="E175">
+        <v>56.28</v>
+      </c>
+      <c r="F175">
+        <v>450.24</v>
       </c>
       <c r="G175" t="s">
-        <v>864</v>
+        <v>505</v>
       </c>
       <c r="H175" t="s">
-        <v>866</v>
+        <v>507</v>
       </c>
       <c r="I175" t="s">
-        <v>867</v>
+        <v>508</v>
       </c>
     </row>
     <row r="176" spans="1:9">
@@ -7868,20 +6791,20 @@
       <c r="D176">
         <v>15</v>
       </c>
-      <c r="E176" t="s">
-        <v>663</v>
-      </c>
-      <c r="F176" t="s">
-        <v>843</v>
+      <c r="E176">
+        <v>29.57</v>
+      </c>
+      <c r="F176">
+        <v>443.55</v>
       </c>
       <c r="G176" t="s">
-        <v>864</v>
+        <v>505</v>
       </c>
       <c r="H176" t="s">
-        <v>866</v>
+        <v>507</v>
       </c>
       <c r="I176" t="s">
-        <v>867</v>
+        <v>508</v>
       </c>
     </row>
     <row r="177" spans="1:9">
@@ -7897,20 +6820,20 @@
       <c r="D177">
         <v>8</v>
       </c>
-      <c r="E177" t="s">
-        <v>664</v>
-      </c>
-      <c r="F177" t="s">
-        <v>844</v>
+      <c r="E177">
+        <v>28.97</v>
+      </c>
+      <c r="F177">
+        <v>231.76</v>
       </c>
       <c r="G177" t="s">
-        <v>864</v>
+        <v>505</v>
       </c>
       <c r="H177" t="s">
-        <v>866</v>
+        <v>507</v>
       </c>
       <c r="I177" t="s">
-        <v>867</v>
+        <v>508</v>
       </c>
     </row>
     <row r="178" spans="1:9">
@@ -7926,20 +6849,20 @@
       <c r="D178">
         <v>8</v>
       </c>
-      <c r="E178" t="s">
-        <v>665</v>
-      </c>
-      <c r="F178" t="s">
-        <v>845</v>
+      <c r="E178">
+        <v>30.14</v>
+      </c>
+      <c r="F178">
+        <v>241.12</v>
       </c>
       <c r="G178" t="s">
-        <v>864</v>
+        <v>505</v>
       </c>
       <c r="H178" t="s">
-        <v>866</v>
+        <v>507</v>
       </c>
       <c r="I178" t="s">
-        <v>867</v>
+        <v>508</v>
       </c>
     </row>
     <row r="179" spans="1:9">
@@ -7955,20 +6878,20 @@
       <c r="D179">
         <v>8</v>
       </c>
-      <c r="E179" t="s">
-        <v>666</v>
-      </c>
-      <c r="F179" t="s">
-        <v>846</v>
+      <c r="E179">
+        <v>43.41</v>
+      </c>
+      <c r="F179">
+        <v>347.28</v>
       </c>
       <c r="G179" t="s">
-        <v>864</v>
+        <v>505</v>
       </c>
       <c r="H179" t="s">
-        <v>866</v>
+        <v>507</v>
       </c>
       <c r="I179" t="s">
-        <v>867</v>
+        <v>508</v>
       </c>
     </row>
     <row r="180" spans="1:9">
@@ -7984,20 +6907,20 @@
       <c r="D180">
         <v>15</v>
       </c>
-      <c r="E180" t="s">
-        <v>652</v>
-      </c>
-      <c r="F180" t="s">
-        <v>847</v>
+      <c r="E180">
+        <v>6.52</v>
+      </c>
+      <c r="F180">
+        <v>97.8</v>
       </c>
       <c r="G180" t="s">
-        <v>864</v>
+        <v>505</v>
       </c>
       <c r="H180" t="s">
-        <v>866</v>
+        <v>507</v>
       </c>
       <c r="I180" t="s">
-        <v>867</v>
+        <v>508</v>
       </c>
     </row>
     <row r="181" spans="1:9">
@@ -8013,20 +6936,20 @@
       <c r="D181">
         <v>8</v>
       </c>
-      <c r="E181" t="s">
-        <v>667</v>
-      </c>
-      <c r="F181" t="s">
-        <v>848</v>
+      <c r="E181">
+        <v>149</v>
+      </c>
+      <c r="F181">
+        <v>1192</v>
       </c>
       <c r="G181" t="s">
-        <v>864</v>
+        <v>505</v>
       </c>
       <c r="H181" t="s">
-        <v>866</v>
+        <v>507</v>
       </c>
       <c r="I181" t="s">
-        <v>867</v>
+        <v>508</v>
       </c>
     </row>
     <row r="182" spans="1:9">
@@ -8042,20 +6965,20 @@
       <c r="D182">
         <v>115</v>
       </c>
-      <c r="E182" t="s">
-        <v>668</v>
-      </c>
-      <c r="F182" t="s">
-        <v>849</v>
+      <c r="E182">
+        <v>36.25</v>
+      </c>
+      <c r="F182">
+        <v>4168.75</v>
       </c>
       <c r="G182" t="s">
-        <v>864</v>
+        <v>505</v>
       </c>
       <c r="H182" t="s">
-        <v>866</v>
+        <v>507</v>
       </c>
       <c r="I182" t="s">
-        <v>867</v>
+        <v>508</v>
       </c>
     </row>
     <row r="183" spans="1:9">
@@ -8071,20 +6994,20 @@
       <c r="D183">
         <v>8</v>
       </c>
-      <c r="E183" t="s">
-        <v>669</v>
-      </c>
-      <c r="F183" t="s">
-        <v>850</v>
+      <c r="E183">
+        <v>20.73</v>
+      </c>
+      <c r="F183">
+        <v>165.84</v>
       </c>
       <c r="G183" t="s">
-        <v>864</v>
+        <v>505</v>
       </c>
       <c r="H183" t="s">
-        <v>866</v>
+        <v>507</v>
       </c>
       <c r="I183" t="s">
-        <v>867</v>
+        <v>508</v>
       </c>
     </row>
     <row r="184" spans="1:9">
@@ -8100,20 +7023,20 @@
       <c r="D184">
         <v>8</v>
       </c>
-      <c r="E184" t="s">
-        <v>669</v>
-      </c>
-      <c r="F184" t="s">
-        <v>850</v>
+      <c r="E184">
+        <v>20.73</v>
+      </c>
+      <c r="F184">
+        <v>165.84</v>
       </c>
       <c r="G184" t="s">
-        <v>864</v>
+        <v>505</v>
       </c>
       <c r="H184" t="s">
-        <v>866</v>
+        <v>507</v>
       </c>
       <c r="I184" t="s">
-        <v>867</v>
+        <v>508</v>
       </c>
     </row>
     <row r="185" spans="1:9">
@@ -8129,20 +7052,20 @@
       <c r="D185">
         <v>75</v>
       </c>
-      <c r="E185" t="s">
-        <v>670</v>
-      </c>
-      <c r="F185" t="s">
-        <v>851</v>
+      <c r="E185">
+        <v>7.34</v>
+      </c>
+      <c r="F185">
+        <v>550.5</v>
       </c>
       <c r="G185" t="s">
-        <v>864</v>
+        <v>505</v>
       </c>
       <c r="H185" t="s">
-        <v>866</v>
+        <v>507</v>
       </c>
       <c r="I185" t="s">
-        <v>867</v>
+        <v>508</v>
       </c>
     </row>
     <row r="186" spans="1:9">
@@ -8158,20 +7081,20 @@
       <c r="D186">
         <v>35</v>
       </c>
-      <c r="E186" t="s">
-        <v>671</v>
-      </c>
-      <c r="F186" t="s">
-        <v>852</v>
+      <c r="E186">
+        <v>11.53</v>
+      </c>
+      <c r="F186">
+        <v>403.55</v>
       </c>
       <c r="G186" t="s">
-        <v>864</v>
+        <v>505</v>
       </c>
       <c r="H186" t="s">
-        <v>866</v>
+        <v>507</v>
       </c>
       <c r="I186" t="s">
-        <v>867</v>
+        <v>508</v>
       </c>
     </row>
     <row r="187" spans="1:9">
@@ -8187,20 +7110,20 @@
       <c r="D187">
         <v>15</v>
       </c>
-      <c r="E187" t="s">
-        <v>672</v>
-      </c>
-      <c r="F187" t="s">
-        <v>853</v>
+      <c r="E187">
+        <v>86.09999999999999</v>
+      </c>
+      <c r="F187">
+        <v>1291.5</v>
       </c>
       <c r="G187" t="s">
-        <v>864</v>
+        <v>505</v>
       </c>
       <c r="H187" t="s">
-        <v>866</v>
+        <v>507</v>
       </c>
       <c r="I187" t="s">
-        <v>867</v>
+        <v>508</v>
       </c>
     </row>
     <row r="188" spans="1:9">
@@ -8216,20 +7139,20 @@
       <c r="D188">
         <v>35</v>
       </c>
-      <c r="E188" t="s">
-        <v>673</v>
-      </c>
-      <c r="F188" t="s">
-        <v>854</v>
+      <c r="E188">
+        <v>13.26</v>
+      </c>
+      <c r="F188">
+        <v>464.1</v>
       </c>
       <c r="G188" t="s">
-        <v>864</v>
+        <v>505</v>
       </c>
       <c r="H188" t="s">
-        <v>866</v>
+        <v>507</v>
       </c>
       <c r="I188" t="s">
-        <v>867</v>
+        <v>508</v>
       </c>
     </row>
     <row r="189" spans="1:9">
@@ -8245,20 +7168,20 @@
       <c r="D189">
         <v>4</v>
       </c>
-      <c r="E189" t="s">
-        <v>531</v>
-      </c>
-      <c r="F189" t="s">
-        <v>855</v>
+      <c r="E189">
+        <v>137.66</v>
+      </c>
+      <c r="F189">
+        <v>550.64</v>
       </c>
       <c r="G189" t="s">
-        <v>864</v>
+        <v>505</v>
       </c>
       <c r="H189" t="s">
-        <v>866</v>
+        <v>507</v>
       </c>
       <c r="I189" t="s">
-        <v>867</v>
+        <v>508</v>
       </c>
     </row>
     <row r="190" spans="1:9">
@@ -8274,20 +7197,20 @@
       <c r="D190">
         <v>4</v>
       </c>
-      <c r="E190" t="s">
-        <v>674</v>
-      </c>
-      <c r="F190" t="s">
-        <v>856</v>
+      <c r="E190">
+        <v>309.16</v>
+      </c>
+      <c r="F190">
+        <v>1236.64</v>
       </c>
       <c r="G190" t="s">
-        <v>864</v>
+        <v>505</v>
       </c>
       <c r="H190" t="s">
-        <v>866</v>
+        <v>507</v>
       </c>
       <c r="I190" t="s">
-        <v>867</v>
+        <v>508</v>
       </c>
     </row>
     <row r="191" spans="1:9">
@@ -8300,20 +7223,20 @@
       <c r="D191">
         <v>110</v>
       </c>
-      <c r="E191" t="s">
-        <v>675</v>
-      </c>
-      <c r="F191" t="s">
-        <v>857</v>
+      <c r="E191">
+        <v>38.91</v>
+      </c>
+      <c r="F191">
+        <v>4280.099999999999</v>
       </c>
       <c r="G191" t="s">
-        <v>864</v>
+        <v>505</v>
       </c>
       <c r="H191" t="s">
-        <v>866</v>
+        <v>507</v>
       </c>
       <c r="I191" t="s">
-        <v>867</v>
+        <v>508</v>
       </c>
     </row>
     <row r="192" spans="1:9">
@@ -8326,20 +7249,20 @@
       <c r="D192">
         <v>2</v>
       </c>
-      <c r="E192" t="s">
-        <v>676</v>
-      </c>
-      <c r="F192" t="s">
-        <v>858</v>
+      <c r="E192">
+        <v>2433.33</v>
+      </c>
+      <c r="F192">
+        <v>4866.66</v>
       </c>
       <c r="G192" t="s">
-        <v>864</v>
+        <v>505</v>
       </c>
       <c r="H192" t="s">
-        <v>866</v>
+        <v>507</v>
       </c>
       <c r="I192" t="s">
-        <v>867</v>
+        <v>508</v>
       </c>
     </row>
     <row r="193" spans="1:9">
@@ -8352,20 +7275,20 @@
       <c r="D193">
         <v>5</v>
       </c>
-      <c r="E193" t="s">
-        <v>677</v>
-      </c>
-      <c r="F193" t="s">
-        <v>859</v>
+      <c r="E193">
+        <v>169.33</v>
+      </c>
+      <c r="F193">
+        <v>846.6500000000001</v>
       </c>
       <c r="G193" t="s">
-        <v>864</v>
+        <v>505</v>
       </c>
       <c r="H193" t="s">
-        <v>866</v>
+        <v>507</v>
       </c>
       <c r="I193" t="s">
-        <v>867</v>
+        <v>508</v>
       </c>
     </row>
     <row r="194" spans="1:9">
@@ -8378,20 +7301,20 @@
       <c r="D194">
         <v>2</v>
       </c>
-      <c r="E194" t="s">
-        <v>678</v>
-      </c>
-      <c r="F194" t="s">
-        <v>860</v>
+      <c r="E194">
+        <v>10578.33</v>
+      </c>
+      <c r="F194">
+        <v>21156.66</v>
       </c>
       <c r="G194" t="s">
-        <v>864</v>
+        <v>505</v>
       </c>
       <c r="H194" t="s">
-        <v>866</v>
+        <v>507</v>
       </c>
       <c r="I194" t="s">
-        <v>867</v>
+        <v>508</v>
       </c>
     </row>
     <row r="195" spans="1:9">
@@ -8404,20 +7327,20 @@
       <c r="D195">
         <v>8</v>
       </c>
-      <c r="E195" t="s">
-        <v>679</v>
-      </c>
-      <c r="F195" t="s">
-        <v>861</v>
+      <c r="E195">
+        <v>2076.66</v>
+      </c>
+      <c r="F195">
+        <v>16613.28</v>
       </c>
       <c r="G195" t="s">
-        <v>864</v>
+        <v>505</v>
       </c>
       <c r="H195" t="s">
-        <v>866</v>
+        <v>507</v>
       </c>
       <c r="I195" t="s">
-        <v>867</v>
+        <v>508</v>
       </c>
     </row>
     <row r="196" spans="1:9">
@@ -8430,20 +7353,20 @@
       <c r="D196">
         <v>6</v>
       </c>
-      <c r="E196" t="s">
-        <v>680</v>
-      </c>
-      <c r="F196" t="s">
-        <v>862</v>
+      <c r="E196">
+        <v>2646.33</v>
+      </c>
+      <c r="F196">
+        <v>15877.98</v>
       </c>
       <c r="G196" t="s">
-        <v>864</v>
+        <v>505</v>
       </c>
       <c r="H196" t="s">
-        <v>866</v>
+        <v>507</v>
       </c>
       <c r="I196" t="s">
-        <v>867</v>
+        <v>508</v>
       </c>
     </row>
     <row r="197" spans="1:9">
@@ -8456,20 +7379,20 @@
       <c r="D197">
         <v>2</v>
       </c>
-      <c r="E197" t="s">
-        <v>681</v>
-      </c>
-      <c r="F197" t="s">
-        <v>863</v>
+      <c r="E197">
+        <v>6883</v>
+      </c>
+      <c r="F197">
+        <v>13766</v>
       </c>
       <c r="G197" t="s">
-        <v>864</v>
+        <v>505</v>
       </c>
       <c r="H197" t="s">
-        <v>866</v>
+        <v>507</v>
       </c>
       <c r="I197" t="s">
-        <v>867</v>
+        <v>508</v>
       </c>
     </row>
   </sheetData>

--- a/DOWNLOADS/EDITAIS/U_989859_E_900262025_29-09-2025_09h00m/U_989859_E_900262025_29-09-2025_09h00m_master.xlsx
+++ b/DOWNLOADS/EDITAIS/U_989859_E_900262025_29-09-2025_09h00m/U_989859_E_900262025_29-09-2025_09h00m_master.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1111" uniqueCount="509">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1031" uniqueCount="393">
   <si>
     <t>Nº</t>
   </si>
@@ -1165,370 +1165,22 @@
     <t>Microscópio Microscópio Tipo De Análise: Óptico, Tipo: Trinocular, Aumento: C/ Objetivas Até 100x, Oculares Até 10x, Componentes: Iluminação Em Led, Outros Componentes: Com Câmera De Vídeo Integrada, Adicional: Inclinação Até 30, Rotação 360</t>
   </si>
   <si>
-    <t>Tatame pedagógico, em E.VA, antiderrapante, atóxico e antialérgico, lavável, impermeável, isolamento térmico com bordas, montagem em encaixe com as outras peças. Dimensões mínimas: 1 m de altura x 1 m de largura x 10mm de espessura, cor azul.</t>
-  </si>
-  <si>
-    <t>Torre inteligente, confeccionado em madeira e MDF, peças de encaixe, formas geométricas, multicolorido, pintados com tinta atóxica, caixa de madeira com tinta serigrafada. Descrições e especificações mínimas: 63 peças, 18 placas medindo 6 x 6 em e 45 cilindros de madeira pintados medindo 3 cm de altura, caixa 20 x 20 x 6 cm, com selo ou número de certificação.</t>
-  </si>
-  <si>
-    <t>Xadrez Estojo: Contendo 1 Tabuleiro caixa de Madeira com fecho de metal, dobrável, 32 peças em plástico rígido de Polietileno. Dimensões aproximada do tabuleiro aberto: 37em x 37em x 3,4cm. Dimensões aproximada do tabuleiro fechado: 38cm x 19cm x 7em. Medida mínima de cada Casa: 4cm. Dimensões mínimas das peças: Peões - 4,5em (base 3,5ecm), Torre - 6cm (base 3,9cm), Bispo - 7,5em (base 3,9cm), Cavalo - 7,5em (base 3,9cm), Rainha - 8ecm (base 4,2cm), Rei - 10cm (base 4,2cm), incluso regras do jogo.</t>
+    <t>Tatame   pedagógico,   em    E.V.A,  antiderrapante,   atóxico   e   antialérgico,  lavável, impermeável, isolamento térmico  com bordas, montagem em encaixe com as outras peças. Dimensões mínimas: 1 m de altura x 1 m de largura x 10mm de espessura, cor azul.</t>
+  </si>
+  <si>
+    <t>Torre   inteligente,   confeccionado  em  madeira e MDF, peças de encaixe, formas geométricas,  multicolorido,  pintados com tinta atóxica, caixa de madeira com tinta serigrafada.  Descrições  e  especificações mínimas: 63 peças, 18 placas medindo 6 x 6 cm  e 45  cilindros de madeira  pintados medindo 3 cm de altura, caixa 20 x 20 x 6 cm, com selo ou número de certificação.</t>
+  </si>
+  <si>
+    <t>Xadrez Estojo: Contendo 1 Tabuleiro caixa de Madeira com fecho de metal, dobrável, 32  peças em  plástico  rígido de  Polietileno.  Dimensões aproximada do tabuleiro aberto: 37cm  x  37cm  x  3,4cm.  Dimensões aproximada do tabuleiro fechado: 38cm x 19cm x 7cm. Medida mínima de cada Casa: 4cm. Dimensões mínimas das peças: Peões - 4,5cm (base 3,5cm), Torre  - 6cm (base 3,9cm), Bispo - 7,5cm (base 3,9cm), Cavalo - 7,5cm (base 3,9cm), Rainha - 8cm (base 4,2cm), Rei - 10cm (base 4,2cm), incluso regras do jogo.</t>
   </si>
   <si>
     <t>Afinador digital, guitarra, caixa de plástico, cromático, alimentação em bateria, pinça, com tela, display colorido, frequência mínima 430 Hz, desligamento automático, calibração de frequência.</t>
   </si>
   <si>
-    <t>Afoxé, madeira pinho, alumínio ondulado, arame de metal, miçangas ABS, cabo ABS, tampa e fundo em ABS, Parafuso central para fixação da tampa, fundo e cabo; afoxé com no mínimo. 500 Miçangas (bolinhas) diâmetro de cada Miçanga (bolinhas): 5,7mm. Comprimento total mínimo 20 em, com diâmetro mínimo do corpo 13 cm, tamanho mínimo do cabo 11lem, com diâmetro mínimo de 2,2 cm, diâmetro mínimo do corpo 13 em. Peso.: 470g.</t>
-  </si>
-  <si>
-    <t>Agogô duplo médio, incluso baqueta, baqueta de madeira, duplo aço cromado. Tamanho mínimo das bocas: 6cm e 5 cm, Peso aproximado: 280g. Dimensões mínimas: 28 cm comprimento x 10 cm largura x 28 cm altura.</t>
-  </si>
-  <si>
-    <t>Baqueta, silicone, flexível, tamanho mínimo 40 cm, diâmetro mínimo 6mm.</t>
-  </si>
-  <si>
-    <t>Baquetas para surdo, madeira marfim, resistente, ponta arredondada, cabeça da baqueta é em formato oval, macia e almofadada, com revestimento em tecido feltro.º Medida mínima: 29ncm de comprimento, diâmetro do cabo 2 em, cabeça da baqueta com no mínimo 5 cm.</t>
-  </si>
-  <si>
-    <t>Baquetas, madeira marfim, resistente, empunhadura macia, antideslizante, ponta pequena oval, 7º, cabo revestido com uma fita especial emborrachada. Comprimento mínimo 38cm, 1l4mm de diâmetro em média de 15 a 17,5”, peso mínimo 100 gramas.</t>
-  </si>
-  <si>
-    <t>Bateria acústica, cascos construídos embasswood; tom com sistema de suspensão 10"x 8" com 12 afinações; tom com sistema de suspensão 12"x 9" com 12 afinações; surdo de chão de 14" x 14" com 16 afinações; bumbo de 20" x 16" com 16 afinações com pés telescópicos com regulagem de altura; caixa de madeira 14" x 5,5" com 16 afinações; ferragens com pedal de bumbo, uma estante de prato reta com pés triplo, uma estante de prato girafa com pés triplo, estante de caixa com pés triplo, máquina de chimbal com pés triplo, banco acolchoado redondo com pés triplo, com regulagem de altura: Máx: 57em e Mín: 45cm, regulagem: por furação e aperto por rosca, espessura mínima dos tubos: 2,4 cm e 2,9cm, largura mínima do assento: 28 cem, material de assento couro sintético preto, espessura mínima do assento 6 ecm, densidade D33, com pés emborrachados, tripé com ferragens dupla, acabamento cromado, suporta até 98 kg. kit de pratos: hi hat 14"; crash 16"; ride 20" - em bronze liga b8</t>
-  </si>
-  <si>
-    <t>Cabos P 10 para instrumento, P1IO e PIO capa de PVC emborrachado altamente resistente, dupla blindagem com semicondutora e trança metálica, conectores P10 x P1O usinados em latão (CLA) e capa injetada em ZAMAC (liga de alumínio) niquelados, comprimento mínimo: 3,5 metros, bitola em mm: 0,50 mmº?, bitola em AWG 20 AWG.</t>
-  </si>
-  <si>
-    <t>Cajon, eletroacústico, confortável, acabamento do corpo em madeira cerejeira, sofisticado, captador interno e externo, baixas frequências, assento em MDF, placa de aço escovado, pele em acetinado em gel, captação dupla dinâmica, com 2 saídas balanceadas, pintura em nitrocelulose. Descrições mínimas: 22 fios, caixa de ressonância maior e pele de 2mm.</t>
-  </si>
-  <si>
-    <t>Contrabaixo 4 cordas mais Kkit incluso, braço madeira de maple, chave de afinação, madeira do corpo cedro, orientação de mão destro, acabamento envernizado, quantidade de cordas 4, tipo de madeira de cedro, tipo de material do diapasão osso, tipo de corda: leve, configuração dos captadores HH, tipo de equalização do captador passivo, Tipo de ponte Standard cromada, quantidade mínima de trastes 21, tarraxas cromadas, Captadores com no mínimo 2, Profundidade mínima do corpo 109 cm, largura mínima do corpo 40 em, Comprimento mínimo do corpo 109 em, Comprimento mínimo da escala 340 mm, itens inclusos: lx Capa Contra Baixo, 1x Afinador Digital, lx Correia Basso e lx Cabo P10 P10 Emborrachado 5m</t>
-  </si>
-  <si>
-    <t>Correia para contrabaixo, durável, preta, confortável, polipropileno, 9 cm de largura, possuindo couro nas extremidades, ajustável. Descrições mínimas: comprimento ajustável entre 100 a 145 cm.</t>
-  </si>
-  <si>
-    <t>Cubo para guitarra elétrica 60 WATSS c profissional, amplificador, guitarra, bivolt, caixa em MDF, potência de saída em RMS, 60 W, alça para transporte, alto falante, cone de papel, tela metálica, proteção frontal, saídas em PI1O e fone de ouvido, canais de entrada LOW e HIGH, equalização LOW, MID e HIGH, alto falante 12”.</t>
-  </si>
-  <si>
-    <t>Cubo, profissional, amplificador, contrabaixo, bivolt, caixa em MDF, potência de saída em RMS, 60 W, alça para transporte, alto falante, cone de papel, tela metálica, proteção frontal, saídas em P1O0 e fone de ouvido, canais de entrada LOW e HIGH, equalização LOW, MID e HIGH, alto falante 12”.</t>
-  </si>
-  <si>
-    <t>Estantes, pedestal para partitura, aço carbono, pintura epóxi, suporte para folhas com mola, tripé, preto, com regulagem, pé antiderrapantes, dobrável, com 2 estágios de altura mínima: 0,50m e máxima 1,50 m.</t>
-  </si>
-  <si>
-    <t>Flauta doce, resina ABS, afinação em Dó (C), soprano, barroca, leve, sopro reto, passagem de ar: plana montagem: 3 peças (cabeça, corpo e pé) tamanho total: 30cm, acompanha: vareta para limpeza, com estojos das Flautas feitos de algodão natural.</t>
-  </si>
-  <si>
-    <t>Guitarra, elétrica, 6 cordas, 22 trastes, cordas em aço, destro, corpo em madeira técnica, acabamento em verniz, captadores de ponte, meio e braço single, ponte tremolo, madeira do braço marfim, corpo em madeira cedro, stratocaster, controles em chave seletora de captadores, tone, volume, forma de braço C, no mínimo 1 chaves seletoras.</t>
-  </si>
-  <si>
-    <t>Mesa de som, 16 canais, phantom power, equalizador, entrada usb pendrive, console analógica, corrente elétrica, alimentação fantasma 48 volts, bivolt, com efeitos, conector XLR , chave ON, conteúdo da embalagem mesa de som, cabo de força e manual, dimensões mínimas do produto 54 (Largura) x 53 (Profundidade) x 18 (Altura) em</t>
-  </si>
-  <si>
-    <t>Microfone Headset e Lapela profissional, Acessórios inclusos: transmissor, cabo e adaptadores, Fonte sem fio, 2 em Im, alimentação: 3V, conector/es de saída: xlr e p10, UHF, formatos de microfone de cabeça, lapela, tipos de microfone dinâmico, alimentação: DC12V 500MA, estabilidade mínima de frequência: &lt; 0.005%, saída RF: - 100dBm, padrões polares direcional, fácil de configurar e operar e produz excelente nitidez de áudio.</t>
-  </si>
-  <si>
-    <t>Microfone profissional, com fio, formato de mão, 2 (dois) microfone, entrada XLR e saída P10, cardioide, frequência mínima e máxima em 60 Hz a 12 kHz</t>
-  </si>
-  <si>
-    <t>Microfone profissional, sem fio, formato de mão, 2 (dois) microfone, 01 (um) receptor sem fio, cardioide, com bluetooth, alimentação em bateria AA, transmissor e receptor com distância mínima em 6 m, frequência mínima e máxima em 60 Hz a 12 kHz</t>
-  </si>
-  <si>
-    <t>Microfones profissional shotgun Uni-Directional! condensador para coral, Polaridade: Ultra-cardióide, conectores de saída P10, resposta mínima de frequência: 100-1600Hz, sensibilidade: -44dB, +2dB (Curta distância), -23dB, +2dB (Longa distância), chave seletora: off, normal e tele, medidas do microfone: comprimento 25,4 em, largura Microfone: 2 em, comprimento espuma: 13,6 cm e comprimento mínimo do fio: 7m</t>
-  </si>
-  <si>
-    <t>Pandeiro, instrumento percussão, multicolorido, pele leitosa, plástico em policarbonato, profissional, 15 platinelas, 11 polegadas, ergonômico, leve. Medidas mínimo: comprimento 30 cm, altura 4 cm, largura 30 cm, diâmetro 10 cm, peso 350 gramas.</t>
-  </si>
-  <si>
-    <t>Pandeirola, instrumento percussão, multicolorido, meia lua, manopla de plástico em policarbonato, profissional, 16 pares de platinelas em inox, ergonômico, leve, material do corpo plástico, material do remendo: sintético, tamanho mínimo: Comprimento 21cm, alta:20cm.</t>
-  </si>
-  <si>
-    <t>Pedestais para caixa de bateria, caixa de bateria, rosca em alta qualidade, aço cromado, ajuste giratório, pés triplos, ponta de borracha, ferragens duplas, duplo ajuste altura mínima de 35cm a 55cm, com estrutura reforçada, pés antiderrapantes.</t>
-  </si>
-  <si>
-    <t>Pedestal para piano, preto, teclado, alumínio, ajustável, portátil, formato em X, abertura em 5 níveis, compatível a teclados de 61 teclas, dobrável e regulável em altura, pés antiderrapantes, altura máxima 96cm, largura mínima 30cm e largura máxima 90 cem, reforçado até 25kg.</t>
-  </si>
-  <si>
-    <t>Pedestal, para microfone, aço carbono, braço girafa, tripé, preto, com regulagem, pé antiderrapantes, dobrável, com altura mínima: 80 cm e máxima 150 cm</t>
-  </si>
-  <si>
-    <t>Repique de mão, material alumínio, aro cromado, pele leitosa,y com chave de afinação, tamanho 30 cm X 8”, com no mínimo 5 afinadores</t>
-  </si>
-  <si>
-    <t>Suporte estante rack, chão, com rodas de silicone, giro 360º, com função de freio, aço, proteção em E.V.A, ajustável, dobrável, apoio para braços do instrumento, proteções emborrachas. Descrições mínimas: 5 instrumentos, 40 cm de comprimento x 74 em de largura x 75 cm de altura.</t>
-  </si>
-  <si>
-    <t>Suporte para timbal, desmontável, aço carbonado, pés triplos, com adaptação para o timbal de tamanho mínimo 14X90, regulagem de altura, altura mínima 60 cm, altura máxima 100 cm, pintura eletrostática, cor: Preto</t>
-  </si>
-  <si>
-    <t>Teclado musical acompanha 01 Capa; 01 Suporte em X; 01 Fonte Bivolt; teclado com 61 teclas tamanho padrão; polifonia máxima 48 timbres; tons integrados: 400; Porta USB; Conectores do PEDAL: Entrada padrão (6,3mm) (Estabilização do pedal, sustenido, soft, início/parada) 16 Multitimbres recebidos, GM nível 1 padrão; Garantia mínima de 01 ano</t>
-  </si>
-  <si>
-    <t>Timbal, madeira verniz, ferragem em acrílico, cor natural, pele leitosa, percussão, diâmetro mínimo 254 cm, tamanho mínimo 14”X 90 cm de altura, com no mínimo 5 afinadores.</t>
-  </si>
-  <si>
-    <t>Triângulo, aço cromado, incluso batedor. Dimensões mínimas: tamanho de 30 cm em todos os lados, espessura de 10mm, baqueta aço cromado: batedor, peso: 410 gramas.</t>
-  </si>
-  <si>
-    <t>Zabumba, em madeira mogno, dupla afinação, aro do bombo madeira, com balas reforçadas, chapa preto, inclui baquetas com pontas redondas, pele leitosa, tamanho mínimo 15 cm de altura x18 cm de diâmetro, peso aproximado 3kg</t>
-  </si>
-  <si>
-    <t>Apito, confeccionado em plástico, tamanho oficial, com esfera de plástico impermeável em sua parte interior, contendo em sua parte anterior um orifício onde será inserida uma argola de metal para fixação do cordão.</t>
-  </si>
-  <si>
-    <t>Bola de futsal oficial, com 68cm a 69cm de circunferência, pesando entre 420 e 450 gramas, contendo em seu interior câmara em butil, confeccionada em PU, miolo removível.</t>
-  </si>
-  <si>
-    <t>Bola de basquete oficial, com 72cm a 74cm de circunferência, pesando entre 450 a 500 gramas, câmara butil, matrizada, borracha, miolo removível.</t>
-  </si>
-  <si>
-    <t>Bola de handball, costura manual, confeccionada em PU, menor absorção de água, macia, com 54cm a 56cm de circunferência, pesando entre 325g e 400g contendo em seu interior câmara em airbility, miolo de silicone removível e lubrificado</t>
-  </si>
-  <si>
-    <t>Bola de vôlei praia, confeccionada em PU, costurada, dupla laminação, que proporcione alta aderência nas mãos, contendo em seu interior câmara em butil, com 54cm a 56cm de circunferência, pesando entre 325g e 400g, miolo de removível e lubrificado. silicone,</t>
-  </si>
-  <si>
-    <t>Bomba de inflar, dupla ação, confeccionada em plástico rígido, tamanho único, função de enchimento nos dois sentidos (infla ao empurrar e puxar).</t>
-  </si>
-  <si>
-    <t>Colete com viés e elástico, colete esportivo utilizado em diversas modalidades esporte, composição 100% poliéster. Laterais com elástico. Tamanho único adulto, cores: azul, amarela, verde escuro, verde claro e laranja, dez unidades de cada cor.</t>
-  </si>
-  <si>
-    <t>Corda multifilamento, trançado triplo, possui trançado externo em multifilamento de polipropileno, cor azul, rolo com 50 metros, com no mínimo 14 mm de espessura x 50 m de comprimento.</t>
-  </si>
-  <si>
-    <t>Cronômetro, digital, plástico, multifuncional, visor em LCD, resistente à água, analógico, com alarme, relógio em tempo real, ritmos selecionáveis, incluso cordão de segurança, leve, memória interna, capacidade mínima em 6 horas: 59 minutos: 59 segundos: 99 centésimos de segundo, precisão centésimos 1/100 segundos.</t>
-  </si>
-  <si>
-    <t>Colchonete para atividades física, composição do material interno espuma de poliuretano com densidade 23, capa parte externa: napa, impermeável, antiácaro e antialérgico, com acabamento selado, sem zíper; medida mínima: 180cm comprimento x 60 em de largura x 4cm de espessura.</t>
-  </si>
-  <si>
-    <t>Rede para voleibol, confeccionada em polietileno (nylon) de filamento contínuo na cor preta de 0O2mm, medida oficial, com 04 (quatro) faixas de tecido em sarja, com malha de 10 x 10 cm, comprimento mínimo de 9,50m, com largura entre 1,00m a 1,20m, acompanhada por corda de nylon ou seda branca, medindo 12m de comprimento e O05mm de espessura.</t>
-  </si>
-  <si>
-    <t>Rede para Aro de Basquete, medida oficial, com diâmetro entre 450 mm e 457mm e comprimento entre 400mm e 450mm, confeccionada em fios de polipropileno (seda) de 0O4mm, com malha de 07cm x 07em</t>
-  </si>
-  <si>
-    <t>Computador Completo E, com Windows 10 Pro G64bits licenciado vitalício; configurações mínimas ou superior: gabinete (predominância preto piano, torre, placas mãe ATX; fonte mínimo 500watts real automática; processador (mínimo de 12º geração, frequência base mínima 2.5Ghz, seis núcleos, cache 18mb, com vídeo integrado); memória (16gb, DDR4 3200 MHz); hd (01 SSD SATA 3 ou M.2 240gb); mouse (predominância preto, óptico, usb, 03 botões com scroll, 1000dpi); teclado (predominância preto, ABNT2); placa mãe (on-board som, vídeo, rede - 01x PCI express x16 3.0, 03x usb 3.1, 04x portas Sata, 01x porta RJ45 Gigabit LAN, 01x saída VGA; 03x tomadas de áudio; suporte a memórias DDR4 2400Mhz mínimo até 32gb); caixa de som (USB com saída fone de ouvido (5watts rms); monitor (LED 21,5" widescreen preto resolução 1920x1080 ou superior, entrada VGA tempo resposta máximo 5ms, taxa de atualização 60Hz, sem auto-falante embutido); garantia mínima de 12 (doze) meses.</t>
-  </si>
-  <si>
-    <t>Notebook, com Windows 11 Pro 64bits licenciado vitalício; configurações mínimas ou superior: processador (mínimo de 13º Geração, 18mb cache, com vídeo integrado), 10-Cores 16-Threads, (Memória 8GB RAM DDR4 3200 MHz) (SSD 256 GB de armazenamento NVMe M.2), frequência base mínima 2.5ghz (4.6GHz Turbo) tela de 15,6" com Full HD, porta HDMI, portas USB-A, portas USB-C, porta RJ45 para conexões LAN</t>
-  </si>
-  <si>
-    <t>Adaptador de Lápis, silicone, duplo, ecológico, ergonômico, ambidestro, leve, macio, sem látex, não tóxico, no mínimo 2 cores diferentes.</t>
-  </si>
-  <si>
-    <t>Balão de latex, de borracha natural com 50 unidades tamanho 24x17cm - Nº 7</t>
-  </si>
-  <si>
-    <t>Borracha duas cores,escolar nº 40, macia e suave, 20gr.</t>
-  </si>
-  <si>
-    <t>Borracha, branca escolar nº 60, macia e suave 15g</t>
-  </si>
-  <si>
-    <t>Caderno, capa dura, folha alva com espiral em arame revestido, com 8 matérias, papel miolo: 56 gm2 160 folhas pautadas em dimensões 200 x 275 mm podendo variar em +/- 5%.</t>
-  </si>
-  <si>
-    <t>Caderno, grande, capa dura, partitura, pautada, espiral de metal colorido, mínimo 96 folhas.</t>
-  </si>
-  <si>
-    <t>Caderno, pequeno, folha listrada, espiral de metal colorido, caderneta, sortido, capa flexível, pautada, mínimo de 96 folhas.</t>
-  </si>
-  <si>
-    <t>Calculadora, digital, portátil, capacidade 12 (doze) dígitos, com as 04 (quatro) operações básicas, raiz quadrada, porcentagem, correção parcial e total, inversão de sinais, memoória, bateria a luz solar, garantia mínima de 6 meses. Cor branca.</t>
-  </si>
-  <si>
-    <t>Caneta esferográfica, cor azul, escrita fina, corpo em plástico transparente, sextavado, ponta de tungstênio, corpo com orifício para respiro, carga removível, não rosqueada, tampa cônica ventilada e tampão superior de pressão, protetor plástico entre a carga e o corpo da caneta, tamanho de aproximadamente 15 cm coma tampa, fabricação nacional, cx com 50 und.</t>
-  </si>
-  <si>
-    <t>Cartolina comum, lisa, dimensões 50 x 66 cem, gramatura de 150 g/m2, cores Azul, branca, rosa, amarela, verde e laranja.</t>
-  </si>
-  <si>
-    <t>Cartolina comum, lisa, dimensões 66x96 cem, gramatura de 150 g/m2, cor branca.</t>
-  </si>
-  <si>
-    <t>Cola com gliter, produto a base de resina de PVA, Glíter e conservante tipo benzotiazol 25g cores sortidas</t>
-  </si>
-  <si>
-    <t>Cola de Isopor, embalagem: 90 gramas. Não tóxica. Cola Liquida transparente.</t>
-  </si>
-  <si>
-    <t>Cola Quente, em bastão 11,00 mm x 300 mm pacote com 1kg. não tóxica a base de resina termoplástica</t>
-  </si>
-  <si>
-    <t>Cola Quente, em bastão 7,50 mm x 300 mm pacote com 1kg. não tóxica a base de resina termoplástica</t>
-  </si>
-  <si>
-    <t>Cola, liquida, a base de P.V.A., branca, para uso em papel, cerâmica, tecido, artesanato. Embalagem: frasco plástico com 500 g.</t>
-  </si>
-  <si>
-    <t>Cola, liquida, a base de P.V.A., branca, para uso em papel, cerâmica, tecido, artesanato. Embalagem: frasco plástico com 90 g.</t>
-  </si>
-  <si>
-    <t>Compasso, metal, resistente, leve, embalagem individual, sistema de abertura por manual, ponta agulha e grafite, com adaptador para lápis, comprimento mínimo 12 em, material metal, plástico e grafite.</t>
-  </si>
-  <si>
-    <t>Conjunto de tesoura para artesanato, escalope, cores sortidas, aço inoxidável, cabo em plástico, no mínimo de 20 cm de comprimento, tesouras para artesanato com borda decorativa, tesouras para artesanato, tesouras de dente de serra, tesouras decorativas, tesouras para scrapbook, tesouras elegantes, tesouras para padrões, tesouras para design tesouras de artesanato em aço inoxidável com bordas decorativas, cabo de resina ABS, corte seguro e suave para Scrapbooking e Projetos DIY</t>
-  </si>
-  <si>
-    <t>Fita adesiva, dupla face papel 18x30.</t>
-  </si>
-  <si>
-    <t>Fita adesiva transparente, em Filme de polipropileno bi-orientado Coberto com adesivo acrílico, pacote com 4 unidades.</t>
-  </si>
-  <si>
-    <t>Gizão de cera, cores variadas e vivas, resistente, formato anatômico e cilíndrico, livre de manchas. Descrições e dimensões mínimas: 06 cores, com selo de certificação do INMETRO.</t>
-  </si>
-  <si>
-    <t>Grampeador, de mesa 26x6 capacidade de 25 folhas de papel 75 gr/m?, Corpo metálico, Dimensões: 20 cm x 5 cm x 8,5 em (Cx L x A).</t>
-  </si>
-  <si>
-    <t>Isopor, em placa, espessura 15 mm, dimensões 1000 x 500 mm.</t>
-  </si>
-  <si>
-    <t>Isopor, em placa, espessura 20 mm, dimensões 1000 x 500 mm.</t>
-  </si>
-  <si>
-    <t>Isopor, em placa, espessura 30 mm, dimensões 1000 x 500 mm.</t>
-  </si>
-  <si>
-    <t>Kit Furador, cortador, perfurador de papel e E.V.A, formato da hélice em flor, coração e círculo, multicolor, com reservatório, metal e/ou alumínio, tamanho mínimo da perfuração 18mm, dimensões mínimas: 10 cm x 5ecm x 6 cm. Com certificação do INMETRO.</t>
-  </si>
-  <si>
-    <t>Lápis, cera, dimensões 1,0 em (diametro) x 9,0 em (comprimento), com variação de +/- 0,5 cm. Embalagem: caixa com 12 cores diversas.</t>
-  </si>
-  <si>
-    <t>Lápis, de cor, revestido em madeira, comprimento de 17,5 ecm, com variação de +/- 0,5 cm, pigmentos com alta concentração, cores vivas e intensa com exelente deposição, exclusiva formula macia e resistente produzido com materia-prima de alta qualidade, desliza facilmente, madeira plantada de alta qualidade, facil de aponta, fidelidade entre a cor do verniz e a cor da mina que atende as necessidades, mina centralizada que proporciona maior resistência a quebras e melhor perfomace, atóxico e seguro para uso - caixa com 12 unid.</t>
-  </si>
-  <si>
-    <t>Lápis, mina grafite, numero 02 (dois), revestido em madeira reflorestada, comprimento 175 mm podendo variar em + ou - 5%, com ponta feita, gravado no seu corpo a marca do fabricante, caixa com 144 um.</t>
-  </si>
-  <si>
-    <t>Livro, jogo dos dilemas, confeccionado em capa mole, trazendo 40 cartas para trabalhar valores éticos, gênero filosofia e psicologia. Dimensões mínimas: 6cm largura x 8cm altura.</t>
-  </si>
-  <si>
-    <t>Papel camurça 60x40, na cor amarelo</t>
-  </si>
-  <si>
-    <t>Papel camurça 60x40, na cor branco</t>
-  </si>
-  <si>
-    <t>Papel camurça 60x40, na cor azul marinho</t>
-  </si>
-  <si>
-    <t>Papel camurça 60x40, na cor marrom</t>
-  </si>
-  <si>
-    <t>Papel camurça 60x40, na cor preto</t>
-  </si>
-  <si>
-    <t>Papel camurça 60x40, na cor verde bandeira</t>
-  </si>
-  <si>
-    <t>Papel camurça 60x40, na cor vermelho</t>
-  </si>
-  <si>
-    <t>Papel colorido A4, pacote com 100 folhas, nas cores sortida.</t>
-  </si>
-  <si>
-    <t>Papel dupla face 48x66 várias cores</t>
-  </si>
-  <si>
-    <t>Papel ofício A4 210x297mm 75gr/m? 500 folhas. Cx 10 resma.</t>
-  </si>
-  <si>
-    <t>Pasta catalogo, com 50 envelopes plástico resistente incolor, dimensões de 240 x 340 mm podendo variar em ate + 10%, em papelão liso revestido em pvc na cor azul, com 04 parafusos metálicos para fixação dos envelopes, visor para identificação em pvc cristal.</t>
-  </si>
-  <si>
-    <t>Pasta sanfona 31 divisórias, Material atóxico, 100% reciclável, fechamento com elásticos, 31 mini etiquetas para identificação de divisórias, tamanho mínimo L: 380 X A: 250 mm. Nas cores azul e cinza, sendo 250 de cada cor.</t>
-  </si>
-  <si>
-    <t>Pincel atômico, recarregável. Tinta a base de álcool, caixa com 12 unidades. Nas cores azul, vermelho e preto.</t>
-  </si>
-  <si>
-    <t>Pincel, para pintura, com cerdas de nylon, base achatada, número 12.</t>
-  </si>
-  <si>
-    <t>Pincel, para pintura, com cerdas de nylon, base achatada, número 14.</t>
-  </si>
-  <si>
-    <t>Pincel, para pintura, com cerdas de nylon, base achatada, número 16.</t>
-  </si>
-  <si>
-    <t>Pincel, para pintura, com cerdas de nylon, base achatada, número 18.</t>
-  </si>
-  <si>
-    <t>Pincel, para pintura, com cerdas de nylon, base achatada, número 2.</t>
-  </si>
-  <si>
-    <t>Pincel, para pintura, com cerdas de nylon, base achatada, número 20.</t>
-  </si>
-  <si>
-    <t>Pincel, para pintura, com cerdas de nylon, base achatada, número 22.</t>
-  </si>
-  <si>
-    <t>Pincel, para pintura, com cerdas de nylon, base achatada, número 24.</t>
-  </si>
-  <si>
-    <t>Pincel, para pintura, com cerdas de nylon, base achatada, número 4.</t>
-  </si>
-  <si>
-    <t>Pincel, para pintura, com cerdas de nylon, base achatada, número 6.</t>
-  </si>
-  <si>
-    <t>Pincel, para pintura, com cerdas de nylon, base achatada, número 8.</t>
-  </si>
-  <si>
-    <t>Pincel, para pintura, com cerdas de nylon, base achatada, número 10.</t>
-  </si>
-  <si>
-    <t>Pistola para cola quente 40w, Bivolt (110x220 volts).</t>
-  </si>
-  <si>
-    <t>Placa, em borracha e.v.a., dimensões 50 x 40 cem, espessura 2 mm, com gliter material de pve cloreto de polivinila. Cores variadas.</t>
-  </si>
-  <si>
-    <t>Placa, em borracha e.v.a., dimensões 50 x 40 cem, espessura 2 mm, nas cores verde bandeira e cítrico, amarela, vermelho, laranja, rosa escuro e claro, lilas claro e escuro, azul claro e escuro, branco, preto, marfim, marrom.</t>
-  </si>
-  <si>
-    <t>Prancheta, ofício, material acrílico, lisa, prendedor de metal, multicor, cantos arredondados. Dimensões mínimas: 40 cm de comprimento x 26 cm de largura</t>
-  </si>
-  <si>
-    <t>Régua em madeira 1mt, escala de precisão</t>
-  </si>
-  <si>
-    <t>Régua em poliestireno 50 cem, escala de precisão, Cor: Cristal.</t>
-  </si>
-  <si>
-    <t>Tecido T.N.T. 1,40 mts de largura x 50 mts de comp., gramatura 45, cores variadas.</t>
-  </si>
-  <si>
-    <t>Tela para pintura tamanhos variados</t>
-  </si>
-  <si>
-    <t>Tesoura com mola plástica, universal, haste em plástico, resistente, lâminas em aço inoxidável, ponta arredondada, cor variada, design ergonômico, mola com recolhimento. Dimensões e descrições mínimas: 4 cm de largura x 10 cm de altura, com selo ou número de certificação.</t>
-  </si>
-  <si>
-    <t>Tesoura tipo mola, universal, haste em plástico, resistente, lâminas em aço inoxidável, ponta arredondada, cor variada, design ergonômico. Dimensões e descrições mínimas: lâmina com 3 cm e abertura maior que 4,0 cm, com selo ou número de certificação.</t>
-  </si>
-  <si>
-    <t>Tesoura, escolar, corte reto, cores sortidas, aço inoxidável, ponta arredondada, cabo em plástico, comprimento de no mínimo 11 cem.</t>
-  </si>
-  <si>
-    <t>Tinta guache 250 ml, a base de água, não toxica, nas cores variadas</t>
-  </si>
-  <si>
-    <t>Tinta para tecido, 37ml, a base de resina acrilica, não toxicas, solúveis em agua caixa com 12 und., nas cores variadas.</t>
-  </si>
-  <si>
-    <t>Transferidor, poliestireno com 1,ó mm de espessura, 360º graus, transparente, resistente e durável, bordas chanfradas para facilitar a leitura e o manuseio. com certificação do INMETRO.</t>
-  </si>
-  <si>
-    <t>Kit Funcional Agilidade inclusos cones e chapéus chinês + uma escada agilidade, com no mínimo 10 chapéus, 10 cones e 1 escada agilidade com no mínimo 6 degraus; cone demarcatório: cor: aleatória/diversificada, material: polipropileno, medidas mínimas: 10 cm de largura x 17cm de altura; Prato demarcatório: cor aleatória/diversificada, material: polipropileno, medidas mínimas: 4 cm de altura x 18 cm de diâmetro Base x 4cm de diâmetro topo; Escada De Agilidade: cor: fita: preto, degrau: amarelo, material: tiras: polipropileno costuradas reforçadas; medidas mínimas: 48 cm de largura total, 2,4 em de largura fita externa, largura tiras interna 3 em, comprimento aproximado: 3 metros.</t>
-  </si>
-  <si>
-    <t>Kit cones com Dbarreiras agilidade funcional, contendo no mínimo 10 cones demarcatórios furados com no mínimo 5 níveis coloridos, 5 barreiras desmontáveis com no mínimo 87 em e 5 minis bandeiras de sinalização. Medidas mínimas: Largura: 11,5 cm; Altura: 22 cm Cor: sortida, material: PP, barreiras desmontável, leves e port</t>
+    <t>Bola de futsal oficial, com 68cm a 69cm de circunferência, pesando  entre 420 e 450 gramas, contendo em seu interior câmara em butil,  confeccionada em PU,  miolo removível.</t>
+  </si>
+  <si>
+    <t>Xadrez Estojo: Contendo 1 Tabuleiro caixa de Madeira com fecho de metal, dobrável, 32  peças em  plástico  rígido de  Polietileno.  Dimensões aproximada do tabuleiro aberto: 37cm  x  37cm  x  3,4cm.  Dimensões aproximada do tabuleiro fechado: 38cm x 19cm x 7cm. Medida mínima de cada Casa: 4cm. Dimensões mínimas das peças: Peões - 4,5cm (base 3,5cm), Torre  - 6cm (base 3,9cm), Bispo - 7</t>
   </si>
   <si>
     <t>Unidade</t>
@@ -1940,6 +1592,9 @@
       <c r="B2" t="s">
         <v>205</v>
       </c>
+      <c r="C2" t="s">
+        <v>383</v>
+      </c>
       <c r="D2">
         <v>20</v>
       </c>
@@ -1950,13 +1605,13 @@
         <v>1417</v>
       </c>
       <c r="G2" t="s">
-        <v>505</v>
+        <v>389</v>
       </c>
       <c r="H2" t="s">
-        <v>507</v>
+        <v>391</v>
       </c>
       <c r="I2" t="s">
-        <v>508</v>
+        <v>392</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1966,6 +1621,9 @@
       <c r="B3" t="s">
         <v>206</v>
       </c>
+      <c r="C3" t="s">
+        <v>383</v>
+      </c>
       <c r="D3">
         <v>20</v>
       </c>
@@ -1976,13 +1634,13 @@
         <v>1531</v>
       </c>
       <c r="G3" t="s">
-        <v>505</v>
+        <v>389</v>
       </c>
       <c r="H3" t="s">
-        <v>507</v>
+        <v>391</v>
       </c>
       <c r="I3" t="s">
-        <v>508</v>
+        <v>392</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1992,6 +1650,9 @@
       <c r="B4" t="s">
         <v>207</v>
       </c>
+      <c r="C4" t="s">
+        <v>384</v>
+      </c>
       <c r="D4">
         <v>10</v>
       </c>
@@ -2002,13 +1663,13 @@
         <v>2707.5</v>
       </c>
       <c r="G4" t="s">
-        <v>505</v>
+        <v>389</v>
       </c>
       <c r="H4" t="s">
-        <v>507</v>
+        <v>391</v>
       </c>
       <c r="I4" t="s">
-        <v>508</v>
+        <v>392</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -2018,6 +1679,9 @@
       <c r="B5" t="s">
         <v>208</v>
       </c>
+      <c r="C5" t="s">
+        <v>384</v>
+      </c>
       <c r="D5">
         <v>8</v>
       </c>
@@ -2028,13 +1692,13 @@
         <v>2512.56</v>
       </c>
       <c r="G5" t="s">
-        <v>505</v>
+        <v>389</v>
       </c>
       <c r="H5" t="s">
-        <v>507</v>
+        <v>391</v>
       </c>
       <c r="I5" t="s">
-        <v>508</v>
+        <v>392</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -2044,6 +1708,9 @@
       <c r="B6" t="s">
         <v>209</v>
       </c>
+      <c r="C6" t="s">
+        <v>384</v>
+      </c>
       <c r="D6">
         <v>8</v>
       </c>
@@ -2054,13 +1721,13 @@
         <v>808.8</v>
       </c>
       <c r="G6" t="s">
-        <v>505</v>
+        <v>389</v>
       </c>
       <c r="H6" t="s">
-        <v>507</v>
+        <v>391</v>
       </c>
       <c r="I6" t="s">
-        <v>508</v>
+        <v>392</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -2070,6 +1737,9 @@
       <c r="B7" t="s">
         <v>210</v>
       </c>
+      <c r="C7" t="s">
+        <v>384</v>
+      </c>
       <c r="D7">
         <v>8</v>
       </c>
@@ -2080,13 +1750,13 @@
         <v>1217.28</v>
       </c>
       <c r="G7" t="s">
-        <v>505</v>
+        <v>389</v>
       </c>
       <c r="H7" t="s">
-        <v>507</v>
+        <v>391</v>
       </c>
       <c r="I7" t="s">
-        <v>508</v>
+        <v>392</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -2096,6 +1766,9 @@
       <c r="B8" t="s">
         <v>211</v>
       </c>
+      <c r="C8" t="s">
+        <v>385</v>
+      </c>
       <c r="D8">
         <v>4</v>
       </c>
@@ -2106,13 +1779,13 @@
         <v>14198.8</v>
       </c>
       <c r="G8" t="s">
-        <v>505</v>
+        <v>389</v>
       </c>
       <c r="H8" t="s">
-        <v>507</v>
+        <v>391</v>
       </c>
       <c r="I8" t="s">
-        <v>508</v>
+        <v>392</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -2122,6 +1795,9 @@
       <c r="B9" t="s">
         <v>212</v>
       </c>
+      <c r="C9" t="s">
+        <v>385</v>
+      </c>
       <c r="D9">
         <v>8</v>
       </c>
@@ -2132,13 +1808,13 @@
         <v>6083.76</v>
       </c>
       <c r="G9" t="s">
-        <v>505</v>
+        <v>389</v>
       </c>
       <c r="H9" t="s">
-        <v>507</v>
+        <v>391</v>
       </c>
       <c r="I9" t="s">
-        <v>508</v>
+        <v>392</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -2148,6 +1824,9 @@
       <c r="B10" t="s">
         <v>213</v>
       </c>
+      <c r="C10" t="s">
+        <v>385</v>
+      </c>
       <c r="D10">
         <v>12</v>
       </c>
@@ -2158,13 +1837,13 @@
         <v>1234.92</v>
       </c>
       <c r="G10" t="s">
-        <v>505</v>
+        <v>389</v>
       </c>
       <c r="H10" t="s">
-        <v>507</v>
+        <v>391</v>
       </c>
       <c r="I10" t="s">
-        <v>508</v>
+        <v>392</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -2174,6 +1853,9 @@
       <c r="B11" t="s">
         <v>214</v>
       </c>
+      <c r="C11" t="s">
+        <v>385</v>
+      </c>
       <c r="D11">
         <v>6</v>
       </c>
@@ -2184,13 +1866,13 @@
         <v>178.98</v>
       </c>
       <c r="G11" t="s">
-        <v>505</v>
+        <v>389</v>
       </c>
       <c r="H11" t="s">
-        <v>507</v>
+        <v>391</v>
       </c>
       <c r="I11" t="s">
-        <v>508</v>
+        <v>392</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -2200,6 +1882,9 @@
       <c r="B12" t="s">
         <v>215</v>
       </c>
+      <c r="C12" t="s">
+        <v>385</v>
+      </c>
       <c r="D12">
         <v>10</v>
       </c>
@@ -2210,13 +1895,13 @@
         <v>1126</v>
       </c>
       <c r="G12" t="s">
-        <v>505</v>
+        <v>389</v>
       </c>
       <c r="H12" t="s">
-        <v>507</v>
+        <v>391</v>
       </c>
       <c r="I12" t="s">
-        <v>508</v>
+        <v>392</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -2226,6 +1911,9 @@
       <c r="B13" t="s">
         <v>212</v>
       </c>
+      <c r="C13" t="s">
+        <v>385</v>
+      </c>
       <c r="D13">
         <v>6</v>
       </c>
@@ -2236,13 +1924,13 @@
         <v>660.5999999999999</v>
       </c>
       <c r="G13" t="s">
-        <v>505</v>
+        <v>389</v>
       </c>
       <c r="H13" t="s">
-        <v>507</v>
+        <v>391</v>
       </c>
       <c r="I13" t="s">
-        <v>508</v>
+        <v>392</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -2252,6 +1940,9 @@
       <c r="B14" t="s">
         <v>216</v>
       </c>
+      <c r="C14" t="s">
+        <v>385</v>
+      </c>
       <c r="D14">
         <v>9</v>
       </c>
@@ -2262,13 +1953,13 @@
         <v>1259.82</v>
       </c>
       <c r="G14" t="s">
-        <v>505</v>
+        <v>389</v>
       </c>
       <c r="H14" t="s">
-        <v>507</v>
+        <v>391</v>
       </c>
       <c r="I14" t="s">
-        <v>508</v>
+        <v>392</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -2278,6 +1969,9 @@
       <c r="B15" t="s">
         <v>217</v>
       </c>
+      <c r="C15" t="s">
+        <v>385</v>
+      </c>
       <c r="D15">
         <v>10</v>
       </c>
@@ -2288,13 +1982,13 @@
         <v>421.3</v>
       </c>
       <c r="G15" t="s">
-        <v>505</v>
+        <v>389</v>
       </c>
       <c r="H15" t="s">
-        <v>507</v>
+        <v>391</v>
       </c>
       <c r="I15" t="s">
-        <v>508</v>
+        <v>392</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -2304,6 +1998,9 @@
       <c r="B16" t="s">
         <v>218</v>
       </c>
+      <c r="C16" t="s">
+        <v>385</v>
+      </c>
       <c r="D16">
         <v>8</v>
       </c>
@@ -2314,13 +2011,13 @@
         <v>3177.28</v>
       </c>
       <c r="G16" t="s">
-        <v>505</v>
+        <v>389</v>
       </c>
       <c r="H16" t="s">
-        <v>507</v>
+        <v>391</v>
       </c>
       <c r="I16" t="s">
-        <v>508</v>
+        <v>392</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -2330,6 +2027,9 @@
       <c r="B17" t="s">
         <v>219</v>
       </c>
+      <c r="C17" t="s">
+        <v>385</v>
+      </c>
       <c r="D17">
         <v>8</v>
       </c>
@@ -2340,13 +2040,13 @@
         <v>1322.8</v>
       </c>
       <c r="G17" t="s">
-        <v>505</v>
+        <v>389</v>
       </c>
       <c r="H17" t="s">
-        <v>507</v>
+        <v>391</v>
       </c>
       <c r="I17" t="s">
-        <v>508</v>
+        <v>392</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -2356,6 +2056,9 @@
       <c r="B18" t="s">
         <v>220</v>
       </c>
+      <c r="C18" t="s">
+        <v>385</v>
+      </c>
       <c r="D18">
         <v>8</v>
       </c>
@@ -2366,13 +2069,13 @@
         <v>13677.76</v>
       </c>
       <c r="G18" t="s">
-        <v>505</v>
+        <v>389</v>
       </c>
       <c r="H18" t="s">
-        <v>507</v>
+        <v>391</v>
       </c>
       <c r="I18" t="s">
-        <v>508</v>
+        <v>392</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -2382,6 +2085,9 @@
       <c r="B19" t="s">
         <v>221</v>
       </c>
+      <c r="C19" t="s">
+        <v>385</v>
+      </c>
       <c r="D19">
         <v>5</v>
       </c>
@@ -2392,13 +2098,13 @@
         <v>3166.65</v>
       </c>
       <c r="G19" t="s">
-        <v>505</v>
+        <v>389</v>
       </c>
       <c r="H19" t="s">
-        <v>507</v>
+        <v>391</v>
       </c>
       <c r="I19" t="s">
-        <v>508</v>
+        <v>392</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -2408,6 +2114,9 @@
       <c r="B20" t="s">
         <v>222</v>
       </c>
+      <c r="C20" t="s">
+        <v>385</v>
+      </c>
       <c r="D20">
         <v>6</v>
       </c>
@@ -2418,13 +2127,13 @@
         <v>2553</v>
       </c>
       <c r="G20" t="s">
-        <v>505</v>
+        <v>389</v>
       </c>
       <c r="H20" t="s">
-        <v>507</v>
+        <v>391</v>
       </c>
       <c r="I20" t="s">
-        <v>508</v>
+        <v>392</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -2434,6 +2143,9 @@
       <c r="B21" t="s">
         <v>223</v>
       </c>
+      <c r="C21" t="s">
+        <v>385</v>
+      </c>
       <c r="D21">
         <v>8</v>
       </c>
@@ -2444,13 +2156,13 @@
         <v>1358.24</v>
       </c>
       <c r="G21" t="s">
-        <v>505</v>
+        <v>389</v>
       </c>
       <c r="H21" t="s">
-        <v>507</v>
+        <v>391</v>
       </c>
       <c r="I21" t="s">
-        <v>508</v>
+        <v>392</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -2460,6 +2172,9 @@
       <c r="B22" t="s">
         <v>224</v>
       </c>
+      <c r="C22" t="s">
+        <v>385</v>
+      </c>
       <c r="D22">
         <v>6</v>
       </c>
@@ -2470,13 +2185,13 @@
         <v>1235.82</v>
       </c>
       <c r="G22" t="s">
-        <v>505</v>
+        <v>389</v>
       </c>
       <c r="H22" t="s">
-        <v>507</v>
+        <v>391</v>
       </c>
       <c r="I22" t="s">
-        <v>508</v>
+        <v>392</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -2486,6 +2201,9 @@
       <c r="B23" t="s">
         <v>225</v>
       </c>
+      <c r="C23" t="s">
+        <v>385</v>
+      </c>
       <c r="D23">
         <v>8</v>
       </c>
@@ -2496,13 +2214,13 @@
         <v>672</v>
       </c>
       <c r="G23" t="s">
-        <v>505</v>
+        <v>389</v>
       </c>
       <c r="H23" t="s">
-        <v>507</v>
+        <v>391</v>
       </c>
       <c r="I23" t="s">
-        <v>508</v>
+        <v>392</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -2512,6 +2230,9 @@
       <c r="B24" t="s">
         <v>226</v>
       </c>
+      <c r="C24" t="s">
+        <v>385</v>
+      </c>
       <c r="D24">
         <v>6</v>
       </c>
@@ -2522,13 +2243,13 @@
         <v>533.46</v>
       </c>
       <c r="G24" t="s">
-        <v>505</v>
+        <v>389</v>
       </c>
       <c r="H24" t="s">
-        <v>507</v>
+        <v>391</v>
       </c>
       <c r="I24" t="s">
-        <v>508</v>
+        <v>392</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -2538,6 +2259,9 @@
       <c r="B25" t="s">
         <v>227</v>
       </c>
+      <c r="C25" t="s">
+        <v>385</v>
+      </c>
       <c r="D25">
         <v>6</v>
       </c>
@@ -2548,13 +2272,13 @@
         <v>301.98</v>
       </c>
       <c r="G25" t="s">
-        <v>505</v>
+        <v>389</v>
       </c>
       <c r="H25" t="s">
-        <v>507</v>
+        <v>391</v>
       </c>
       <c r="I25" t="s">
-        <v>508</v>
+        <v>392</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -2564,6 +2288,9 @@
       <c r="B26" t="s">
         <v>227</v>
       </c>
+      <c r="C26" t="s">
+        <v>385</v>
+      </c>
       <c r="D26">
         <v>20</v>
       </c>
@@ -2574,13 +2301,13 @@
         <v>2426.6</v>
       </c>
       <c r="G26" t="s">
-        <v>505</v>
+        <v>389</v>
       </c>
       <c r="H26" t="s">
-        <v>507</v>
+        <v>391</v>
       </c>
       <c r="I26" t="s">
-        <v>508</v>
+        <v>392</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -2590,6 +2317,9 @@
       <c r="B27" t="s">
         <v>227</v>
       </c>
+      <c r="C27" t="s">
+        <v>385</v>
+      </c>
       <c r="D27">
         <v>18</v>
       </c>
@@ -2600,13 +2330,13 @@
         <v>1910.88</v>
       </c>
       <c r="G27" t="s">
-        <v>505</v>
+        <v>389</v>
       </c>
       <c r="H27" t="s">
-        <v>507</v>
+        <v>391</v>
       </c>
       <c r="I27" t="s">
-        <v>508</v>
+        <v>392</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -2616,6 +2346,9 @@
       <c r="B28" t="s">
         <v>228</v>
       </c>
+      <c r="C28" t="s">
+        <v>385</v>
+      </c>
       <c r="D28">
         <v>10</v>
       </c>
@@ -2626,13 +2359,13 @@
         <v>1376.6</v>
       </c>
       <c r="G28" t="s">
-        <v>505</v>
+        <v>389</v>
       </c>
       <c r="H28" t="s">
-        <v>507</v>
+        <v>391</v>
       </c>
       <c r="I28" t="s">
-        <v>508</v>
+        <v>392</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -2642,6 +2375,9 @@
       <c r="B29" t="s">
         <v>229</v>
       </c>
+      <c r="C29" t="s">
+        <v>385</v>
+      </c>
       <c r="D29">
         <v>10</v>
       </c>
@@ -2652,13 +2388,13 @@
         <v>395.7</v>
       </c>
       <c r="G29" t="s">
-        <v>505</v>
+        <v>389</v>
       </c>
       <c r="H29" t="s">
-        <v>507</v>
+        <v>391</v>
       </c>
       <c r="I29" t="s">
-        <v>508</v>
+        <v>392</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -2668,6 +2404,9 @@
       <c r="B30" t="s">
         <v>230</v>
       </c>
+      <c r="C30" t="s">
+        <v>385</v>
+      </c>
       <c r="D30">
         <v>10</v>
       </c>
@@ -2678,13 +2417,13 @@
         <v>265</v>
       </c>
       <c r="G30" t="s">
-        <v>505</v>
+        <v>389</v>
       </c>
       <c r="H30" t="s">
-        <v>507</v>
+        <v>391</v>
       </c>
       <c r="I30" t="s">
-        <v>508</v>
+        <v>392</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -2694,6 +2433,9 @@
       <c r="B31" t="s">
         <v>231</v>
       </c>
+      <c r="C31" t="s">
+        <v>385</v>
+      </c>
       <c r="D31">
         <v>25</v>
       </c>
@@ -2704,13 +2446,13 @@
         <v>1554</v>
       </c>
       <c r="G31" t="s">
-        <v>505</v>
+        <v>389</v>
       </c>
       <c r="H31" t="s">
-        <v>507</v>
+        <v>391</v>
       </c>
       <c r="I31" t="s">
-        <v>508</v>
+        <v>392</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -2720,6 +2462,9 @@
       <c r="B32" t="s">
         <v>232</v>
       </c>
+      <c r="C32" t="s">
+        <v>386</v>
+      </c>
       <c r="D32">
         <v>8</v>
       </c>
@@ -2730,13 +2475,13 @@
         <v>2194.64</v>
       </c>
       <c r="G32" t="s">
-        <v>505</v>
+        <v>389</v>
       </c>
       <c r="H32" t="s">
-        <v>507</v>
+        <v>391</v>
       </c>
       <c r="I32" t="s">
-        <v>508</v>
+        <v>392</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -2746,6 +2491,9 @@
       <c r="B33" t="s">
         <v>217</v>
       </c>
+      <c r="C33" t="s">
+        <v>385</v>
+      </c>
       <c r="D33">
         <v>6</v>
       </c>
@@ -2756,13 +2504,13 @@
         <v>293.46</v>
       </c>
       <c r="G33" t="s">
-        <v>505</v>
+        <v>389</v>
       </c>
       <c r="H33" t="s">
-        <v>507</v>
+        <v>391</v>
       </c>
       <c r="I33" t="s">
-        <v>508</v>
+        <v>392</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -2772,6 +2520,9 @@
       <c r="B34" t="s">
         <v>224</v>
       </c>
+      <c r="C34" t="s">
+        <v>385</v>
+      </c>
       <c r="D34">
         <v>8</v>
       </c>
@@ -2782,13 +2533,13 @@
         <v>348.64</v>
       </c>
       <c r="G34" t="s">
-        <v>505</v>
+        <v>389</v>
       </c>
       <c r="H34" t="s">
-        <v>507</v>
+        <v>391</v>
       </c>
       <c r="I34" t="s">
-        <v>508</v>
+        <v>392</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -2798,6 +2549,9 @@
       <c r="B35" t="s">
         <v>233</v>
       </c>
+      <c r="C35" t="s">
+        <v>385</v>
+      </c>
       <c r="D35">
         <v>6</v>
       </c>
@@ -2808,13 +2562,13 @@
         <v>453</v>
       </c>
       <c r="G35" t="s">
-        <v>505</v>
+        <v>389</v>
       </c>
       <c r="H35" t="s">
-        <v>507</v>
+        <v>391</v>
       </c>
       <c r="I35" t="s">
-        <v>508</v>
+        <v>392</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -2824,6 +2578,9 @@
       <c r="B36" t="s">
         <v>234</v>
       </c>
+      <c r="C36" t="s">
+        <v>387</v>
+      </c>
       <c r="D36">
         <v>6</v>
       </c>
@@ -2834,13 +2591,13 @@
         <v>787.98</v>
       </c>
       <c r="G36" t="s">
-        <v>505</v>
+        <v>389</v>
       </c>
       <c r="H36" t="s">
-        <v>507</v>
+        <v>391</v>
       </c>
       <c r="I36" t="s">
-        <v>508</v>
+        <v>392</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -2850,6 +2607,9 @@
       <c r="B37" t="s">
         <v>235</v>
       </c>
+      <c r="C37" t="s">
+        <v>385</v>
+      </c>
       <c r="D37">
         <v>6</v>
       </c>
@@ -2860,13 +2620,13 @@
         <v>281.46</v>
       </c>
       <c r="G37" t="s">
-        <v>505</v>
+        <v>389</v>
       </c>
       <c r="H37" t="s">
-        <v>507</v>
+        <v>391</v>
       </c>
       <c r="I37" t="s">
-        <v>508</v>
+        <v>392</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -2876,6 +2636,9 @@
       <c r="B38" t="s">
         <v>236</v>
       </c>
+      <c r="C38" t="s">
+        <v>385</v>
+      </c>
       <c r="D38">
         <v>6</v>
       </c>
@@ -2886,13 +2649,13 @@
         <v>702.96</v>
       </c>
       <c r="G38" t="s">
-        <v>505</v>
+        <v>389</v>
       </c>
       <c r="H38" t="s">
-        <v>507</v>
+        <v>391</v>
       </c>
       <c r="I38" t="s">
-        <v>508</v>
+        <v>392</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -2902,6 +2665,9 @@
       <c r="B39" t="s">
         <v>237</v>
       </c>
+      <c r="C39" t="s">
+        <v>385</v>
+      </c>
       <c r="D39">
         <v>6</v>
       </c>
@@ -2912,13 +2678,13 @@
         <v>393</v>
       </c>
       <c r="G39" t="s">
-        <v>505</v>
+        <v>389</v>
       </c>
       <c r="H39" t="s">
-        <v>507</v>
+        <v>391</v>
       </c>
       <c r="I39" t="s">
-        <v>508</v>
+        <v>392</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -2928,6 +2694,9 @@
       <c r="B40" t="s">
         <v>238</v>
       </c>
+      <c r="C40" t="s">
+        <v>385</v>
+      </c>
       <c r="D40">
         <v>6</v>
       </c>
@@ -2938,13 +2707,13 @@
         <v>334.5</v>
       </c>
       <c r="G40" t="s">
-        <v>505</v>
+        <v>389</v>
       </c>
       <c r="H40" t="s">
-        <v>507</v>
+        <v>391</v>
       </c>
       <c r="I40" t="s">
-        <v>508</v>
+        <v>392</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -2954,6 +2723,9 @@
       <c r="B41" t="s">
         <v>239</v>
       </c>
+      <c r="C41" t="s">
+        <v>385</v>
+      </c>
       <c r="D41">
         <v>8</v>
       </c>
@@ -2964,13 +2736,13 @@
         <v>677.28</v>
       </c>
       <c r="G41" t="s">
-        <v>505</v>
+        <v>389</v>
       </c>
       <c r="H41" t="s">
-        <v>507</v>
+        <v>391</v>
       </c>
       <c r="I41" t="s">
-        <v>508</v>
+        <v>392</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -2980,6 +2752,9 @@
       <c r="B42" t="s">
         <v>240</v>
       </c>
+      <c r="C42" t="s">
+        <v>385</v>
+      </c>
       <c r="D42">
         <v>6</v>
       </c>
@@ -2990,13 +2765,13 @@
         <v>702.96</v>
       </c>
       <c r="G42" t="s">
-        <v>505</v>
+        <v>389</v>
       </c>
       <c r="H42" t="s">
-        <v>507</v>
+        <v>391</v>
       </c>
       <c r="I42" t="s">
-        <v>508</v>
+        <v>392</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -3006,6 +2781,9 @@
       <c r="B43" t="s">
         <v>241</v>
       </c>
+      <c r="C43" t="s">
+        <v>388</v>
+      </c>
       <c r="D43">
         <v>45</v>
       </c>
@@ -3016,13 +2794,13 @@
         <v>5820.3</v>
       </c>
       <c r="G43" t="s">
-        <v>505</v>
+        <v>389</v>
       </c>
       <c r="H43" t="s">
-        <v>507</v>
+        <v>391</v>
       </c>
       <c r="I43" t="s">
-        <v>508</v>
+        <v>392</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -3042,13 +2820,13 @@
         <v>1236</v>
       </c>
       <c r="G44" t="s">
-        <v>505</v>
+        <v>389</v>
       </c>
       <c r="H44" t="s">
-        <v>507</v>
+        <v>391</v>
       </c>
       <c r="I44" t="s">
-        <v>508</v>
+        <v>392</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -3068,13 +2846,13 @@
         <v>334.5</v>
       </c>
       <c r="G45" t="s">
-        <v>505</v>
+        <v>389</v>
       </c>
       <c r="H45" t="s">
-        <v>507</v>
+        <v>391</v>
       </c>
       <c r="I45" t="s">
-        <v>508</v>
+        <v>392</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -3094,13 +2872,13 @@
         <v>2199.4</v>
       </c>
       <c r="G46" t="s">
-        <v>505</v>
+        <v>389</v>
       </c>
       <c r="H46" t="s">
-        <v>507</v>
+        <v>391</v>
       </c>
       <c r="I46" t="s">
-        <v>508</v>
+        <v>392</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -3120,13 +2898,13 @@
         <v>1067.82</v>
       </c>
       <c r="G47" t="s">
-        <v>505</v>
+        <v>389</v>
       </c>
       <c r="H47" t="s">
-        <v>507</v>
+        <v>391</v>
       </c>
       <c r="I47" t="s">
-        <v>508</v>
+        <v>392</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -3146,13 +2924,13 @@
         <v>615.96</v>
       </c>
       <c r="G48" t="s">
-        <v>505</v>
+        <v>389</v>
       </c>
       <c r="H48" t="s">
-        <v>507</v>
+        <v>391</v>
       </c>
       <c r="I48" t="s">
-        <v>508</v>
+        <v>392</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -3172,13 +2950,13 @@
         <v>611.64</v>
       </c>
       <c r="G49" t="s">
-        <v>505</v>
+        <v>389</v>
       </c>
       <c r="H49" t="s">
-        <v>507</v>
+        <v>391</v>
       </c>
       <c r="I49" t="s">
-        <v>508</v>
+        <v>392</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -3198,13 +2976,13 @@
         <v>1320</v>
       </c>
       <c r="G50" t="s">
-        <v>505</v>
+        <v>389</v>
       </c>
       <c r="H50" t="s">
-        <v>507</v>
+        <v>391</v>
       </c>
       <c r="I50" t="s">
-        <v>508</v>
+        <v>392</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -3224,13 +3002,13 @@
         <v>1883.3</v>
       </c>
       <c r="G51" t="s">
-        <v>505</v>
+        <v>389</v>
       </c>
       <c r="H51" t="s">
-        <v>507</v>
+        <v>391</v>
       </c>
       <c r="I51" t="s">
-        <v>508</v>
+        <v>392</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -3250,13 +3028,13 @@
         <v>295.28</v>
       </c>
       <c r="G52" t="s">
-        <v>505</v>
+        <v>389</v>
       </c>
       <c r="H52" t="s">
-        <v>507</v>
+        <v>391</v>
       </c>
       <c r="I52" t="s">
-        <v>508</v>
+        <v>392</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -3276,13 +3054,13 @@
         <v>14353.32</v>
       </c>
       <c r="G53" t="s">
-        <v>505</v>
+        <v>389</v>
       </c>
       <c r="H53" t="s">
-        <v>507</v>
+        <v>391</v>
       </c>
       <c r="I53" t="s">
-        <v>508</v>
+        <v>392</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -3302,13 +3080,13 @@
         <v>12198</v>
       </c>
       <c r="G54" t="s">
-        <v>505</v>
+        <v>389</v>
       </c>
       <c r="H54" t="s">
-        <v>507</v>
+        <v>391</v>
       </c>
       <c r="I54" t="s">
-        <v>508</v>
+        <v>392</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -3328,13 +3106,13 @@
         <v>408</v>
       </c>
       <c r="G55" t="s">
-        <v>505</v>
+        <v>389</v>
       </c>
       <c r="H55" t="s">
-        <v>507</v>
+        <v>391</v>
       </c>
       <c r="I55" t="s">
-        <v>508</v>
+        <v>392</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -3354,13 +3132,13 @@
         <v>789.28</v>
       </c>
       <c r="G56" t="s">
-        <v>505</v>
+        <v>389</v>
       </c>
       <c r="H56" t="s">
-        <v>507</v>
+        <v>391</v>
       </c>
       <c r="I56" t="s">
-        <v>508</v>
+        <v>392</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -3380,13 +3158,13 @@
         <v>1426.4</v>
       </c>
       <c r="G57" t="s">
-        <v>505</v>
+        <v>389</v>
       </c>
       <c r="H57" t="s">
-        <v>507</v>
+        <v>391</v>
       </c>
       <c r="I57" t="s">
-        <v>508</v>
+        <v>392</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -3406,13 +3184,13 @@
         <v>688.98</v>
       </c>
       <c r="G58" t="s">
-        <v>505</v>
+        <v>389</v>
       </c>
       <c r="H58" t="s">
-        <v>507</v>
+        <v>391</v>
       </c>
       <c r="I58" t="s">
-        <v>508</v>
+        <v>392</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -3432,13 +3210,13 @@
         <v>255.48</v>
       </c>
       <c r="G59" t="s">
-        <v>505</v>
+        <v>389</v>
       </c>
       <c r="H59" t="s">
-        <v>507</v>
+        <v>391</v>
       </c>
       <c r="I59" t="s">
-        <v>508</v>
+        <v>392</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -3458,13 +3236,13 @@
         <v>255.48</v>
       </c>
       <c r="G60" t="s">
-        <v>505</v>
+        <v>389</v>
       </c>
       <c r="H60" t="s">
-        <v>507</v>
+        <v>391</v>
       </c>
       <c r="I60" t="s">
-        <v>508</v>
+        <v>392</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -3484,13 +3262,13 @@
         <v>486.96</v>
       </c>
       <c r="G61" t="s">
-        <v>505</v>
+        <v>389</v>
       </c>
       <c r="H61" t="s">
-        <v>507</v>
+        <v>391</v>
       </c>
       <c r="I61" t="s">
-        <v>508</v>
+        <v>392</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -3510,13 +3288,13 @@
         <v>492.96</v>
       </c>
       <c r="G62" t="s">
-        <v>505</v>
+        <v>389</v>
       </c>
       <c r="H62" t="s">
-        <v>507</v>
+        <v>391</v>
       </c>
       <c r="I62" t="s">
-        <v>508</v>
+        <v>392</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -3536,13 +3314,13 @@
         <v>387.96</v>
       </c>
       <c r="G63" t="s">
-        <v>505</v>
+        <v>389</v>
       </c>
       <c r="H63" t="s">
-        <v>507</v>
+        <v>391</v>
       </c>
       <c r="I63" t="s">
-        <v>508</v>
+        <v>392</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -3562,13 +3340,13 @@
         <v>345.96</v>
       </c>
       <c r="G64" t="s">
-        <v>505</v>
+        <v>389</v>
       </c>
       <c r="H64" t="s">
-        <v>507</v>
+        <v>391</v>
       </c>
       <c r="I64" t="s">
-        <v>508</v>
+        <v>392</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -3588,13 +3366,13 @@
         <v>961.28</v>
       </c>
       <c r="G65" t="s">
-        <v>505</v>
+        <v>389</v>
       </c>
       <c r="H65" t="s">
-        <v>507</v>
+        <v>391</v>
       </c>
       <c r="I65" t="s">
-        <v>508</v>
+        <v>392</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -3614,13 +3392,13 @@
         <v>2264</v>
       </c>
       <c r="G66" t="s">
-        <v>505</v>
+        <v>389</v>
       </c>
       <c r="H66" t="s">
-        <v>507</v>
+        <v>391</v>
       </c>
       <c r="I66" t="s">
-        <v>508</v>
+        <v>392</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -3640,13 +3418,13 @@
         <v>2677.98</v>
       </c>
       <c r="G67" t="s">
-        <v>505</v>
+        <v>389</v>
       </c>
       <c r="H67" t="s">
-        <v>507</v>
+        <v>391</v>
       </c>
       <c r="I67" t="s">
-        <v>508</v>
+        <v>392</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -3666,13 +3444,13 @@
         <v>2677.98</v>
       </c>
       <c r="G68" t="s">
-        <v>505</v>
+        <v>389</v>
       </c>
       <c r="H68" t="s">
-        <v>507</v>
+        <v>391</v>
       </c>
       <c r="I68" t="s">
-        <v>508</v>
+        <v>392</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -3682,9 +3460,6 @@
       <c r="B69" t="s">
         <v>262</v>
       </c>
-      <c r="C69" t="s">
-        <v>383</v>
-      </c>
       <c r="D69">
         <v>28</v>
       </c>
@@ -3695,13 +3470,13 @@
         <v>2944.48</v>
       </c>
       <c r="G69" t="s">
-        <v>505</v>
+        <v>389</v>
       </c>
       <c r="H69" t="s">
-        <v>507</v>
+        <v>391</v>
       </c>
       <c r="I69" t="s">
-        <v>508</v>
+        <v>392</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -3711,9 +3486,6 @@
       <c r="B70" t="s">
         <v>263</v>
       </c>
-      <c r="C70" t="s">
-        <v>384</v>
-      </c>
       <c r="D70">
         <v>5</v>
       </c>
@@ -3724,13 +3496,13 @@
         <v>840</v>
       </c>
       <c r="G70" t="s">
-        <v>505</v>
+        <v>389</v>
       </c>
       <c r="H70" t="s">
-        <v>507</v>
+        <v>391</v>
       </c>
       <c r="I70" t="s">
-        <v>508</v>
+        <v>392</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -3740,9 +3512,6 @@
       <c r="B71" t="s">
         <v>264</v>
       </c>
-      <c r="C71" t="s">
-        <v>385</v>
-      </c>
       <c r="D71">
         <v>15</v>
       </c>
@@ -3753,13 +3522,13 @@
         <v>3615</v>
       </c>
       <c r="G71" t="s">
-        <v>505</v>
+        <v>389</v>
       </c>
       <c r="H71" t="s">
-        <v>507</v>
+        <v>391</v>
       </c>
       <c r="I71" t="s">
-        <v>508</v>
+        <v>392</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -3769,9 +3538,6 @@
       <c r="B72" t="s">
         <v>265</v>
       </c>
-      <c r="C72" t="s">
-        <v>386</v>
-      </c>
       <c r="D72">
         <v>4</v>
       </c>
@@ -3782,13 +3548,13 @@
         <v>410.64</v>
       </c>
       <c r="G72" t="s">
-        <v>505</v>
+        <v>389</v>
       </c>
       <c r="H72" t="s">
-        <v>507</v>
+        <v>391</v>
       </c>
       <c r="I72" t="s">
-        <v>508</v>
+        <v>392</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -3798,9 +3564,6 @@
       <c r="B73" t="s">
         <v>266</v>
       </c>
-      <c r="C73" t="s">
-        <v>387</v>
-      </c>
       <c r="D73">
         <v>6</v>
       </c>
@@ -3811,13 +3574,13 @@
         <v>1227.96</v>
       </c>
       <c r="G73" t="s">
-        <v>505</v>
+        <v>389</v>
       </c>
       <c r="H73" t="s">
-        <v>507</v>
+        <v>391</v>
       </c>
       <c r="I73" t="s">
-        <v>508</v>
+        <v>392</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -3827,9 +3590,6 @@
       <c r="B74" t="s">
         <v>267</v>
       </c>
-      <c r="C74" t="s">
-        <v>388</v>
-      </c>
       <c r="D74">
         <v>6</v>
       </c>
@@ -3840,13 +3600,13 @@
         <v>1263.6</v>
       </c>
       <c r="G74" t="s">
-        <v>505</v>
+        <v>389</v>
       </c>
       <c r="H74" t="s">
-        <v>507</v>
+        <v>391</v>
       </c>
       <c r="I74" t="s">
-        <v>508</v>
+        <v>392</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -3856,9 +3616,6 @@
       <c r="B75" t="s">
         <v>268</v>
       </c>
-      <c r="C75" t="s">
-        <v>389</v>
-      </c>
       <c r="D75">
         <v>10</v>
       </c>
@@ -3869,13 +3626,13 @@
         <v>734.0999999999999</v>
       </c>
       <c r="G75" t="s">
-        <v>505</v>
+        <v>389</v>
       </c>
       <c r="H75" t="s">
-        <v>507</v>
+        <v>391</v>
       </c>
       <c r="I75" t="s">
-        <v>508</v>
+        <v>392</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -3885,9 +3642,6 @@
       <c r="B76" t="s">
         <v>269</v>
       </c>
-      <c r="C76" t="s">
-        <v>390</v>
-      </c>
       <c r="D76">
         <v>12</v>
       </c>
@@ -3898,13 +3652,13 @@
         <v>906.96</v>
       </c>
       <c r="G76" t="s">
-        <v>505</v>
+        <v>389</v>
       </c>
       <c r="H76" t="s">
-        <v>507</v>
+        <v>391</v>
       </c>
       <c r="I76" t="s">
-        <v>508</v>
+        <v>392</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -3914,9 +3668,6 @@
       <c r="B77" t="s">
         <v>268</v>
       </c>
-      <c r="C77" t="s">
-        <v>391</v>
-      </c>
       <c r="D77">
         <v>12</v>
       </c>
@@ -3927,13 +3678,13 @@
         <v>1575.96</v>
       </c>
       <c r="G77" t="s">
-        <v>505</v>
+        <v>389</v>
       </c>
       <c r="H77" t="s">
-        <v>507</v>
+        <v>391</v>
       </c>
       <c r="I77" t="s">
-        <v>508</v>
+        <v>392</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -3943,9 +3694,6 @@
       <c r="B78" t="s">
         <v>270</v>
       </c>
-      <c r="C78" t="s">
-        <v>392</v>
-      </c>
       <c r="D78">
         <v>2</v>
       </c>
@@ -3956,13 +3704,13 @@
         <v>13800</v>
       </c>
       <c r="G78" t="s">
-        <v>505</v>
+        <v>389</v>
       </c>
       <c r="H78" t="s">
-        <v>507</v>
+        <v>391</v>
       </c>
       <c r="I78" t="s">
-        <v>508</v>
+        <v>392</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -3972,9 +3720,6 @@
       <c r="B79" t="s">
         <v>271</v>
       </c>
-      <c r="C79" t="s">
-        <v>393</v>
-      </c>
       <c r="D79">
         <v>6</v>
       </c>
@@ -3985,13 +3730,13 @@
         <v>507</v>
       </c>
       <c r="G79" t="s">
-        <v>505</v>
+        <v>389</v>
       </c>
       <c r="H79" t="s">
-        <v>507</v>
+        <v>391</v>
       </c>
       <c r="I79" t="s">
-        <v>508</v>
+        <v>392</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -4001,9 +3746,6 @@
       <c r="B80" t="s">
         <v>272</v>
       </c>
-      <c r="C80" t="s">
-        <v>394</v>
-      </c>
       <c r="D80">
         <v>3</v>
       </c>
@@ -4014,13 +3756,13 @@
         <v>2572.98</v>
       </c>
       <c r="G80" t="s">
-        <v>505</v>
+        <v>389</v>
       </c>
       <c r="H80" t="s">
-        <v>507</v>
+        <v>391</v>
       </c>
       <c r="I80" t="s">
-        <v>508</v>
+        <v>392</v>
       </c>
     </row>
     <row r="81" spans="1:9">
@@ -4030,9 +3772,6 @@
       <c r="B81" t="s">
         <v>273</v>
       </c>
-      <c r="C81" t="s">
-        <v>395</v>
-      </c>
       <c r="D81">
         <v>3</v>
       </c>
@@ -4043,13 +3782,13 @@
         <v>7248</v>
       </c>
       <c r="G81" t="s">
-        <v>505</v>
+        <v>389</v>
       </c>
       <c r="H81" t="s">
-        <v>507</v>
+        <v>391</v>
       </c>
       <c r="I81" t="s">
-        <v>508</v>
+        <v>392</v>
       </c>
     </row>
     <row r="82" spans="1:9">
@@ -4059,9 +3798,6 @@
       <c r="B82" t="s">
         <v>274</v>
       </c>
-      <c r="C82" t="s">
-        <v>396</v>
-      </c>
       <c r="D82">
         <v>3</v>
       </c>
@@ -4072,13 +3808,13 @@
         <v>393</v>
       </c>
       <c r="G82" t="s">
-        <v>505</v>
+        <v>389</v>
       </c>
       <c r="H82" t="s">
-        <v>507</v>
+        <v>391</v>
       </c>
       <c r="I82" t="s">
-        <v>508</v>
+        <v>392</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -4088,9 +3824,6 @@
       <c r="B83" t="s">
         <v>275</v>
       </c>
-      <c r="C83" t="s">
-        <v>397</v>
-      </c>
       <c r="D83">
         <v>3</v>
       </c>
@@ -4101,13 +3834,13 @@
         <v>5449.98</v>
       </c>
       <c r="G83" t="s">
-        <v>505</v>
+        <v>389</v>
       </c>
       <c r="H83" t="s">
-        <v>507</v>
+        <v>391</v>
       </c>
       <c r="I83" t="s">
-        <v>508</v>
+        <v>392</v>
       </c>
     </row>
     <row r="84" spans="1:9">
@@ -4117,9 +3850,6 @@
       <c r="B84" t="s">
         <v>276</v>
       </c>
-      <c r="C84" t="s">
-        <v>398</v>
-      </c>
       <c r="D84">
         <v>3</v>
       </c>
@@ -4130,13 +3860,13 @@
         <v>5449.98</v>
       </c>
       <c r="G84" t="s">
-        <v>505</v>
+        <v>389</v>
       </c>
       <c r="H84" t="s">
-        <v>507</v>
+        <v>391</v>
       </c>
       <c r="I84" t="s">
-        <v>508</v>
+        <v>392</v>
       </c>
     </row>
     <row r="85" spans="1:9">
@@ -4146,9 +3876,6 @@
       <c r="B85" t="s">
         <v>277</v>
       </c>
-      <c r="C85" t="s">
-        <v>399</v>
-      </c>
       <c r="D85">
         <v>20</v>
       </c>
@@ -4159,13 +3886,13 @@
         <v>3743.2</v>
       </c>
       <c r="G85" t="s">
-        <v>505</v>
+        <v>389</v>
       </c>
       <c r="H85" t="s">
-        <v>507</v>
+        <v>391</v>
       </c>
       <c r="I85" t="s">
-        <v>508</v>
+        <v>392</v>
       </c>
     </row>
     <row r="86" spans="1:9">
@@ -4175,9 +3902,6 @@
       <c r="B86" t="s">
         <v>278</v>
       </c>
-      <c r="C86" t="s">
-        <v>400</v>
-      </c>
       <c r="D86">
         <v>76</v>
       </c>
@@ -4188,13 +3912,13 @@
         <v>5972.08</v>
       </c>
       <c r="G86" t="s">
-        <v>505</v>
+        <v>389</v>
       </c>
       <c r="H86" t="s">
-        <v>507</v>
+        <v>391</v>
       </c>
       <c r="I86" t="s">
-        <v>508</v>
+        <v>392</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -4204,9 +3928,6 @@
       <c r="B87" t="s">
         <v>279</v>
       </c>
-      <c r="C87" t="s">
-        <v>401</v>
-      </c>
       <c r="D87">
         <v>2</v>
       </c>
@@ -4217,13 +3938,13 @@
         <v>3310</v>
       </c>
       <c r="G87" t="s">
-        <v>505</v>
+        <v>389</v>
       </c>
       <c r="H87" t="s">
-        <v>507</v>
+        <v>391</v>
       </c>
       <c r="I87" t="s">
-        <v>508</v>
+        <v>392</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -4233,9 +3954,6 @@
       <c r="B88" t="s">
         <v>280</v>
       </c>
-      <c r="C88" t="s">
-        <v>402</v>
-      </c>
       <c r="D88">
         <v>2</v>
       </c>
@@ -4246,13 +3964,13 @@
         <v>5649.32</v>
       </c>
       <c r="G88" t="s">
-        <v>505</v>
+        <v>389</v>
       </c>
       <c r="H88" t="s">
-        <v>507</v>
+        <v>391</v>
       </c>
       <c r="I88" t="s">
-        <v>508</v>
+        <v>392</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -4262,9 +3980,6 @@
       <c r="B89" t="s">
         <v>281</v>
       </c>
-      <c r="C89" t="s">
-        <v>403</v>
-      </c>
       <c r="D89">
         <v>5</v>
       </c>
@@ -4275,13 +3990,13 @@
         <v>3723.3</v>
       </c>
       <c r="G89" t="s">
-        <v>505</v>
+        <v>389</v>
       </c>
       <c r="H89" t="s">
-        <v>507</v>
+        <v>391</v>
       </c>
       <c r="I89" t="s">
-        <v>508</v>
+        <v>392</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -4291,9 +4006,6 @@
       <c r="B90" t="s">
         <v>282</v>
       </c>
-      <c r="C90" t="s">
-        <v>404</v>
-      </c>
       <c r="D90">
         <v>5</v>
       </c>
@@ -4304,13 +4016,13 @@
         <v>1556.65</v>
       </c>
       <c r="G90" t="s">
-        <v>505</v>
+        <v>389</v>
       </c>
       <c r="H90" t="s">
-        <v>507</v>
+        <v>391</v>
       </c>
       <c r="I90" t="s">
-        <v>508</v>
+        <v>392</v>
       </c>
     </row>
     <row r="91" spans="1:9">
@@ -4320,9 +4032,6 @@
       <c r="B91" t="s">
         <v>283</v>
       </c>
-      <c r="C91" t="s">
-        <v>405</v>
-      </c>
       <c r="D91">
         <v>5</v>
       </c>
@@ -4333,13 +4042,13 @@
         <v>4733.3</v>
       </c>
       <c r="G91" t="s">
-        <v>505</v>
+        <v>389</v>
       </c>
       <c r="H91" t="s">
-        <v>507</v>
+        <v>391</v>
       </c>
       <c r="I91" t="s">
-        <v>508</v>
+        <v>392</v>
       </c>
     </row>
     <row r="92" spans="1:9">
@@ -4349,9 +4058,6 @@
       <c r="B92" t="s">
         <v>284</v>
       </c>
-      <c r="C92" t="s">
-        <v>406</v>
-      </c>
       <c r="D92">
         <v>5</v>
       </c>
@@ -4362,13 +4068,13 @@
         <v>3273.3</v>
       </c>
       <c r="G92" t="s">
-        <v>505</v>
+        <v>389</v>
       </c>
       <c r="H92" t="s">
-        <v>507</v>
+        <v>391</v>
       </c>
       <c r="I92" t="s">
-        <v>508</v>
+        <v>392</v>
       </c>
     </row>
     <row r="93" spans="1:9">
@@ -4378,9 +4084,6 @@
       <c r="B93" t="s">
         <v>285</v>
       </c>
-      <c r="C93" t="s">
-        <v>407</v>
-      </c>
       <c r="D93">
         <v>6</v>
       </c>
@@ -4391,13 +4094,13 @@
         <v>1113</v>
       </c>
       <c r="G93" t="s">
-        <v>505</v>
+        <v>389</v>
       </c>
       <c r="H93" t="s">
-        <v>507</v>
+        <v>391</v>
       </c>
       <c r="I93" t="s">
-        <v>508</v>
+        <v>392</v>
       </c>
     </row>
     <row r="94" spans="1:9">
@@ -4407,9 +4110,6 @@
       <c r="B94" t="s">
         <v>285</v>
       </c>
-      <c r="C94" t="s">
-        <v>408</v>
-      </c>
       <c r="D94">
         <v>6</v>
       </c>
@@ -4420,13 +4120,13 @@
         <v>720</v>
       </c>
       <c r="G94" t="s">
-        <v>505</v>
+        <v>389</v>
       </c>
       <c r="H94" t="s">
-        <v>507</v>
+        <v>391</v>
       </c>
       <c r="I94" t="s">
-        <v>508</v>
+        <v>392</v>
       </c>
     </row>
     <row r="95" spans="1:9">
@@ -4436,9 +4136,6 @@
       <c r="B95" t="s">
         <v>286</v>
       </c>
-      <c r="C95" t="s">
-        <v>409</v>
-      </c>
       <c r="D95">
         <v>4</v>
       </c>
@@ -4449,13 +4146,13 @@
         <v>1932</v>
       </c>
       <c r="G95" t="s">
-        <v>505</v>
+        <v>389</v>
       </c>
       <c r="H95" t="s">
-        <v>507</v>
+        <v>391</v>
       </c>
       <c r="I95" t="s">
-        <v>508</v>
+        <v>392</v>
       </c>
     </row>
     <row r="96" spans="1:9">
@@ -4465,9 +4162,6 @@
       <c r="B96" t="s">
         <v>287</v>
       </c>
-      <c r="C96" t="s">
-        <v>410</v>
-      </c>
       <c r="D96">
         <v>5</v>
       </c>
@@ -4478,13 +4172,13 @@
         <v>1008.3</v>
       </c>
       <c r="G96" t="s">
-        <v>505</v>
+        <v>389</v>
       </c>
       <c r="H96" t="s">
-        <v>507</v>
+        <v>391</v>
       </c>
       <c r="I96" t="s">
-        <v>508</v>
+        <v>392</v>
       </c>
     </row>
     <row r="97" spans="1:9">
@@ -4494,9 +4188,6 @@
       <c r="B97" t="s">
         <v>288</v>
       </c>
-      <c r="C97" t="s">
-        <v>411</v>
-      </c>
       <c r="D97">
         <v>5</v>
       </c>
@@ -4507,13 +4198,13 @@
         <v>941.6500000000001</v>
       </c>
       <c r="G97" t="s">
-        <v>505</v>
+        <v>389</v>
       </c>
       <c r="H97" t="s">
-        <v>507</v>
+        <v>391</v>
       </c>
       <c r="I97" t="s">
-        <v>508</v>
+        <v>392</v>
       </c>
     </row>
     <row r="98" spans="1:9">
@@ -4523,9 +4214,6 @@
       <c r="B98" t="s">
         <v>289</v>
       </c>
-      <c r="C98" t="s">
-        <v>412</v>
-      </c>
       <c r="D98">
         <v>6</v>
       </c>
@@ -4536,13 +4224,13 @@
         <v>4527.96</v>
       </c>
       <c r="G98" t="s">
-        <v>505</v>
+        <v>389</v>
       </c>
       <c r="H98" t="s">
-        <v>507</v>
+        <v>391</v>
       </c>
       <c r="I98" t="s">
-        <v>508</v>
+        <v>392</v>
       </c>
     </row>
     <row r="99" spans="1:9">
@@ -4552,9 +4240,6 @@
       <c r="B99" t="s">
         <v>290</v>
       </c>
-      <c r="C99" t="s">
-        <v>413</v>
-      </c>
       <c r="D99">
         <v>7</v>
       </c>
@@ -4565,13 +4250,13 @@
         <v>3591</v>
       </c>
       <c r="G99" t="s">
-        <v>505</v>
+        <v>389</v>
       </c>
       <c r="H99" t="s">
-        <v>507</v>
+        <v>391</v>
       </c>
       <c r="I99" t="s">
-        <v>508</v>
+        <v>392</v>
       </c>
     </row>
     <row r="100" spans="1:9">
@@ -4581,9 +4266,6 @@
       <c r="B100" t="s">
         <v>291</v>
       </c>
-      <c r="C100" t="s">
-        <v>414</v>
-      </c>
       <c r="D100">
         <v>4</v>
       </c>
@@ -4594,13 +4276,13 @@
         <v>3780</v>
       </c>
       <c r="G100" t="s">
-        <v>505</v>
+        <v>389</v>
       </c>
       <c r="H100" t="s">
-        <v>507</v>
+        <v>391</v>
       </c>
       <c r="I100" t="s">
-        <v>508</v>
+        <v>392</v>
       </c>
     </row>
     <row r="101" spans="1:9">
@@ -4610,9 +4292,6 @@
       <c r="B101" t="s">
         <v>292</v>
       </c>
-      <c r="C101" t="s">
-        <v>415</v>
-      </c>
       <c r="D101">
         <v>4</v>
       </c>
@@ -4623,13 +4302,13 @@
         <v>15686.64</v>
       </c>
       <c r="G101" t="s">
-        <v>505</v>
+        <v>389</v>
       </c>
       <c r="H101" t="s">
-        <v>507</v>
+        <v>391</v>
       </c>
       <c r="I101" t="s">
-        <v>508</v>
+        <v>392</v>
       </c>
     </row>
     <row r="102" spans="1:9">
@@ -4639,9 +4318,6 @@
       <c r="B102" t="s">
         <v>291</v>
       </c>
-      <c r="C102" t="s">
-        <v>416</v>
-      </c>
       <c r="D102">
         <v>4</v>
       </c>
@@ -4652,13 +4328,13 @@
         <v>2730.64</v>
       </c>
       <c r="G102" t="s">
-        <v>505</v>
+        <v>389</v>
       </c>
       <c r="H102" t="s">
-        <v>507</v>
+        <v>391</v>
       </c>
       <c r="I102" t="s">
-        <v>508</v>
+        <v>392</v>
       </c>
     </row>
     <row r="103" spans="1:9">
@@ -4668,9 +4344,6 @@
       <c r="B103" t="s">
         <v>293</v>
       </c>
-      <c r="C103" t="s">
-        <v>417</v>
-      </c>
       <c r="D103">
         <v>5</v>
       </c>
@@ -4681,13 +4354,13 @@
         <v>600.8</v>
       </c>
       <c r="G103" t="s">
-        <v>505</v>
+        <v>389</v>
       </c>
       <c r="H103" t="s">
-        <v>507</v>
+        <v>391</v>
       </c>
       <c r="I103" t="s">
-        <v>508</v>
+        <v>392</v>
       </c>
     </row>
     <row r="104" spans="1:9">
@@ -4697,9 +4370,6 @@
       <c r="B104" t="s">
         <v>294</v>
       </c>
-      <c r="C104" t="s">
-        <v>418</v>
-      </c>
       <c r="D104">
         <v>2</v>
       </c>
@@ -4710,13 +4380,13 @@
         <v>2756.66</v>
       </c>
       <c r="G104" t="s">
-        <v>505</v>
+        <v>389</v>
       </c>
       <c r="H104" t="s">
-        <v>507</v>
+        <v>391</v>
       </c>
       <c r="I104" t="s">
-        <v>508</v>
+        <v>392</v>
       </c>
     </row>
     <row r="105" spans="1:9">
@@ -4726,9 +4396,6 @@
       <c r="B105" t="s">
         <v>295</v>
       </c>
-      <c r="C105" t="s">
-        <v>419</v>
-      </c>
       <c r="D105">
         <v>8</v>
       </c>
@@ -4739,13 +4406,13 @@
         <v>276.64</v>
       </c>
       <c r="G105" t="s">
-        <v>505</v>
+        <v>389</v>
       </c>
       <c r="H105" t="s">
-        <v>507</v>
+        <v>391</v>
       </c>
       <c r="I105" t="s">
-        <v>508</v>
+        <v>392</v>
       </c>
     </row>
     <row r="106" spans="1:9">
@@ -4755,9 +4422,6 @@
       <c r="B106" t="s">
         <v>296</v>
       </c>
-      <c r="C106" t="s">
-        <v>420</v>
-      </c>
       <c r="D106">
         <v>12</v>
       </c>
@@ -4768,13 +4432,13 @@
         <v>2265.96</v>
       </c>
       <c r="G106" t="s">
-        <v>505</v>
+        <v>389</v>
       </c>
       <c r="H106" t="s">
-        <v>507</v>
+        <v>391</v>
       </c>
       <c r="I106" t="s">
-        <v>508</v>
+        <v>392</v>
       </c>
     </row>
     <row r="107" spans="1:9">
@@ -4784,9 +4448,6 @@
       <c r="B107" t="s">
         <v>297</v>
       </c>
-      <c r="C107" t="s">
-        <v>421</v>
-      </c>
       <c r="D107">
         <v>8</v>
       </c>
@@ -4797,13 +4458,13 @@
         <v>1326.64</v>
       </c>
       <c r="G107" t="s">
-        <v>505</v>
+        <v>389</v>
       </c>
       <c r="H107" t="s">
-        <v>507</v>
+        <v>391</v>
       </c>
       <c r="I107" t="s">
-        <v>508</v>
+        <v>392</v>
       </c>
     </row>
     <row r="108" spans="1:9">
@@ -4813,9 +4474,6 @@
       <c r="B108" t="s">
         <v>298</v>
       </c>
-      <c r="C108" t="s">
-        <v>422</v>
-      </c>
       <c r="D108">
         <v>8</v>
       </c>
@@ -4826,13 +4484,13 @@
         <v>3193.28</v>
       </c>
       <c r="G108" t="s">
-        <v>505</v>
+        <v>389</v>
       </c>
       <c r="H108" t="s">
-        <v>507</v>
+        <v>391</v>
       </c>
       <c r="I108" t="s">
-        <v>508</v>
+        <v>392</v>
       </c>
     </row>
     <row r="109" spans="1:9">
@@ -4842,9 +4500,6 @@
       <c r="B109" t="s">
         <v>299</v>
       </c>
-      <c r="C109" t="s">
-        <v>423</v>
-      </c>
       <c r="D109">
         <v>8</v>
       </c>
@@ -4855,13 +4510,13 @@
         <v>2570.64</v>
       </c>
       <c r="G109" t="s">
-        <v>505</v>
+        <v>389</v>
       </c>
       <c r="H109" t="s">
-        <v>507</v>
+        <v>391</v>
       </c>
       <c r="I109" t="s">
-        <v>508</v>
+        <v>392</v>
       </c>
     </row>
     <row r="110" spans="1:9">
@@ -4871,9 +4526,6 @@
       <c r="B110" t="s">
         <v>300</v>
       </c>
-      <c r="C110" t="s">
-        <v>424</v>
-      </c>
       <c r="D110">
         <v>6</v>
       </c>
@@ -4884,13 +4536,13 @@
         <v>297.96</v>
       </c>
       <c r="G110" t="s">
-        <v>505</v>
+        <v>389</v>
       </c>
       <c r="H110" t="s">
-        <v>507</v>
+        <v>391</v>
       </c>
       <c r="I110" t="s">
-        <v>508</v>
+        <v>392</v>
       </c>
     </row>
     <row r="111" spans="1:9">
@@ -4900,9 +4552,6 @@
       <c r="B111" t="s">
         <v>301</v>
       </c>
-      <c r="C111" t="s">
-        <v>425</v>
-      </c>
       <c r="D111">
         <v>76</v>
       </c>
@@ -4913,13 +4562,13 @@
         <v>8398</v>
       </c>
       <c r="G111" t="s">
-        <v>505</v>
+        <v>389</v>
       </c>
       <c r="H111" t="s">
-        <v>507</v>
+        <v>391</v>
       </c>
       <c r="I111" t="s">
-        <v>508</v>
+        <v>392</v>
       </c>
     </row>
     <row r="112" spans="1:9">
@@ -4929,9 +4578,6 @@
       <c r="B112" t="s">
         <v>302</v>
       </c>
-      <c r="C112" t="s">
-        <v>426</v>
-      </c>
       <c r="D112">
         <v>3</v>
       </c>
@@ -4942,13 +4588,13 @@
         <v>1085.49</v>
       </c>
       <c r="G112" t="s">
-        <v>506</v>
+        <v>390</v>
       </c>
       <c r="H112" t="s">
-        <v>507</v>
+        <v>391</v>
       </c>
       <c r="I112" t="s">
-        <v>508</v>
+        <v>392</v>
       </c>
     </row>
     <row r="113" spans="1:9">
@@ -4958,9 +4604,6 @@
       <c r="B113" t="s">
         <v>303</v>
       </c>
-      <c r="C113" t="s">
-        <v>427</v>
-      </c>
       <c r="D113">
         <v>6</v>
       </c>
@@ -4971,13 +4614,13 @@
         <v>307.98</v>
       </c>
       <c r="G113" t="s">
-        <v>505</v>
+        <v>389</v>
       </c>
       <c r="H113" t="s">
-        <v>507</v>
+        <v>391</v>
       </c>
       <c r="I113" t="s">
-        <v>508</v>
+        <v>392</v>
       </c>
     </row>
     <row r="114" spans="1:9">
@@ -4987,9 +4630,6 @@
       <c r="B114" t="s">
         <v>304</v>
       </c>
-      <c r="C114" t="s">
-        <v>428</v>
-      </c>
       <c r="D114">
         <v>44</v>
       </c>
@@ -5000,13 +4640,13 @@
         <v>6732</v>
       </c>
       <c r="G114" t="s">
-        <v>505</v>
+        <v>389</v>
       </c>
       <c r="H114" t="s">
-        <v>507</v>
+        <v>391</v>
       </c>
       <c r="I114" t="s">
-        <v>508</v>
+        <v>392</v>
       </c>
     </row>
     <row r="115" spans="1:9">
@@ -5016,9 +4656,6 @@
       <c r="B115" t="s">
         <v>305</v>
       </c>
-      <c r="C115" t="s">
-        <v>429</v>
-      </c>
       <c r="D115">
         <v>4</v>
       </c>
@@ -5029,13 +4666,13 @@
         <v>1353.32</v>
       </c>
       <c r="G115" t="s">
-        <v>505</v>
+        <v>389</v>
       </c>
       <c r="H115" t="s">
-        <v>507</v>
+        <v>391</v>
       </c>
       <c r="I115" t="s">
-        <v>508</v>
+        <v>392</v>
       </c>
     </row>
     <row r="116" spans="1:9">
@@ -5045,9 +4682,6 @@
       <c r="B116" t="s">
         <v>306</v>
       </c>
-      <c r="C116" t="s">
-        <v>430</v>
-      </c>
       <c r="D116">
         <v>4</v>
       </c>
@@ -5058,13 +4692,13 @@
         <v>647.3200000000001</v>
       </c>
       <c r="G116" t="s">
-        <v>505</v>
+        <v>389</v>
       </c>
       <c r="H116" t="s">
-        <v>507</v>
+        <v>391</v>
       </c>
       <c r="I116" t="s">
-        <v>508</v>
+        <v>392</v>
       </c>
     </row>
     <row r="117" spans="1:9">
@@ -5074,9 +4708,6 @@
       <c r="B117" t="s">
         <v>307</v>
       </c>
-      <c r="C117" t="s">
-        <v>431</v>
-      </c>
       <c r="D117">
         <v>2</v>
       </c>
@@ -5087,13 +4718,13 @@
         <v>7070</v>
       </c>
       <c r="G117" t="s">
-        <v>505</v>
+        <v>389</v>
       </c>
       <c r="H117" t="s">
-        <v>507</v>
+        <v>391</v>
       </c>
       <c r="I117" t="s">
-        <v>508</v>
+        <v>392</v>
       </c>
     </row>
     <row r="118" spans="1:9">
@@ -5103,9 +4734,6 @@
       <c r="B118" t="s">
         <v>308</v>
       </c>
-      <c r="C118" t="s">
-        <v>432</v>
-      </c>
       <c r="D118">
         <v>2</v>
       </c>
@@ -5116,13 +4744,13 @@
         <v>11566.66</v>
       </c>
       <c r="G118" t="s">
-        <v>505</v>
+        <v>389</v>
       </c>
       <c r="H118" t="s">
-        <v>507</v>
+        <v>391</v>
       </c>
       <c r="I118" t="s">
-        <v>508</v>
+        <v>392</v>
       </c>
     </row>
     <row r="119" spans="1:9">
@@ -5132,9 +4760,6 @@
       <c r="B119" t="s">
         <v>309</v>
       </c>
-      <c r="C119" t="s">
-        <v>433</v>
-      </c>
       <c r="D119">
         <v>8</v>
       </c>
@@ -5145,13 +4770,13 @@
         <v>104.96</v>
       </c>
       <c r="G119" t="s">
-        <v>505</v>
+        <v>389</v>
       </c>
       <c r="H119" t="s">
-        <v>507</v>
+        <v>391</v>
       </c>
       <c r="I119" t="s">
-        <v>508</v>
+        <v>392</v>
       </c>
     </row>
     <row r="120" spans="1:9">
@@ -5161,9 +4786,6 @@
       <c r="B120" t="s">
         <v>310</v>
       </c>
-      <c r="C120" t="s">
-        <v>434</v>
-      </c>
       <c r="D120">
         <v>36</v>
       </c>
@@ -5174,13 +4796,13 @@
         <v>616.6799999999999</v>
       </c>
       <c r="G120" t="s">
-        <v>505</v>
+        <v>389</v>
       </c>
       <c r="H120" t="s">
-        <v>507</v>
+        <v>391</v>
       </c>
       <c r="I120" t="s">
-        <v>508</v>
+        <v>392</v>
       </c>
     </row>
     <row r="121" spans="1:9">
@@ -5190,9 +4812,6 @@
       <c r="B121" t="s">
         <v>311</v>
       </c>
-      <c r="C121" t="s">
-        <v>435</v>
-      </c>
       <c r="D121">
         <v>36</v>
       </c>
@@ -5203,13 +4822,13 @@
         <v>66.24000000000001</v>
       </c>
       <c r="G121" t="s">
-        <v>505</v>
+        <v>389</v>
       </c>
       <c r="H121" t="s">
-        <v>507</v>
+        <v>391</v>
       </c>
       <c r="I121" t="s">
-        <v>508</v>
+        <v>392</v>
       </c>
     </row>
     <row r="122" spans="1:9">
@@ -5219,9 +4838,6 @@
       <c r="B122" t="s">
         <v>312</v>
       </c>
-      <c r="C122" t="s">
-        <v>436</v>
-      </c>
       <c r="D122">
         <v>260</v>
       </c>
@@ -5232,13 +4848,13 @@
         <v>226.2</v>
       </c>
       <c r="G122" t="s">
-        <v>505</v>
+        <v>389</v>
       </c>
       <c r="H122" t="s">
-        <v>507</v>
+        <v>391</v>
       </c>
       <c r="I122" t="s">
-        <v>508</v>
+        <v>392</v>
       </c>
     </row>
     <row r="123" spans="1:9">
@@ -5248,9 +4864,6 @@
       <c r="B123" t="s">
         <v>313</v>
       </c>
-      <c r="C123" t="s">
-        <v>437</v>
-      </c>
       <c r="D123">
         <v>120</v>
       </c>
@@ -5261,13 +4874,13 @@
         <v>3464.4</v>
       </c>
       <c r="G123" t="s">
-        <v>505</v>
+        <v>389</v>
       </c>
       <c r="H123" t="s">
-        <v>507</v>
+        <v>391</v>
       </c>
       <c r="I123" t="s">
-        <v>508</v>
+        <v>392</v>
       </c>
     </row>
     <row r="124" spans="1:9">
@@ -5277,9 +4890,6 @@
       <c r="B124" t="s">
         <v>313</v>
       </c>
-      <c r="C124" t="s">
-        <v>438</v>
-      </c>
       <c r="D124">
         <v>80</v>
       </c>
@@ -5290,13 +4900,13 @@
         <v>1578.4</v>
       </c>
       <c r="G124" t="s">
-        <v>505</v>
+        <v>389</v>
       </c>
       <c r="H124" t="s">
-        <v>507</v>
+        <v>391</v>
       </c>
       <c r="I124" t="s">
-        <v>508</v>
+        <v>392</v>
       </c>
     </row>
     <row r="125" spans="1:9">
@@ -5306,9 +4916,6 @@
       <c r="B125" t="s">
         <v>314</v>
       </c>
-      <c r="C125" t="s">
-        <v>439</v>
-      </c>
       <c r="D125">
         <v>80</v>
       </c>
@@ -5319,13 +4926,13 @@
         <v>1020.8</v>
       </c>
       <c r="G125" t="s">
-        <v>505</v>
+        <v>389</v>
       </c>
       <c r="H125" t="s">
-        <v>507</v>
+        <v>391</v>
       </c>
       <c r="I125" t="s">
-        <v>508</v>
+        <v>392</v>
       </c>
     </row>
     <row r="126" spans="1:9">
@@ -5335,9 +4942,6 @@
       <c r="B126" t="s">
         <v>315</v>
       </c>
-      <c r="C126" t="s">
-        <v>440</v>
-      </c>
       <c r="D126">
         <v>25</v>
       </c>
@@ -5348,13 +4952,13 @@
         <v>1211.75</v>
       </c>
       <c r="G126" t="s">
-        <v>505</v>
+        <v>389</v>
       </c>
       <c r="H126" t="s">
-        <v>507</v>
+        <v>391</v>
       </c>
       <c r="I126" t="s">
-        <v>508</v>
+        <v>392</v>
       </c>
     </row>
     <row r="127" spans="1:9">
@@ -5364,9 +4968,6 @@
       <c r="B127" t="s">
         <v>316</v>
       </c>
-      <c r="C127" t="s">
-        <v>441</v>
-      </c>
       <c r="D127">
         <v>10</v>
       </c>
@@ -5377,13 +4978,13 @@
         <v>695.6</v>
       </c>
       <c r="G127" t="s">
-        <v>505</v>
+        <v>389</v>
       </c>
       <c r="H127" t="s">
-        <v>507</v>
+        <v>391</v>
       </c>
       <c r="I127" t="s">
-        <v>508</v>
+        <v>392</v>
       </c>
     </row>
     <row r="128" spans="1:9">
@@ -5393,9 +4994,6 @@
       <c r="B128" t="s">
         <v>317</v>
       </c>
-      <c r="C128" t="s">
-        <v>442</v>
-      </c>
       <c r="D128">
         <v>6</v>
       </c>
@@ -5406,13 +5004,13 @@
         <v>1069.32</v>
       </c>
       <c r="G128" t="s">
-        <v>505</v>
+        <v>389</v>
       </c>
       <c r="H128" t="s">
-        <v>507</v>
+        <v>391</v>
       </c>
       <c r="I128" t="s">
-        <v>508</v>
+        <v>392</v>
       </c>
     </row>
     <row r="129" spans="1:9">
@@ -5422,9 +5020,6 @@
       <c r="B129" t="s">
         <v>318</v>
       </c>
-      <c r="C129" t="s">
-        <v>443</v>
-      </c>
       <c r="D129">
         <v>6</v>
       </c>
@@ -5435,13 +5030,13 @@
         <v>1240.32</v>
       </c>
       <c r="G129" t="s">
-        <v>505</v>
+        <v>389</v>
       </c>
       <c r="H129" t="s">
-        <v>507</v>
+        <v>391</v>
       </c>
       <c r="I129" t="s">
-        <v>508</v>
+        <v>392</v>
       </c>
     </row>
     <row r="130" spans="1:9">
@@ -5451,9 +5046,6 @@
       <c r="B130" t="s">
         <v>319</v>
       </c>
-      <c r="C130" t="s">
-        <v>444</v>
-      </c>
       <c r="D130">
         <v>26</v>
       </c>
@@ -5464,13 +5056,13 @@
         <v>325</v>
       </c>
       <c r="G130" t="s">
-        <v>505</v>
+        <v>389</v>
       </c>
       <c r="H130" t="s">
-        <v>507</v>
+        <v>391</v>
       </c>
       <c r="I130" t="s">
-        <v>508</v>
+        <v>392</v>
       </c>
     </row>
     <row r="131" spans="1:9">
@@ -5480,9 +5072,6 @@
       <c r="B131" t="s">
         <v>320</v>
       </c>
-      <c r="C131" t="s">
-        <v>445</v>
-      </c>
       <c r="D131">
         <v>110</v>
       </c>
@@ -5493,13 +5082,13 @@
         <v>1320</v>
       </c>
       <c r="G131" t="s">
-        <v>505</v>
+        <v>389</v>
       </c>
       <c r="H131" t="s">
-        <v>507</v>
+        <v>391</v>
       </c>
       <c r="I131" t="s">
-        <v>508</v>
+        <v>392</v>
       </c>
     </row>
     <row r="132" spans="1:9">
@@ -5509,9 +5098,6 @@
       <c r="B132" t="s">
         <v>321</v>
       </c>
-      <c r="C132" t="s">
-        <v>446</v>
-      </c>
       <c r="D132">
         <v>15</v>
       </c>
@@ -5522,13 +5108,13 @@
         <v>1370.55</v>
       </c>
       <c r="G132" t="s">
-        <v>505</v>
+        <v>389</v>
       </c>
       <c r="H132" t="s">
-        <v>507</v>
+        <v>391</v>
       </c>
       <c r="I132" t="s">
-        <v>508</v>
+        <v>392</v>
       </c>
     </row>
     <row r="133" spans="1:9">
@@ -5538,9 +5124,6 @@
       <c r="B133" t="s">
         <v>321</v>
       </c>
-      <c r="C133" t="s">
-        <v>447</v>
-      </c>
       <c r="D133">
         <v>6</v>
       </c>
@@ -5551,13 +5134,13 @@
         <v>548.22</v>
       </c>
       <c r="G133" t="s">
-        <v>505</v>
+        <v>389</v>
       </c>
       <c r="H133" t="s">
-        <v>507</v>
+        <v>391</v>
       </c>
       <c r="I133" t="s">
-        <v>508</v>
+        <v>392</v>
       </c>
     </row>
     <row r="134" spans="1:9">
@@ -5567,9 +5150,6 @@
       <c r="B134" t="s">
         <v>322</v>
       </c>
-      <c r="C134" t="s">
-        <v>448</v>
-      </c>
       <c r="D134">
         <v>14</v>
       </c>
@@ -5580,13 +5160,13 @@
         <v>303.52</v>
       </c>
       <c r="G134" t="s">
-        <v>505</v>
+        <v>389</v>
       </c>
       <c r="H134" t="s">
-        <v>507</v>
+        <v>391</v>
       </c>
       <c r="I134" t="s">
-        <v>508</v>
+        <v>392</v>
       </c>
     </row>
     <row r="135" spans="1:9">
@@ -5596,9 +5176,6 @@
       <c r="B135" t="s">
         <v>322</v>
       </c>
-      <c r="C135" t="s">
-        <v>449</v>
-      </c>
       <c r="D135">
         <v>110</v>
       </c>
@@ -5609,13 +5186,13 @@
         <v>760.1</v>
       </c>
       <c r="G135" t="s">
-        <v>505</v>
+        <v>389</v>
       </c>
       <c r="H135" t="s">
-        <v>507</v>
+        <v>391</v>
       </c>
       <c r="I135" t="s">
-        <v>508</v>
+        <v>392</v>
       </c>
     </row>
     <row r="136" spans="1:9">
@@ -5625,9 +5202,6 @@
       <c r="B136" t="s">
         <v>323</v>
       </c>
-      <c r="C136" t="s">
-        <v>450</v>
-      </c>
       <c r="D136">
         <v>40</v>
       </c>
@@ -5638,13 +5212,13 @@
         <v>706.4</v>
       </c>
       <c r="G136" t="s">
-        <v>505</v>
+        <v>389</v>
       </c>
       <c r="H136" t="s">
-        <v>507</v>
+        <v>391</v>
       </c>
       <c r="I136" t="s">
-        <v>508</v>
+        <v>392</v>
       </c>
     </row>
     <row r="137" spans="1:9">
@@ -5654,9 +5228,6 @@
       <c r="B137" t="s">
         <v>324</v>
       </c>
-      <c r="C137" t="s">
-        <v>451</v>
-      </c>
       <c r="D137">
         <v>8</v>
       </c>
@@ -5667,13 +5238,13 @@
         <v>1610.64</v>
       </c>
       <c r="G137" t="s">
-        <v>505</v>
+        <v>389</v>
       </c>
       <c r="H137" t="s">
-        <v>507</v>
+        <v>391</v>
       </c>
       <c r="I137" t="s">
-        <v>508</v>
+        <v>392</v>
       </c>
     </row>
     <row r="138" spans="1:9">
@@ -5683,9 +5254,6 @@
       <c r="B138" t="s">
         <v>325</v>
       </c>
-      <c r="C138" t="s">
-        <v>452</v>
-      </c>
       <c r="D138">
         <v>16</v>
       </c>
@@ -5696,13 +5264,13 @@
         <v>306.24</v>
       </c>
       <c r="G138" t="s">
-        <v>505</v>
+        <v>389</v>
       </c>
       <c r="H138" t="s">
-        <v>507</v>
+        <v>391</v>
       </c>
       <c r="I138" t="s">
-        <v>508</v>
+        <v>392</v>
       </c>
     </row>
     <row r="139" spans="1:9">
@@ -5712,9 +5280,6 @@
       <c r="B139" t="s">
         <v>326</v>
       </c>
-      <c r="C139" t="s">
-        <v>453</v>
-      </c>
       <c r="D139">
         <v>56</v>
       </c>
@@ -5725,13 +5290,13 @@
         <v>2518.32</v>
       </c>
       <c r="G139" t="s">
-        <v>505</v>
+        <v>389</v>
       </c>
       <c r="H139" t="s">
-        <v>507</v>
+        <v>391</v>
       </c>
       <c r="I139" t="s">
-        <v>508</v>
+        <v>392</v>
       </c>
     </row>
     <row r="140" spans="1:9">
@@ -5741,9 +5306,6 @@
       <c r="B140" t="s">
         <v>327</v>
       </c>
-      <c r="C140" t="s">
-        <v>454</v>
-      </c>
       <c r="D140">
         <v>10</v>
       </c>
@@ -5754,13 +5316,13 @@
         <v>138.7</v>
       </c>
       <c r="G140" t="s">
-        <v>505</v>
+        <v>389</v>
       </c>
       <c r="H140" t="s">
-        <v>507</v>
+        <v>391</v>
       </c>
       <c r="I140" t="s">
-        <v>508</v>
+        <v>392</v>
       </c>
     </row>
     <row r="141" spans="1:9">
@@ -5770,9 +5332,6 @@
       <c r="B141" t="s">
         <v>328</v>
       </c>
-      <c r="C141" t="s">
-        <v>455</v>
-      </c>
       <c r="D141">
         <v>10</v>
       </c>
@@ -5783,13 +5342,13 @@
         <v>424.7</v>
       </c>
       <c r="G141" t="s">
-        <v>505</v>
+        <v>389</v>
       </c>
       <c r="H141" t="s">
-        <v>507</v>
+        <v>391</v>
       </c>
       <c r="I141" t="s">
-        <v>508</v>
+        <v>392</v>
       </c>
     </row>
     <row r="142" spans="1:9">
@@ -5799,9 +5358,6 @@
       <c r="B142" t="s">
         <v>329</v>
       </c>
-      <c r="C142" t="s">
-        <v>456</v>
-      </c>
       <c r="D142">
         <v>25</v>
       </c>
@@ -5812,13 +5368,13 @@
         <v>326.5</v>
       </c>
       <c r="G142" t="s">
-        <v>505</v>
+        <v>389</v>
       </c>
       <c r="H142" t="s">
-        <v>507</v>
+        <v>391</v>
       </c>
       <c r="I142" t="s">
-        <v>508</v>
+        <v>392</v>
       </c>
     </row>
     <row r="143" spans="1:9">
@@ -5828,9 +5384,6 @@
       <c r="B143" t="s">
         <v>330</v>
       </c>
-      <c r="C143" t="s">
-        <v>457</v>
-      </c>
       <c r="D143">
         <v>25</v>
       </c>
@@ -5841,13 +5394,13 @@
         <v>436.75</v>
       </c>
       <c r="G143" t="s">
-        <v>505</v>
+        <v>389</v>
       </c>
       <c r="H143" t="s">
-        <v>507</v>
+        <v>391</v>
       </c>
       <c r="I143" t="s">
-        <v>508</v>
+        <v>392</v>
       </c>
     </row>
     <row r="144" spans="1:9">
@@ -5857,9 +5410,6 @@
       <c r="B144" t="s">
         <v>331</v>
       </c>
-      <c r="C144" t="s">
-        <v>458</v>
-      </c>
       <c r="D144">
         <v>25</v>
       </c>
@@ -5870,13 +5420,13 @@
         <v>576.75</v>
       </c>
       <c r="G144" t="s">
-        <v>505</v>
+        <v>389</v>
       </c>
       <c r="H144" t="s">
-        <v>507</v>
+        <v>391</v>
       </c>
       <c r="I144" t="s">
-        <v>508</v>
+        <v>392</v>
       </c>
     </row>
     <row r="145" spans="1:9">
@@ -5886,9 +5436,6 @@
       <c r="B145" t="s">
         <v>332</v>
       </c>
-      <c r="C145" t="s">
-        <v>459</v>
-      </c>
       <c r="D145">
         <v>6</v>
       </c>
@@ -5899,13 +5446,13 @@
         <v>757.98</v>
       </c>
       <c r="G145" t="s">
-        <v>505</v>
+        <v>389</v>
       </c>
       <c r="H145" t="s">
-        <v>507</v>
+        <v>391</v>
       </c>
       <c r="I145" t="s">
-        <v>508</v>
+        <v>392</v>
       </c>
     </row>
     <row r="146" spans="1:9">
@@ -5915,9 +5462,6 @@
       <c r="B146" t="s">
         <v>333</v>
       </c>
-      <c r="C146" t="s">
-        <v>460</v>
-      </c>
       <c r="D146">
         <v>15</v>
       </c>
@@ -5928,13 +5472,13 @@
         <v>175.05</v>
       </c>
       <c r="G146" t="s">
-        <v>505</v>
+        <v>389</v>
       </c>
       <c r="H146" t="s">
-        <v>507</v>
+        <v>391</v>
       </c>
       <c r="I146" t="s">
-        <v>508</v>
+        <v>392</v>
       </c>
     </row>
     <row r="147" spans="1:9">
@@ -5944,9 +5488,6 @@
       <c r="B147" t="s">
         <v>334</v>
       </c>
-      <c r="C147" t="s">
-        <v>461</v>
-      </c>
       <c r="D147">
         <v>55</v>
       </c>
@@ -5957,13 +5498,13 @@
         <v>541.75</v>
       </c>
       <c r="G147" t="s">
-        <v>505</v>
+        <v>389</v>
       </c>
       <c r="H147" t="s">
-        <v>507</v>
+        <v>391</v>
       </c>
       <c r="I147" t="s">
-        <v>508</v>
+        <v>392</v>
       </c>
     </row>
     <row r="148" spans="1:9">
@@ -5973,9 +5514,6 @@
       <c r="B148" t="s">
         <v>335</v>
       </c>
-      <c r="C148" t="s">
-        <v>462</v>
-      </c>
       <c r="D148">
         <v>8</v>
       </c>
@@ -5986,13 +5524,13 @@
         <v>592.48</v>
       </c>
       <c r="G148" t="s">
-        <v>505</v>
+        <v>389</v>
       </c>
       <c r="H148" t="s">
-        <v>507</v>
+        <v>391</v>
       </c>
       <c r="I148" t="s">
-        <v>508</v>
+        <v>392</v>
       </c>
     </row>
     <row r="149" spans="1:9">
@@ -6002,9 +5540,6 @@
       <c r="B149" t="s">
         <v>336</v>
       </c>
-      <c r="C149" t="s">
-        <v>463</v>
-      </c>
       <c r="D149">
         <v>6</v>
       </c>
@@ -6015,13 +5550,13 @@
         <v>537.96</v>
       </c>
       <c r="G149" t="s">
-        <v>505</v>
+        <v>389</v>
       </c>
       <c r="H149" t="s">
-        <v>507</v>
+        <v>391</v>
       </c>
       <c r="I149" t="s">
-        <v>508</v>
+        <v>392</v>
       </c>
     </row>
     <row r="150" spans="1:9">
@@ -6031,9 +5566,6 @@
       <c r="B150" t="s">
         <v>337</v>
       </c>
-      <c r="C150" t="s">
-        <v>464</v>
-      </c>
       <c r="D150">
         <v>6</v>
       </c>
@@ -6044,13 +5576,13 @@
         <v>309.18</v>
       </c>
       <c r="G150" t="s">
-        <v>505</v>
+        <v>389</v>
       </c>
       <c r="H150" t="s">
-        <v>507</v>
+        <v>391</v>
       </c>
       <c r="I150" t="s">
-        <v>508</v>
+        <v>392</v>
       </c>
     </row>
     <row r="151" spans="1:9">
@@ -6060,9 +5592,6 @@
       <c r="B151" t="s">
         <v>338</v>
       </c>
-      <c r="C151" t="s">
-        <v>465</v>
-      </c>
       <c r="D151">
         <v>6</v>
       </c>
@@ -6073,13 +5602,13 @@
         <v>309.18</v>
       </c>
       <c r="G151" t="s">
-        <v>505</v>
+        <v>389</v>
       </c>
       <c r="H151" t="s">
-        <v>507</v>
+        <v>391</v>
       </c>
       <c r="I151" t="s">
-        <v>508</v>
+        <v>392</v>
       </c>
     </row>
     <row r="152" spans="1:9">
@@ -6089,9 +5618,6 @@
       <c r="B152" t="s">
         <v>339</v>
       </c>
-      <c r="C152" t="s">
-        <v>466</v>
-      </c>
       <c r="D152">
         <v>6</v>
       </c>
@@ -6102,13 +5628,13 @@
         <v>309.18</v>
       </c>
       <c r="G152" t="s">
-        <v>505</v>
+        <v>389</v>
       </c>
       <c r="H152" t="s">
-        <v>507</v>
+        <v>391</v>
       </c>
       <c r="I152" t="s">
-        <v>508</v>
+        <v>392</v>
       </c>
     </row>
     <row r="153" spans="1:9">
@@ -6118,9 +5644,6 @@
       <c r="B153" t="s">
         <v>340</v>
       </c>
-      <c r="C153" t="s">
-        <v>467</v>
-      </c>
       <c r="D153">
         <v>6</v>
       </c>
@@ -6131,13 +5654,13 @@
         <v>309.18</v>
       </c>
       <c r="G153" t="s">
-        <v>505</v>
+        <v>389</v>
       </c>
       <c r="H153" t="s">
-        <v>507</v>
+        <v>391</v>
       </c>
       <c r="I153" t="s">
-        <v>508</v>
+        <v>392</v>
       </c>
     </row>
     <row r="154" spans="1:9">
@@ -6147,9 +5670,6 @@
       <c r="B154" t="s">
         <v>341</v>
       </c>
-      <c r="C154" t="s">
-        <v>468</v>
-      </c>
       <c r="D154">
         <v>6</v>
       </c>
@@ -6160,13 +5680,13 @@
         <v>309.18</v>
       </c>
       <c r="G154" t="s">
-        <v>505</v>
+        <v>389</v>
       </c>
       <c r="H154" t="s">
-        <v>507</v>
+        <v>391</v>
       </c>
       <c r="I154" t="s">
-        <v>508</v>
+        <v>392</v>
       </c>
     </row>
     <row r="155" spans="1:9">
@@ -6176,9 +5696,6 @@
       <c r="B155" t="s">
         <v>342</v>
       </c>
-      <c r="C155" t="s">
-        <v>469</v>
-      </c>
       <c r="D155">
         <v>6</v>
       </c>
@@ -6189,13 +5706,13 @@
         <v>309.18</v>
       </c>
       <c r="G155" t="s">
-        <v>505</v>
+        <v>389</v>
       </c>
       <c r="H155" t="s">
-        <v>507</v>
+        <v>391</v>
       </c>
       <c r="I155" t="s">
-        <v>508</v>
+        <v>392</v>
       </c>
     </row>
     <row r="156" spans="1:9">
@@ -6205,9 +5722,6 @@
       <c r="B156" t="s">
         <v>343</v>
       </c>
-      <c r="C156" t="s">
-        <v>470</v>
-      </c>
       <c r="D156">
         <v>6</v>
       </c>
@@ -6218,13 +5732,13 @@
         <v>309.18</v>
       </c>
       <c r="G156" t="s">
-        <v>505</v>
+        <v>389</v>
       </c>
       <c r="H156" t="s">
-        <v>507</v>
+        <v>391</v>
       </c>
       <c r="I156" t="s">
-        <v>508</v>
+        <v>392</v>
       </c>
     </row>
     <row r="157" spans="1:9">
@@ -6234,9 +5748,6 @@
       <c r="B157" t="s">
         <v>344</v>
       </c>
-      <c r="C157" t="s">
-        <v>471</v>
-      </c>
       <c r="D157">
         <v>15</v>
       </c>
@@ -6247,13 +5758,13 @@
         <v>217.2</v>
       </c>
       <c r="G157" t="s">
-        <v>505</v>
+        <v>389</v>
       </c>
       <c r="H157" t="s">
-        <v>507</v>
+        <v>391</v>
       </c>
       <c r="I157" t="s">
-        <v>508</v>
+        <v>392</v>
       </c>
     </row>
     <row r="158" spans="1:9">
@@ -6263,9 +5774,6 @@
       <c r="B158" t="s">
         <v>345</v>
       </c>
-      <c r="C158" t="s">
-        <v>472</v>
-      </c>
       <c r="D158">
         <v>8</v>
       </c>
@@ -6276,13 +5784,13 @@
         <v>373.84</v>
       </c>
       <c r="G158" t="s">
-        <v>505</v>
+        <v>389</v>
       </c>
       <c r="H158" t="s">
-        <v>507</v>
+        <v>391</v>
       </c>
       <c r="I158" t="s">
-        <v>508</v>
+        <v>392</v>
       </c>
     </row>
     <row r="159" spans="1:9">
@@ -6292,9 +5800,6 @@
       <c r="B159" t="s">
         <v>346</v>
       </c>
-      <c r="C159" t="s">
-        <v>473</v>
-      </c>
       <c r="D159">
         <v>15</v>
       </c>
@@ -6305,13 +5810,13 @@
         <v>5949.45</v>
       </c>
       <c r="G159" t="s">
-        <v>505</v>
+        <v>389</v>
       </c>
       <c r="H159" t="s">
-        <v>507</v>
+        <v>391</v>
       </c>
       <c r="I159" t="s">
-        <v>508</v>
+        <v>392</v>
       </c>
     </row>
     <row r="160" spans="1:9">
@@ -6321,9 +5826,6 @@
       <c r="B160" t="s">
         <v>347</v>
       </c>
-      <c r="C160" t="s">
-        <v>474</v>
-      </c>
       <c r="D160">
         <v>110</v>
       </c>
@@ -6334,13 +5836,13 @@
         <v>5903.7</v>
       </c>
       <c r="G160" t="s">
-        <v>505</v>
+        <v>389</v>
       </c>
       <c r="H160" t="s">
-        <v>507</v>
+        <v>391</v>
       </c>
       <c r="I160" t="s">
-        <v>508</v>
+        <v>392</v>
       </c>
     </row>
     <row r="161" spans="1:9">
@@ -6350,9 +5852,6 @@
       <c r="B161" t="s">
         <v>348</v>
       </c>
-      <c r="C161" t="s">
-        <v>475</v>
-      </c>
       <c r="D161">
         <v>4</v>
       </c>
@@ -6363,13 +5862,13 @@
         <v>478</v>
       </c>
       <c r="G161" t="s">
-        <v>505</v>
+        <v>389</v>
       </c>
       <c r="H161" t="s">
-        <v>507</v>
+        <v>391</v>
       </c>
       <c r="I161" t="s">
-        <v>508</v>
+        <v>392</v>
       </c>
     </row>
     <row r="162" spans="1:9">
@@ -6379,9 +5878,6 @@
       <c r="B162" t="s">
         <v>349</v>
       </c>
-      <c r="C162" t="s">
-        <v>476</v>
-      </c>
       <c r="D162">
         <v>10</v>
       </c>
@@ -6392,13 +5888,13 @@
         <v>952.5</v>
       </c>
       <c r="G162" t="s">
-        <v>505</v>
+        <v>389</v>
       </c>
       <c r="H162" t="s">
-        <v>507</v>
+        <v>391</v>
       </c>
       <c r="I162" t="s">
-        <v>508</v>
+        <v>392</v>
       </c>
     </row>
     <row r="163" spans="1:9">
@@ -6408,9 +5904,6 @@
       <c r="B163" t="s">
         <v>350</v>
       </c>
-      <c r="C163" t="s">
-        <v>477</v>
-      </c>
       <c r="D163">
         <v>14</v>
       </c>
@@ -6421,13 +5914,13 @@
         <v>68.18000000000001</v>
       </c>
       <c r="G163" t="s">
-        <v>505</v>
+        <v>389</v>
       </c>
       <c r="H163" t="s">
-        <v>507</v>
+        <v>391</v>
       </c>
       <c r="I163" t="s">
-        <v>508</v>
+        <v>392</v>
       </c>
     </row>
     <row r="164" spans="1:9">
@@ -6437,9 +5930,6 @@
       <c r="B164" t="s">
         <v>351</v>
       </c>
-      <c r="C164" t="s">
-        <v>478</v>
-      </c>
       <c r="D164">
         <v>14</v>
       </c>
@@ -6450,13 +5940,13 @@
         <v>73.08</v>
       </c>
       <c r="G164" t="s">
-        <v>505</v>
+        <v>389</v>
       </c>
       <c r="H164" t="s">
-        <v>507</v>
+        <v>391</v>
       </c>
       <c r="I164" t="s">
-        <v>508</v>
+        <v>392</v>
       </c>
     </row>
     <row r="165" spans="1:9">
@@ -6466,9 +5956,6 @@
       <c r="B165" t="s">
         <v>352</v>
       </c>
-      <c r="C165" t="s">
-        <v>479</v>
-      </c>
       <c r="D165">
         <v>14</v>
       </c>
@@ -6479,13 +5966,13 @@
         <v>91.28</v>
       </c>
       <c r="G165" t="s">
-        <v>505</v>
+        <v>389</v>
       </c>
       <c r="H165" t="s">
-        <v>507</v>
+        <v>391</v>
       </c>
       <c r="I165" t="s">
-        <v>508</v>
+        <v>392</v>
       </c>
     </row>
     <row r="166" spans="1:9">
@@ -6495,9 +5982,6 @@
       <c r="B166" t="s">
         <v>353</v>
       </c>
-      <c r="C166" t="s">
-        <v>480</v>
-      </c>
       <c r="D166">
         <v>14</v>
       </c>
@@ -6508,13 +5992,13 @@
         <v>108.78</v>
       </c>
       <c r="G166" t="s">
-        <v>505</v>
+        <v>389</v>
       </c>
       <c r="H166" t="s">
-        <v>507</v>
+        <v>391</v>
       </c>
       <c r="I166" t="s">
-        <v>508</v>
+        <v>392</v>
       </c>
     </row>
     <row r="167" spans="1:9">
@@ -6524,9 +6008,6 @@
       <c r="B167" t="s">
         <v>354</v>
       </c>
-      <c r="C167" t="s">
-        <v>481</v>
-      </c>
       <c r="D167">
         <v>14</v>
       </c>
@@ -6537,13 +6018,13 @@
         <v>51.94</v>
       </c>
       <c r="G167" t="s">
-        <v>505</v>
+        <v>389</v>
       </c>
       <c r="H167" t="s">
-        <v>507</v>
+        <v>391</v>
       </c>
       <c r="I167" t="s">
-        <v>508</v>
+        <v>392</v>
       </c>
     </row>
     <row r="168" spans="1:9">
@@ -6553,9 +6034,6 @@
       <c r="B168" t="s">
         <v>355</v>
       </c>
-      <c r="C168" t="s">
-        <v>482</v>
-      </c>
       <c r="D168">
         <v>14</v>
       </c>
@@ -6566,13 +6044,13 @@
         <v>111.3</v>
       </c>
       <c r="G168" t="s">
-        <v>505</v>
+        <v>389</v>
       </c>
       <c r="H168" t="s">
-        <v>507</v>
+        <v>391</v>
       </c>
       <c r="I168" t="s">
-        <v>508</v>
+        <v>392</v>
       </c>
     </row>
     <row r="169" spans="1:9">
@@ -6582,9 +6060,6 @@
       <c r="B169" t="s">
         <v>356</v>
       </c>
-      <c r="C169" t="s">
-        <v>483</v>
-      </c>
       <c r="D169">
         <v>14</v>
       </c>
@@ -6595,13 +6070,13 @@
         <v>128.24</v>
       </c>
       <c r="G169" t="s">
-        <v>505</v>
+        <v>389</v>
       </c>
       <c r="H169" t="s">
-        <v>507</v>
+        <v>391</v>
       </c>
       <c r="I169" t="s">
-        <v>508</v>
+        <v>392</v>
       </c>
     </row>
     <row r="170" spans="1:9">
@@ -6611,9 +6086,6 @@
       <c r="B170" t="s">
         <v>357</v>
       </c>
-      <c r="C170" t="s">
-        <v>484</v>
-      </c>
       <c r="D170">
         <v>14</v>
       </c>
@@ -6624,13 +6096,13 @@
         <v>164.78</v>
       </c>
       <c r="G170" t="s">
-        <v>505</v>
+        <v>389</v>
       </c>
       <c r="H170" t="s">
-        <v>507</v>
+        <v>391</v>
       </c>
       <c r="I170" t="s">
-        <v>508</v>
+        <v>392</v>
       </c>
     </row>
     <row r="171" spans="1:9">
@@ -6640,9 +6112,6 @@
       <c r="B171" t="s">
         <v>358</v>
       </c>
-      <c r="C171" t="s">
-        <v>485</v>
-      </c>
       <c r="D171">
         <v>14</v>
       </c>
@@ -6653,13 +6122,13 @@
         <v>53.34</v>
       </c>
       <c r="G171" t="s">
-        <v>505</v>
+        <v>389</v>
       </c>
       <c r="H171" t="s">
-        <v>507</v>
+        <v>391</v>
       </c>
       <c r="I171" t="s">
-        <v>508</v>
+        <v>392</v>
       </c>
     </row>
     <row r="172" spans="1:9">
@@ -6669,9 +6138,6 @@
       <c r="B172" t="s">
         <v>359</v>
       </c>
-      <c r="C172" t="s">
-        <v>486</v>
-      </c>
       <c r="D172">
         <v>14</v>
       </c>
@@ -6682,13 +6148,13 @@
         <v>54.04</v>
       </c>
       <c r="G172" t="s">
-        <v>505</v>
+        <v>389</v>
       </c>
       <c r="H172" t="s">
-        <v>507</v>
+        <v>391</v>
       </c>
       <c r="I172" t="s">
-        <v>508</v>
+        <v>392</v>
       </c>
     </row>
     <row r="173" spans="1:9">
@@ -6698,9 +6164,6 @@
       <c r="B173" t="s">
         <v>360</v>
       </c>
-      <c r="C173" t="s">
-        <v>487</v>
-      </c>
       <c r="D173">
         <v>14</v>
       </c>
@@ -6711,13 +6174,13 @@
         <v>66.64</v>
       </c>
       <c r="G173" t="s">
-        <v>505</v>
+        <v>389</v>
       </c>
       <c r="H173" t="s">
-        <v>507</v>
+        <v>391</v>
       </c>
       <c r="I173" t="s">
-        <v>508</v>
+        <v>392</v>
       </c>
     </row>
     <row r="174" spans="1:9">
@@ -6727,9 +6190,6 @@
       <c r="B174" t="s">
         <v>361</v>
       </c>
-      <c r="C174" t="s">
-        <v>488</v>
-      </c>
       <c r="D174">
         <v>14</v>
       </c>
@@ -6740,13 +6200,13 @@
         <v>69.3</v>
       </c>
       <c r="G174" t="s">
-        <v>505</v>
+        <v>389</v>
       </c>
       <c r="H174" t="s">
-        <v>507</v>
+        <v>391</v>
       </c>
       <c r="I174" t="s">
-        <v>508</v>
+        <v>392</v>
       </c>
     </row>
     <row r="175" spans="1:9">
@@ -6756,9 +6216,6 @@
       <c r="B175" t="s">
         <v>362</v>
       </c>
-      <c r="C175" t="s">
-        <v>489</v>
-      </c>
       <c r="D175">
         <v>8</v>
       </c>
@@ -6769,13 +6226,13 @@
         <v>450.24</v>
       </c>
       <c r="G175" t="s">
-        <v>505</v>
+        <v>389</v>
       </c>
       <c r="H175" t="s">
-        <v>507</v>
+        <v>391</v>
       </c>
       <c r="I175" t="s">
-        <v>508</v>
+        <v>392</v>
       </c>
     </row>
     <row r="176" spans="1:9">
@@ -6785,9 +6242,6 @@
       <c r="B176" t="s">
         <v>363</v>
       </c>
-      <c r="C176" t="s">
-        <v>490</v>
-      </c>
       <c r="D176">
         <v>15</v>
       </c>
@@ -6798,13 +6252,13 @@
         <v>443.55</v>
       </c>
       <c r="G176" t="s">
-        <v>505</v>
+        <v>389</v>
       </c>
       <c r="H176" t="s">
-        <v>507</v>
+        <v>391</v>
       </c>
       <c r="I176" t="s">
-        <v>508</v>
+        <v>392</v>
       </c>
     </row>
     <row r="177" spans="1:9">
@@ -6814,9 +6268,6 @@
       <c r="B177" t="s">
         <v>363</v>
       </c>
-      <c r="C177" t="s">
-        <v>491</v>
-      </c>
       <c r="D177">
         <v>8</v>
       </c>
@@ -6827,13 +6278,13 @@
         <v>231.76</v>
       </c>
       <c r="G177" t="s">
-        <v>505</v>
+        <v>389</v>
       </c>
       <c r="H177" t="s">
-        <v>507</v>
+        <v>391</v>
       </c>
       <c r="I177" t="s">
-        <v>508</v>
+        <v>392</v>
       </c>
     </row>
     <row r="178" spans="1:9">
@@ -6843,9 +6294,6 @@
       <c r="B178" t="s">
         <v>364</v>
       </c>
-      <c r="C178" t="s">
-        <v>492</v>
-      </c>
       <c r="D178">
         <v>8</v>
       </c>
@@ -6856,13 +6304,13 @@
         <v>241.12</v>
       </c>
       <c r="G178" t="s">
-        <v>505</v>
+        <v>389</v>
       </c>
       <c r="H178" t="s">
-        <v>507</v>
+        <v>391</v>
       </c>
       <c r="I178" t="s">
-        <v>508</v>
+        <v>392</v>
       </c>
     </row>
     <row r="179" spans="1:9">
@@ -6872,9 +6320,6 @@
       <c r="B179" t="s">
         <v>365</v>
       </c>
-      <c r="C179" t="s">
-        <v>493</v>
-      </c>
       <c r="D179">
         <v>8</v>
       </c>
@@ -6885,13 +6330,13 @@
         <v>347.28</v>
       </c>
       <c r="G179" t="s">
-        <v>505</v>
+        <v>389</v>
       </c>
       <c r="H179" t="s">
-        <v>507</v>
+        <v>391</v>
       </c>
       <c r="I179" t="s">
-        <v>508</v>
+        <v>392</v>
       </c>
     </row>
     <row r="180" spans="1:9">
@@ -6901,9 +6346,6 @@
       <c r="B180" t="s">
         <v>366</v>
       </c>
-      <c r="C180" t="s">
-        <v>494</v>
-      </c>
       <c r="D180">
         <v>15</v>
       </c>
@@ -6914,13 +6356,13 @@
         <v>97.8</v>
       </c>
       <c r="G180" t="s">
-        <v>505</v>
+        <v>389</v>
       </c>
       <c r="H180" t="s">
-        <v>507</v>
+        <v>391</v>
       </c>
       <c r="I180" t="s">
-        <v>508</v>
+        <v>392</v>
       </c>
     </row>
     <row r="181" spans="1:9">
@@ -6930,9 +6372,6 @@
       <c r="B181" t="s">
         <v>367</v>
       </c>
-      <c r="C181" t="s">
-        <v>495</v>
-      </c>
       <c r="D181">
         <v>8</v>
       </c>
@@ -6943,13 +6382,13 @@
         <v>1192</v>
       </c>
       <c r="G181" t="s">
-        <v>505</v>
+        <v>389</v>
       </c>
       <c r="H181" t="s">
-        <v>507</v>
+        <v>391</v>
       </c>
       <c r="I181" t="s">
-        <v>508</v>
+        <v>392</v>
       </c>
     </row>
     <row r="182" spans="1:9">
@@ -6959,9 +6398,6 @@
       <c r="B182" t="s">
         <v>368</v>
       </c>
-      <c r="C182" t="s">
-        <v>496</v>
-      </c>
       <c r="D182">
         <v>115</v>
       </c>
@@ -6972,13 +6408,13 @@
         <v>4168.75</v>
       </c>
       <c r="G182" t="s">
-        <v>505</v>
+        <v>389</v>
       </c>
       <c r="H182" t="s">
-        <v>507</v>
+        <v>391</v>
       </c>
       <c r="I182" t="s">
-        <v>508</v>
+        <v>392</v>
       </c>
     </row>
     <row r="183" spans="1:9">
@@ -6988,9 +6424,6 @@
       <c r="B183" t="s">
         <v>369</v>
       </c>
-      <c r="C183" t="s">
-        <v>497</v>
-      </c>
       <c r="D183">
         <v>8</v>
       </c>
@@ -7001,13 +6434,13 @@
         <v>165.84</v>
       </c>
       <c r="G183" t="s">
-        <v>505</v>
+        <v>389</v>
       </c>
       <c r="H183" t="s">
-        <v>507</v>
+        <v>391</v>
       </c>
       <c r="I183" t="s">
-        <v>508</v>
+        <v>392</v>
       </c>
     </row>
     <row r="184" spans="1:9">
@@ -7017,9 +6450,6 @@
       <c r="B184" t="s">
         <v>369</v>
       </c>
-      <c r="C184" t="s">
-        <v>498</v>
-      </c>
       <c r="D184">
         <v>8</v>
       </c>
@@ -7030,13 +6460,13 @@
         <v>165.84</v>
       </c>
       <c r="G184" t="s">
-        <v>505</v>
+        <v>389</v>
       </c>
       <c r="H184" t="s">
-        <v>507</v>
+        <v>391</v>
       </c>
       <c r="I184" t="s">
-        <v>508</v>
+        <v>392</v>
       </c>
     </row>
     <row r="185" spans="1:9">
@@ -7046,9 +6476,6 @@
       <c r="B185" t="s">
         <v>370</v>
       </c>
-      <c r="C185" t="s">
-        <v>499</v>
-      </c>
       <c r="D185">
         <v>75</v>
       </c>
@@ -7059,13 +6486,13 @@
         <v>550.5</v>
       </c>
       <c r="G185" t="s">
-        <v>505</v>
+        <v>389</v>
       </c>
       <c r="H185" t="s">
-        <v>507</v>
+        <v>391</v>
       </c>
       <c r="I185" t="s">
-        <v>508</v>
+        <v>392</v>
       </c>
     </row>
     <row r="186" spans="1:9">
@@ -7075,9 +6502,6 @@
       <c r="B186" t="s">
         <v>371</v>
       </c>
-      <c r="C186" t="s">
-        <v>500</v>
-      </c>
       <c r="D186">
         <v>35</v>
       </c>
@@ -7088,13 +6512,13 @@
         <v>403.55</v>
       </c>
       <c r="G186" t="s">
-        <v>505</v>
+        <v>389</v>
       </c>
       <c r="H186" t="s">
-        <v>507</v>
+        <v>391</v>
       </c>
       <c r="I186" t="s">
-        <v>508</v>
+        <v>392</v>
       </c>
     </row>
     <row r="187" spans="1:9">
@@ -7104,9 +6528,6 @@
       <c r="B187" t="s">
         <v>372</v>
       </c>
-      <c r="C187" t="s">
-        <v>501</v>
-      </c>
       <c r="D187">
         <v>15</v>
       </c>
@@ -7117,13 +6538,13 @@
         <v>1291.5</v>
       </c>
       <c r="G187" t="s">
-        <v>505</v>
+        <v>389</v>
       </c>
       <c r="H187" t="s">
-        <v>507</v>
+        <v>391</v>
       </c>
       <c r="I187" t="s">
-        <v>508</v>
+        <v>392</v>
       </c>
     </row>
     <row r="188" spans="1:9">
@@ -7133,9 +6554,6 @@
       <c r="B188" t="s">
         <v>373</v>
       </c>
-      <c r="C188" t="s">
-        <v>502</v>
-      </c>
       <c r="D188">
         <v>35</v>
       </c>
@@ -7146,13 +6564,13 @@
         <v>464.1</v>
       </c>
       <c r="G188" t="s">
-        <v>505</v>
+        <v>389</v>
       </c>
       <c r="H188" t="s">
-        <v>507</v>
+        <v>391</v>
       </c>
       <c r="I188" t="s">
-        <v>508</v>
+        <v>392</v>
       </c>
     </row>
     <row r="189" spans="1:9">
@@ -7162,9 +6580,6 @@
       <c r="B189" t="s">
         <v>374</v>
       </c>
-      <c r="C189" t="s">
-        <v>503</v>
-      </c>
       <c r="D189">
         <v>4</v>
       </c>
@@ -7175,13 +6590,13 @@
         <v>550.64</v>
       </c>
       <c r="G189" t="s">
-        <v>505</v>
+        <v>389</v>
       </c>
       <c r="H189" t="s">
-        <v>507</v>
+        <v>391</v>
       </c>
       <c r="I189" t="s">
-        <v>508</v>
+        <v>392</v>
       </c>
     </row>
     <row r="190" spans="1:9">
@@ -7191,9 +6606,6 @@
       <c r="B190" t="s">
         <v>375</v>
       </c>
-      <c r="C190" t="s">
-        <v>504</v>
-      </c>
       <c r="D190">
         <v>4</v>
       </c>
@@ -7204,13 +6616,13 @@
         <v>1236.64</v>
       </c>
       <c r="G190" t="s">
-        <v>505</v>
+        <v>389</v>
       </c>
       <c r="H190" t="s">
-        <v>507</v>
+        <v>391</v>
       </c>
       <c r="I190" t="s">
-        <v>508</v>
+        <v>392</v>
       </c>
     </row>
     <row r="191" spans="1:9">
@@ -7230,13 +6642,13 @@
         <v>4280.099999999999</v>
       </c>
       <c r="G191" t="s">
-        <v>505</v>
+        <v>389</v>
       </c>
       <c r="H191" t="s">
-        <v>507</v>
+        <v>391</v>
       </c>
       <c r="I191" t="s">
-        <v>508</v>
+        <v>392</v>
       </c>
     </row>
     <row r="192" spans="1:9">
@@ -7256,13 +6668,13 @@
         <v>4866.66</v>
       </c>
       <c r="G192" t="s">
-        <v>505</v>
+        <v>389</v>
       </c>
       <c r="H192" t="s">
-        <v>507</v>
+        <v>391</v>
       </c>
       <c r="I192" t="s">
-        <v>508</v>
+        <v>392</v>
       </c>
     </row>
     <row r="193" spans="1:9">
@@ -7282,13 +6694,13 @@
         <v>846.6500000000001</v>
       </c>
       <c r="G193" t="s">
-        <v>505</v>
+        <v>389</v>
       </c>
       <c r="H193" t="s">
-        <v>507</v>
+        <v>391</v>
       </c>
       <c r="I193" t="s">
-        <v>508</v>
+        <v>392</v>
       </c>
     </row>
     <row r="194" spans="1:9">
@@ -7308,13 +6720,13 @@
         <v>21156.66</v>
       </c>
       <c r="G194" t="s">
-        <v>505</v>
+        <v>389</v>
       </c>
       <c r="H194" t="s">
-        <v>507</v>
+        <v>391</v>
       </c>
       <c r="I194" t="s">
-        <v>508</v>
+        <v>392</v>
       </c>
     </row>
     <row r="195" spans="1:9">
@@ -7334,13 +6746,13 @@
         <v>16613.28</v>
       </c>
       <c r="G195" t="s">
-        <v>505</v>
+        <v>389</v>
       </c>
       <c r="H195" t="s">
-        <v>507</v>
+        <v>391</v>
       </c>
       <c r="I195" t="s">
-        <v>508</v>
+        <v>392</v>
       </c>
     </row>
     <row r="196" spans="1:9">
@@ -7360,13 +6772,13 @@
         <v>15877.98</v>
       </c>
       <c r="G196" t="s">
-        <v>505</v>
+        <v>389</v>
       </c>
       <c r="H196" t="s">
-        <v>507</v>
+        <v>391</v>
       </c>
       <c r="I196" t="s">
-        <v>508</v>
+        <v>392</v>
       </c>
     </row>
     <row r="197" spans="1:9">
@@ -7386,13 +6798,13 @@
         <v>13766</v>
       </c>
       <c r="G197" t="s">
-        <v>505</v>
+        <v>389</v>
       </c>
       <c r="H197" t="s">
-        <v>507</v>
+        <v>391</v>
       </c>
       <c r="I197" t="s">
-        <v>508</v>
+        <v>392</v>
       </c>
     </row>
   </sheetData>
